--- a/client_measurement.xlsx
+++ b/client_measurement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neeyee Clothier\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{809AE747-76EF-4B8B-9487-225D3AFE54D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EEB6B45-7978-4C40-A1DE-0D7CC7552E06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{EC0E5991-954D-4A3E-B492-28ED6022059E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3482" uniqueCount="770">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3481" uniqueCount="770">
   <si>
     <t>Client_ID</t>
   </si>
@@ -2739,7 +2739,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31B7A7FE-77BD-4A40-BBD2-BFE1DE08F7D8}">
   <dimension ref="A1:BL140"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
@@ -3214,9 +3214,7 @@
       <c r="M4" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="N4" s="2" t="s">
-        <v>725</v>
-      </c>
+      <c r="N4" s="2"/>
       <c r="O4" s="2" t="s">
         <v>110</v>
       </c>

--- a/client_measurement.xlsx
+++ b/client_measurement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neeyee Clothier\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34F4A397-68CB-40D2-AAE5-2DA110E886B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{757F794C-9394-4D82-85B8-E0E0876A2682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{EC0E5991-954D-4A3E-B492-28ED6022059E}"/>
+    <workbookView xWindow="9030" yWindow="1650" windowWidth="9060" windowHeight="8325" xr2:uid="{EC0E5991-954D-4A3E-B492-28ED6022059E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3455" uniqueCount="767">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3454" uniqueCount="767">
   <si>
     <t>Client_ID</t>
   </si>
@@ -2729,8 +2729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31B7A7FE-77BD-4A40-BBD2-BFE1DE08F7D8}">
   <dimension ref="A1:BL139"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3192,8 +3192,8 @@
       <c r="K4" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="L4" s="2" t="s">
-        <v>118</v>
+      <c r="L4" s="2">
+        <v>30323539</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>94</v>

--- a/client_measurement.xlsx
+++ b/client_measurement.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neeyee Clothier\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{757F794C-9394-4D82-85B8-E0E0876A2682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3E32D16-29AF-4BA6-9315-EDC76CCB460B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9030" yWindow="1650" windowWidth="9060" windowHeight="8325" xr2:uid="{EC0E5991-954D-4A3E-B492-28ED6022059E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{EC0E5991-954D-4A3E-B492-28ED6022059E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -860,9 +860,6 @@
     <t>38.5(22 for knicker)</t>
   </si>
   <si>
-    <t>17(19.5 for knicke4)</t>
-  </si>
-  <si>
     <t>3bd6643d</t>
   </si>
   <si>
@@ -2330,6 +2327,9 @@
   </si>
   <si>
     <t>+2348065287801</t>
+  </si>
+  <si>
+    <t>17/19.5 nika</t>
   </si>
 </sst>
 </file>
@@ -2729,8 +2729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31B7A7FE-77BD-4A40-BBD2-BFE1DE08F7D8}">
   <dimension ref="A1:BL139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AC25" sqref="AC25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3295,7 +3295,7 @@
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="15" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -5448,7 +5448,7 @@
         <v>121</v>
       </c>
       <c r="AC25" s="2" t="s">
-        <v>277</v>
+        <v>766</v>
       </c>
       <c r="AD25" s="2"/>
       <c r="AE25" s="2" t="s">
@@ -5464,10 +5464,10 @@
     </row>
     <row r="26" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>278</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>279</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="9"/>
@@ -5483,16 +5483,16 @@
         <v>67</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="M26" s="2" t="s">
         <v>69</v>
       </c>
       <c r="N26" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="O26" s="2" t="s">
         <v>281</v>
-      </c>
-      <c r="O26" s="2" t="s">
-        <v>282</v>
       </c>
       <c r="P26" s="2" t="s">
         <v>101</v>
@@ -5546,10 +5546,10 @@
     </row>
     <row r="27" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>283</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>284</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="9"/>
@@ -5565,19 +5565,19 @@
         <v>67</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M27" s="2" t="s">
         <v>143</v>
       </c>
       <c r="N27" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="O27" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="O27" s="2" t="s">
+      <c r="P27" s="2" t="s">
         <v>287</v>
-      </c>
-      <c r="P27" s="2" t="s">
-        <v>288</v>
       </c>
       <c r="Q27" s="2" t="s">
         <v>95</v>
@@ -5630,10 +5630,10 @@
     </row>
     <row r="28" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>289</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>290</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="9"/>
@@ -5649,13 +5649,13 @@
         <v>67</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="M28" s="2" t="s">
         <v>69</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="O28" s="2" t="s">
         <v>231</v>
@@ -5716,10 +5716,10 @@
     </row>
     <row r="29" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>293</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>294</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="9"/>
@@ -5735,13 +5735,13 @@
         <v>67</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="M29" s="2" t="s">
         <v>91</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O29" s="2" t="s">
         <v>165</v>
@@ -5798,10 +5798,10 @@
     </row>
     <row r="30" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>297</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>298</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="9"/>
@@ -5823,10 +5823,10 @@
         <v>128</v>
       </c>
       <c r="N30" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="O30" s="2" t="s">
         <v>299</v>
-      </c>
-      <c r="O30" s="2" t="s">
-        <v>300</v>
       </c>
       <c r="P30" s="2" t="s">
         <v>128</v>
@@ -5882,10 +5882,10 @@
     </row>
     <row r="31" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>301</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>302</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="9"/>
@@ -5901,13 +5901,13 @@
         <v>67</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="M31" s="2" t="s">
         <v>143</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="O31" s="2" t="s">
         <v>213</v>
@@ -5964,10 +5964,10 @@
     </row>
     <row r="32" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>304</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>305</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="9"/>
@@ -5989,10 +5989,10 @@
         <v>102</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="P32" s="2" t="s">
         <v>98</v>
@@ -6022,7 +6022,7 @@
         <v>220</v>
       </c>
       <c r="Y32" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="Z32" s="2" t="s">
         <v>175</v>
@@ -6078,10 +6078,10 @@
     </row>
     <row r="33" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>308</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>309</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="9"/>
@@ -6103,10 +6103,10 @@
         <v>69</v>
       </c>
       <c r="N33" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="O33" s="2" t="s">
         <v>310</v>
-      </c>
-      <c r="O33" s="2" t="s">
-        <v>311</v>
       </c>
       <c r="P33" s="2" t="s">
         <v>96</v>
@@ -6136,10 +6136,10 @@
         <v>98</v>
       </c>
       <c r="Y33" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="Z33" s="2" t="s">
         <v>312</v>
-      </c>
-      <c r="Z33" s="2" t="s">
-        <v>313</v>
       </c>
       <c r="AA33" s="2" t="s">
         <v>253</v>
@@ -6202,10 +6202,10 @@
     </row>
     <row r="34" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>314</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>315</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="9" t="s">
@@ -6225,16 +6225,16 @@
         <v>67</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="M34" s="6" t="s">
         <v>69</v>
       </c>
       <c r="N34" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="O34" s="6" t="s">
         <v>317</v>
-      </c>
-      <c r="O34" s="6" t="s">
-        <v>318</v>
       </c>
       <c r="P34" s="2" t="s">
         <v>101</v>
@@ -6330,10 +6330,10 @@
     </row>
     <row r="35" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>319</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>320</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="9"/>
@@ -6349,16 +6349,16 @@
         <v>67</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="M35" s="2" t="s">
         <v>69</v>
       </c>
       <c r="N35" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="O35" s="2" t="s">
         <v>322</v>
-      </c>
-      <c r="O35" s="2" t="s">
-        <v>323</v>
       </c>
       <c r="P35" s="2" t="s">
         <v>101</v>
@@ -6403,7 +6403,7 @@
         <v>69</v>
       </c>
       <c r="AD35" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AE35" s="2" t="s">
         <v>76</v>
@@ -6448,10 +6448,10 @@
     </row>
     <row r="36" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>325</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>326</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="9"/>
@@ -6473,7 +6473,7 @@
         <v>69</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="O36" s="2" t="s">
         <v>231</v>
@@ -6518,7 +6518,7 @@
         <v>175</v>
       </c>
       <c r="AC36" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AD36" s="1"/>
       <c r="AE36" s="2" t="s">
@@ -6564,10 +6564,10 @@
     </row>
     <row r="37" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>329</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>330</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="9"/>
@@ -6583,16 +6583,16 @@
         <v>67</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="M37" s="2" t="s">
         <v>69</v>
       </c>
       <c r="N37" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="O37" s="2" t="s">
         <v>332</v>
-      </c>
-      <c r="O37" s="2" t="s">
-        <v>333</v>
       </c>
       <c r="P37" s="2" t="s">
         <v>94</v>
@@ -6682,10 +6682,10 @@
     </row>
     <row r="38" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>334</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>335</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="9"/>
@@ -6701,7 +6701,7 @@
         <v>67</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="M38" s="2" t="s">
         <v>94</v>
@@ -6710,7 +6710,7 @@
         <v>70</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="P38" s="2" t="s">
         <v>72</v>
@@ -6744,7 +6744,7 @@
         <v>113</v>
       </c>
       <c r="AA38" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AB38" s="2" t="s">
         <v>84</v>
@@ -6794,10 +6794,10 @@
     </row>
     <row r="39" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>339</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>340</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="9"/>
@@ -6819,10 +6819,10 @@
         <v>74</v>
       </c>
       <c r="N39" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="O39" s="2" t="s">
         <v>341</v>
-      </c>
-      <c r="O39" s="2" t="s">
-        <v>342</v>
       </c>
       <c r="P39" s="2" t="s">
         <v>69</v>
@@ -6912,10 +6912,10 @@
     </row>
     <row r="40" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>343</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>344</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="9"/>
@@ -6931,16 +6931,16 @@
         <v>67</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M40" s="2" t="s">
         <v>69</v>
       </c>
       <c r="N40" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="O40" s="2" t="s">
         <v>346</v>
-      </c>
-      <c r="O40" s="2" t="s">
-        <v>347</v>
       </c>
       <c r="P40" s="2" t="s">
         <v>72</v>
@@ -7026,10 +7026,10 @@
     </row>
     <row r="41" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>348</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>349</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="9"/>
@@ -7051,10 +7051,10 @@
         <v>96</v>
       </c>
       <c r="N41" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="O41" s="2" t="s">
         <v>350</v>
-      </c>
-      <c r="O41" s="2" t="s">
-        <v>351</v>
       </c>
       <c r="P41" s="2" t="s">
         <v>72</v>
@@ -7138,10 +7138,10 @@
     </row>
     <row r="42" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>352</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>353</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="9"/>
@@ -7157,16 +7157,16 @@
         <v>67</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M42" s="2" t="s">
         <v>69</v>
       </c>
       <c r="N42" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="O42" s="2" t="s">
         <v>355</v>
-      </c>
-      <c r="O42" s="2" t="s">
-        <v>356</v>
       </c>
       <c r="P42" s="2" t="s">
         <v>96</v>
@@ -7200,7 +7200,7 @@
         <v>112</v>
       </c>
       <c r="AA42" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AB42" s="2" t="s">
         <v>139</v>
@@ -7250,10 +7250,10 @@
     </row>
     <row r="43" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>358</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>359</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="9"/>
@@ -7275,7 +7275,7 @@
         <v>69</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="O43" s="2" t="s">
         <v>93</v>
@@ -7370,10 +7370,10 @@
     </row>
     <row r="44" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>361</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>362</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="9"/>
@@ -7389,19 +7389,19 @@
         <v>67</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="M44" s="2" t="s">
         <v>94</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="O44" s="2" t="s">
         <v>275</v>
       </c>
       <c r="P44" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="Q44" s="2" t="s">
         <v>73</v>
@@ -7438,7 +7438,7 @@
         <v>121</v>
       </c>
       <c r="AC44" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AD44" s="1"/>
       <c r="AE44" s="2" t="s">
@@ -7482,10 +7482,10 @@
     </row>
     <row r="45" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>367</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>368</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="9"/>
@@ -7501,7 +7501,7 @@
         <v>67</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="M45" s="2" t="s">
         <v>69</v>
@@ -7510,7 +7510,7 @@
         <v>136</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="P45" s="2" t="s">
         <v>101</v>
@@ -7596,10 +7596,10 @@
     </row>
     <row r="46" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>371</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>372</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="9" t="s">
@@ -7625,10 +7625,10 @@
         <v>69</v>
       </c>
       <c r="N46" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="P46" s="2" t="s">
         <v>72</v>
@@ -7661,10 +7661,10 @@
         <v>81</v>
       </c>
       <c r="Z46" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AA46" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AB46" s="2" t="s">
         <v>84</v>
@@ -7673,7 +7673,7 @@
         <v>96</v>
       </c>
       <c r="AD46" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AE46" s="2" t="s">
         <v>79</v>
@@ -7720,10 +7720,10 @@
     </row>
     <row r="47" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>376</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>377</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="9"/>
@@ -7735,7 +7735,7 @@
         <v>66</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="K47" s="2" t="s">
         <v>67</v>
@@ -7747,10 +7747,10 @@
         <v>96</v>
       </c>
       <c r="N47" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="O47" s="2" t="s">
         <v>379</v>
-      </c>
-      <c r="O47" s="2" t="s">
-        <v>380</v>
       </c>
       <c r="P47" s="2" t="s">
         <v>75</v>
@@ -7768,7 +7768,7 @@
         <v>76</v>
       </c>
       <c r="U47" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="V47" s="2" t="s">
         <v>78</v>
@@ -7786,7 +7786,7 @@
         <v>82</v>
       </c>
       <c r="AA47" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AB47" s="2" t="s">
         <v>146</v>
@@ -7795,7 +7795,7 @@
         <v>72</v>
       </c>
       <c r="AD47" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AE47" s="2" t="s">
         <v>73</v>
@@ -7838,10 +7838,10 @@
     </row>
     <row r="48" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>384</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>385</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="9" t="s">
@@ -7867,10 +7867,10 @@
         <v>69</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="O48" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="P48" s="2" t="s">
         <v>96</v>
@@ -7915,7 +7915,7 @@
         <v>96</v>
       </c>
       <c r="AD48" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AE48" s="2" t="s">
         <v>79</v>
@@ -7962,10 +7962,10 @@
     </row>
     <row r="49" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>387</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>388</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="9"/>
@@ -7987,10 +7987,10 @@
         <v>98</v>
       </c>
       <c r="N49" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="O49" s="2" t="s">
         <v>389</v>
-      </c>
-      <c r="O49" s="2" t="s">
-        <v>390</v>
       </c>
       <c r="P49" s="2" t="s">
         <v>102</v>
@@ -8074,10 +8074,10 @@
     </row>
     <row r="50" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>391</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>392</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="9"/>
@@ -8188,10 +8188,10 @@
     </row>
     <row r="51" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>393</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>394</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="9"/>
@@ -8207,16 +8207,16 @@
         <v>67</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="M51" s="2" t="s">
         <v>91</v>
       </c>
       <c r="N51" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="O51" s="2" t="s">
         <v>396</v>
-      </c>
-      <c r="O51" s="2" t="s">
-        <v>397</v>
       </c>
       <c r="P51" s="2" t="s">
         <v>101</v>
@@ -8256,7 +8256,7 @@
         <v>131</v>
       </c>
       <c r="AC51" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AD51" s="1"/>
       <c r="AE51" s="2" t="s">
@@ -8300,10 +8300,10 @@
     </row>
     <row r="52" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>399</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>400</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="9" t="s">
@@ -8323,16 +8323,16 @@
         <v>67</v>
       </c>
       <c r="L52" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="M52" s="2" t="s">
         <v>183</v>
       </c>
       <c r="N52" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="O52" s="2" t="s">
         <v>402</v>
-      </c>
-      <c r="O52" s="2" t="s">
-        <v>403</v>
       </c>
       <c r="P52" s="2" t="s">
         <v>143</v>
@@ -8375,7 +8375,7 @@
         <v>163</v>
       </c>
       <c r="AD52" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AE52" s="2" t="s">
         <v>72</v>
@@ -8426,10 +8426,10 @@
     </row>
     <row r="53" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>405</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>406</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="9"/>
@@ -8451,20 +8451,20 @@
         <v>80</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="O53" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="P53" s="2" t="s">
         <v>98</v>
       </c>
       <c r="Q53" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="R53" s="1"/>
       <c r="S53" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="T53" s="2" t="s">
         <v>220</v>
@@ -8474,10 +8474,10 @@
         <v>221</v>
       </c>
       <c r="W53" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="X53" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="Y53" s="2" t="s">
         <v>81</v>
@@ -8538,10 +8538,10 @@
     </row>
     <row r="54" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>408</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>409</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="9"/>
@@ -8563,7 +8563,7 @@
         <v>101</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="O54" s="2" t="s">
         <v>275</v>
@@ -8650,10 +8650,10 @@
     </row>
     <row r="55" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>411</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>412</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="9"/>
@@ -8675,7 +8675,7 @@
         <v>69</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="O55" s="2" t="s">
         <v>275</v>
@@ -8684,7 +8684,7 @@
         <v>72</v>
       </c>
       <c r="Q55" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="R55" s="1"/>
       <c r="S55" s="2" t="s">
@@ -8709,10 +8709,10 @@
         <v>81</v>
       </c>
       <c r="Z55" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AA55" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AB55" s="2" t="s">
         <v>121</v>
@@ -8762,10 +8762,10 @@
     </row>
     <row r="56" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>415</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>416</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="9"/>
@@ -8787,10 +8787,10 @@
         <v>69</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="O56" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="P56" s="2" t="s">
         <v>96</v>
@@ -8806,7 +8806,7 @@
         <v>96</v>
       </c>
       <c r="U56" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="V56" s="2" t="s">
         <v>78</v>
@@ -8821,7 +8821,7 @@
         <v>81</v>
       </c>
       <c r="Z56" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AA56" s="2" t="s">
         <v>130</v>
@@ -8874,10 +8874,10 @@
     </row>
     <row r="57" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>419</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>420</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="9"/>
@@ -8899,10 +8899,10 @@
         <v>94</v>
       </c>
       <c r="N57" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="O57" s="2" t="s">
         <v>421</v>
-      </c>
-      <c r="O57" s="2" t="s">
-        <v>422</v>
       </c>
       <c r="P57" s="2" t="s">
         <v>96</v>
@@ -8988,10 +8988,10 @@
     </row>
     <row r="58" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>423</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>424</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="9"/>
@@ -9007,16 +9007,16 @@
         <v>67</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="M58" s="2" t="s">
         <v>143</v>
       </c>
       <c r="N58" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="O58" s="2" t="s">
         <v>426</v>
-      </c>
-      <c r="O58" s="2" t="s">
-        <v>427</v>
       </c>
       <c r="P58" s="2" t="s">
         <v>94</v>
@@ -9100,10 +9100,10 @@
     </row>
     <row r="59" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="9"/>
@@ -9125,10 +9125,10 @@
         <v>69</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="O59" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="P59" s="2" t="s">
         <v>101</v>
@@ -9162,7 +9162,7 @@
         <v>112</v>
       </c>
       <c r="AA59" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AB59" s="2" t="s">
         <v>139</v>
@@ -9212,10 +9212,10 @@
     </row>
     <row r="60" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>430</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>431</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="9"/>
@@ -9237,10 +9237,10 @@
         <v>101</v>
       </c>
       <c r="N60" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="O60" s="2" t="s">
         <v>432</v>
-      </c>
-      <c r="O60" s="2" t="s">
-        <v>433</v>
       </c>
       <c r="P60" s="2" t="s">
         <v>109</v>
@@ -9258,7 +9258,7 @@
         <v>76</v>
       </c>
       <c r="U60" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="V60" s="2" t="s">
         <v>78</v>
@@ -9328,10 +9328,10 @@
     </row>
     <row r="61" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>435</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>436</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="9"/>
@@ -9353,7 +9353,7 @@
         <v>69</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="O61" s="2" t="s">
         <v>226</v>
@@ -9372,7 +9372,7 @@
         <v>72</v>
       </c>
       <c r="U61" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="V61" s="2" t="s">
         <v>73</v>
@@ -9440,10 +9440,10 @@
     </row>
     <row r="62" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>439</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>440</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="9"/>
@@ -9459,16 +9459,16 @@
         <v>67</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="M62" s="2" t="s">
         <v>143</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="O62" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="P62" s="2" t="s">
         <v>69</v>
@@ -9554,10 +9554,10 @@
     </row>
     <row r="63" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>442</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>443</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="9"/>
@@ -9573,16 +9573,16 @@
         <v>67</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="M63" s="2" t="s">
         <v>199</v>
       </c>
       <c r="N63" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="O63" s="2" t="s">
         <v>445</v>
-      </c>
-      <c r="O63" s="2" t="s">
-        <v>446</v>
       </c>
       <c r="P63" s="2" t="s">
         <v>143</v>
@@ -9666,10 +9666,10 @@
     </row>
     <row r="64" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>447</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>448</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="9"/>
@@ -9691,7 +9691,7 @@
         <v>94</v>
       </c>
       <c r="N64" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="O64" s="2" t="s">
         <v>153</v>
@@ -9780,10 +9780,10 @@
     </row>
     <row r="65" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>449</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>450</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" s="9"/>
@@ -9805,10 +9805,10 @@
         <v>74</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="O65" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="P65" s="2" t="s">
         <v>163</v>
@@ -9836,7 +9836,7 @@
         <v>73</v>
       </c>
       <c r="Y65" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="Z65" s="2" t="s">
         <v>155</v>
@@ -9894,10 +9894,10 @@
     </row>
     <row r="66" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>452</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>453</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" s="9"/>
@@ -9919,10 +9919,10 @@
         <v>69</v>
       </c>
       <c r="N66" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="O66" s="2" t="s">
         <v>454</v>
-      </c>
-      <c r="O66" s="2" t="s">
-        <v>455</v>
       </c>
       <c r="P66" s="2" t="s">
         <v>96</v>
@@ -9955,7 +9955,7 @@
         <v>81</v>
       </c>
       <c r="Z66" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AA66" s="2" t="s">
         <v>83</v>
@@ -10010,10 +10010,10 @@
     </row>
     <row r="67" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>456</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>457</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="9"/>
@@ -10035,10 +10035,10 @@
         <v>75</v>
       </c>
       <c r="N67" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="O67" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="P67" s="2" t="s">
         <v>73</v>
@@ -10054,7 +10054,7 @@
         <v>73</v>
       </c>
       <c r="U67" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="V67" s="2" t="s">
         <v>147</v>
@@ -10108,10 +10108,10 @@
     </row>
     <row r="68" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>459</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>460</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" s="9"/>
@@ -10133,10 +10133,10 @@
         <v>74</v>
       </c>
       <c r="N68" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="O68" s="2" t="s">
         <v>461</v>
-      </c>
-      <c r="O68" s="2" t="s">
-        <v>462</v>
       </c>
       <c r="P68" s="2" t="s">
         <v>143</v>
@@ -10167,7 +10167,7 @@
         <v>81</v>
       </c>
       <c r="Z68" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AA68" s="2" t="s">
         <v>167</v>
@@ -10222,10 +10222,10 @@
     </row>
     <row r="69" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>463</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>464</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="9"/>
@@ -10250,7 +10250,7 @@
         <v>97</v>
       </c>
       <c r="O69" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="P69" s="2" t="s">
         <v>76</v>
@@ -10334,10 +10334,10 @@
     </row>
     <row r="70" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>466</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>467</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="9" t="s">
@@ -10361,10 +10361,10 @@
         <v>143</v>
       </c>
       <c r="N70" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="O70" s="6" t="s">
         <v>468</v>
-      </c>
-      <c r="O70" s="6" t="s">
-        <v>469</v>
       </c>
       <c r="P70" s="6" t="s">
         <v>96</v>
@@ -10409,7 +10409,7 @@
         <v>69</v>
       </c>
       <c r="AD70" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="AE70" s="2" t="s">
         <v>76</v>
@@ -10454,10 +10454,10 @@
     </row>
     <row r="71" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>471</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>472</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" s="9"/>
@@ -10482,7 +10482,7 @@
         <v>97</v>
       </c>
       <c r="O71" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="P71" s="2" t="s">
         <v>75</v>
@@ -10498,7 +10498,7 @@
         <v>73</v>
       </c>
       <c r="U71" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="V71" s="2" t="s">
         <v>147</v>
@@ -10566,10 +10566,10 @@
     </row>
     <row r="72" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>474</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>475</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="9"/>
@@ -10585,16 +10585,16 @@
         <v>67</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="M72" s="2" t="s">
         <v>91</v>
       </c>
       <c r="N72" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="O72" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="P72" s="2" t="s">
         <v>101</v>
@@ -10678,10 +10678,10 @@
     </row>
     <row r="73" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>477</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>478</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="9"/>
@@ -10740,7 +10740,7 @@
         <v>167</v>
       </c>
       <c r="AA73" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AB73" s="2" t="s">
         <v>148</v>
@@ -10798,10 +10798,10 @@
     </row>
     <row r="74" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>479</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>480</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="9" t="s">
@@ -10809,7 +10809,7 @@
       </c>
       <c r="E74" s="2"/>
       <c r="F74" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>106</v>
@@ -10819,19 +10819,19 @@
         <v>89</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="K74" s="2" t="s">
         <v>67</v>
       </c>
       <c r="L74" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="M74" s="2" t="s">
         <v>143</v>
       </c>
       <c r="N74" s="6" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="O74" s="6" t="s">
         <v>213</v>
@@ -10840,7 +10840,7 @@
         <v>101</v>
       </c>
       <c r="Q74" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="R74" s="2" t="s">
         <v>146</v>
@@ -10868,7 +10868,7 @@
         <v>138</v>
       </c>
       <c r="AA74" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AB74" s="2" t="s">
         <v>131</v>
@@ -10877,7 +10877,7 @@
         <v>143</v>
       </c>
       <c r="AD74" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AE74" s="2" t="s">
         <v>76</v>
@@ -10924,10 +10924,10 @@
     </row>
     <row r="75" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>486</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>487</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" s="9" t="s">
@@ -10947,16 +10947,16 @@
         <v>67</v>
       </c>
       <c r="L75" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="M75" s="2" t="s">
         <v>74</v>
       </c>
       <c r="N75" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="O75" s="2" t="s">
         <v>489</v>
-      </c>
-      <c r="O75" s="2" t="s">
-        <v>490</v>
       </c>
       <c r="P75" s="2" t="s">
         <v>94</v>
@@ -10982,7 +10982,7 @@
         <v>166</v>
       </c>
       <c r="AA75" s="6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AB75" s="2" t="s">
         <v>131</v>
@@ -10998,7 +10998,7 @@
         <v>147</v>
       </c>
       <c r="AG75" s="5" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="AH75" s="5" t="s">
         <v>121</v>
@@ -11036,10 +11036,10 @@
     </row>
     <row r="76" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>492</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>493</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="9"/>
@@ -11061,10 +11061,10 @@
         <v>143</v>
       </c>
       <c r="N76" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="O76" s="2" t="s">
         <v>494</v>
-      </c>
-      <c r="O76" s="2" t="s">
-        <v>495</v>
       </c>
       <c r="P76" s="2" t="s">
         <v>101</v>
@@ -11105,7 +11105,7 @@
         <v>94</v>
       </c>
       <c r="AD76" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="AE76" s="2" t="s">
         <v>109</v>
@@ -11150,10 +11150,10 @@
     </row>
     <row r="77" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>497</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>498</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" s="9"/>
@@ -11178,7 +11178,7 @@
         <v>97</v>
       </c>
       <c r="O77" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="P77" s="2" t="s">
         <v>72</v>
@@ -11252,10 +11252,10 @@
     </row>
     <row r="78" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>500</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>501</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="9"/>
@@ -11280,7 +11280,7 @@
         <v>220</v>
       </c>
       <c r="O78" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="P78" s="2" t="s">
         <v>109</v>
@@ -11354,10 +11354,10 @@
     </row>
     <row r="79" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>503</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>504</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" s="9"/>
@@ -11379,7 +11379,7 @@
         <v>69</v>
       </c>
       <c r="N79" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="O79" s="2" t="s">
         <v>153</v>
@@ -11458,10 +11458,10 @@
     </row>
     <row r="80" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>506</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>507</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="9"/>
@@ -11544,10 +11544,10 @@
     </row>
     <row r="81" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="B81" s="2" t="s">
         <v>508</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>509</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" s="9"/>
@@ -11580,7 +11580,7 @@
         <v>253</v>
       </c>
       <c r="AA81" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AB81" s="2" t="s">
         <v>84</v>
@@ -11632,10 +11632,10 @@
     </row>
     <row r="82" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="B82" s="2" t="s">
         <v>510</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>511</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" s="9"/>
@@ -11651,16 +11651,16 @@
         <v>67</v>
       </c>
       <c r="L82" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="M82" s="2" t="s">
         <v>163</v>
       </c>
       <c r="N82" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="O82" s="2" t="s">
         <v>513</v>
-      </c>
-      <c r="O82" s="2" t="s">
-        <v>514</v>
       </c>
       <c r="P82" s="2" t="s">
         <v>69</v>
@@ -11691,10 +11691,10 @@
       </c>
       <c r="Y82" s="1"/>
       <c r="Z82" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AA82" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AB82" s="6" t="s">
         <v>168</v>
@@ -11712,7 +11712,7 @@
         <v>147</v>
       </c>
       <c r="AG82" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AH82" s="1"/>
       <c r="AI82" s="1"/>
@@ -11748,10 +11748,10 @@
     </row>
     <row r="83" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="B83" s="2" t="s">
         <v>515</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>516</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" s="9"/>
@@ -11773,10 +11773,10 @@
         <v>91</v>
       </c>
       <c r="N83" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="O83" s="2" t="s">
         <v>517</v>
-      </c>
-      <c r="O83" s="2" t="s">
-        <v>518</v>
       </c>
       <c r="P83" s="2" t="s">
         <v>69</v>
@@ -11840,10 +11840,10 @@
     </row>
     <row r="84" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="B84" s="2" t="s">
         <v>519</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>520</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" s="9"/>
@@ -11859,7 +11859,7 @@
         <v>67</v>
       </c>
       <c r="L84" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="M84" s="2" t="s">
         <v>101</v>
@@ -11868,13 +11868,13 @@
         <v>146</v>
       </c>
       <c r="O84" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="P84" s="2" t="s">
         <v>101</v>
       </c>
       <c r="Q84" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="R84" s="2" t="s">
         <v>121</v>
@@ -11898,7 +11898,7 @@
         <v>82</v>
       </c>
       <c r="AA84" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="AB84" s="2" t="s">
         <v>264</v>
@@ -11950,10 +11950,10 @@
     </row>
     <row r="85" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="B85" s="2" t="s">
         <v>525</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>526</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" s="9"/>
@@ -11978,7 +11978,7 @@
         <v>104</v>
       </c>
       <c r="O85" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="P85" s="2" t="s">
         <v>69</v>
@@ -12054,10 +12054,10 @@
     </row>
     <row r="86" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="B86" s="2" t="s">
         <v>528</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>529</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" s="9"/>
@@ -12082,7 +12082,7 @@
         <v>72</v>
       </c>
       <c r="O86" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="P86" s="2" t="s">
         <v>94</v>
@@ -12156,10 +12156,10 @@
     </row>
     <row r="87" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="B87" s="2" t="s">
         <v>531</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>532</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" s="9"/>
@@ -12175,16 +12175,16 @@
         <v>67</v>
       </c>
       <c r="L87" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="M87" s="2" t="s">
         <v>95</v>
       </c>
       <c r="N87" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="O87" s="2" t="s">
         <v>533</v>
-      </c>
-      <c r="O87" s="2" t="s">
-        <v>534</v>
       </c>
       <c r="P87" s="2" t="s">
         <v>109</v>
@@ -12209,7 +12209,7 @@
       <c r="X87" s="1"/>
       <c r="Y87" s="1"/>
       <c r="Z87" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="AA87" s="2" t="s">
         <v>264</v>
@@ -12262,10 +12262,10 @@
     </row>
     <row r="88" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="B88" s="2" t="s">
         <v>536</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>537</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="9"/>
@@ -12281,7 +12281,7 @@
         <v>67</v>
       </c>
       <c r="L88" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="M88" s="2" t="s">
         <v>91</v>
@@ -12290,7 +12290,7 @@
         <v>248</v>
       </c>
       <c r="O88" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="P88" s="2" t="s">
         <v>94</v>
@@ -12366,10 +12366,10 @@
     </row>
     <row r="89" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="B89" s="2" t="s">
         <v>540</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>541</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" s="9"/>
@@ -12385,13 +12385,13 @@
         <v>67</v>
       </c>
       <c r="L89" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="M89" s="2" t="s">
         <v>91</v>
       </c>
       <c r="N89" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="O89" s="2" t="s">
         <v>213</v>
@@ -12430,7 +12430,7 @@
       </c>
       <c r="AD89" s="1"/>
       <c r="AE89" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AF89" s="2" t="s">
         <v>147</v>
@@ -12470,10 +12470,10 @@
     </row>
     <row r="90" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="B90" s="2" t="s">
         <v>544</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>545</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" s="9"/>
@@ -12495,23 +12495,23 @@
         <v>97</v>
       </c>
       <c r="N90" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="O90" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="P90" s="2" t="s">
         <v>128</v>
       </c>
       <c r="Q90" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="R90" s="1"/>
       <c r="S90" s="2" t="s">
         <v>219</v>
       </c>
       <c r="T90" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="U90" s="1"/>
       <c r="V90" s="1"/>
@@ -12572,10 +12572,10 @@
     </row>
     <row r="91" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="B91" s="2" t="s">
         <v>547</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>548</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" s="9" t="s">
@@ -12595,16 +12595,16 @@
         <v>67</v>
       </c>
       <c r="L91" s="6" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="M91" s="6" t="s">
         <v>69</v>
       </c>
       <c r="N91" s="6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="O91" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="P91" s="2" t="s">
         <v>101</v>
@@ -12622,7 +12622,7 @@
         <v>72</v>
       </c>
       <c r="U91" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="V91" s="5" t="s">
         <v>75</v>
@@ -12647,7 +12647,7 @@
         <v>69</v>
       </c>
       <c r="AD91" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="AE91" s="2" t="s">
         <v>76</v>
@@ -12662,7 +12662,7 @@
         <v>110</v>
       </c>
       <c r="AI91" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="AJ91" s="2" t="s">
         <v>104</v>
@@ -12700,14 +12700,14 @@
     </row>
     <row r="92" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="B92" s="2" t="s">
         <v>554</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>555</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="10" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
@@ -12732,7 +12732,7 @@
         <v>156</v>
       </c>
       <c r="O92" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="P92" s="2" t="s">
         <v>72</v>
@@ -12810,10 +12810,10 @@
     </row>
     <row r="93" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="B93" s="2" t="s">
         <v>557</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>558</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" s="9"/>
@@ -12822,7 +12822,7 @@
       <c r="G93" s="2"/>
       <c r="H93" s="2"/>
       <c r="I93" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="J93" s="1"/>
       <c r="K93" s="2" t="s">
@@ -12835,10 +12835,10 @@
         <v>147</v>
       </c>
       <c r="N93" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="O93" s="2" t="s">
         <v>560</v>
-      </c>
-      <c r="O93" s="2" t="s">
-        <v>561</v>
       </c>
       <c r="P93" s="2" t="s">
         <v>102</v>
@@ -12850,7 +12850,7 @@
       <c r="S93" s="1"/>
       <c r="T93" s="1"/>
       <c r="U93" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="V93" s="1"/>
       <c r="W93" s="1"/>
@@ -12886,7 +12886,7 @@
         <v>147</v>
       </c>
       <c r="AK93" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AL93" s="2"/>
       <c r="AM93" s="2"/>
@@ -12918,10 +12918,10 @@
     </row>
     <row r="94" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="B94" s="2" t="s">
         <v>563</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>564</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" s="9"/>
@@ -12933,22 +12933,22 @@
         <v>216</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="K94" s="2" t="s">
         <v>67</v>
       </c>
       <c r="L94" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="M94" s="2" t="s">
         <v>78</v>
       </c>
       <c r="N94" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="O94" s="2" t="s">
         <v>567</v>
-      </c>
-      <c r="O94" s="2" t="s">
-        <v>568</v>
       </c>
       <c r="P94" s="2" t="s">
         <v>147</v>
@@ -12993,7 +12993,7 @@
         <v>75</v>
       </c>
       <c r="AD94" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="AE94" s="2" t="s">
         <v>102</v>
@@ -13036,10 +13036,10 @@
     </row>
     <row r="95" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="B95" s="2" t="s">
         <v>570</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>571</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" s="9"/>
@@ -13051,22 +13051,22 @@
         <v>216</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="K95" s="2" t="s">
         <v>67</v>
       </c>
       <c r="L95" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="M95" s="2" t="s">
         <v>78</v>
       </c>
       <c r="N95" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="O95" s="2" t="s">
         <v>574</v>
-      </c>
-      <c r="O95" s="2" t="s">
-        <v>575</v>
       </c>
       <c r="P95" s="2" t="s">
         <v>147</v>
@@ -13084,7 +13084,7 @@
         <v>102</v>
       </c>
       <c r="U95" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="V95" s="2" t="s">
         <v>77</v>
@@ -13111,13 +13111,13 @@
         <v>75</v>
       </c>
       <c r="AD95" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="AE95" s="2" t="s">
         <v>98</v>
       </c>
       <c r="AF95" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AG95" s="1"/>
       <c r="AH95" s="1"/>
@@ -13154,10 +13154,10 @@
     </row>
     <row r="96" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="B96" s="2" t="s">
         <v>577</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>578</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" s="9"/>
@@ -13169,22 +13169,22 @@
         <v>216</v>
       </c>
       <c r="J96" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="K96" s="2" t="s">
         <v>67</v>
       </c>
       <c r="L96" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="M96" s="2" t="s">
         <v>147</v>
       </c>
       <c r="N96" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="O96" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="P96" s="2" t="s">
         <v>102</v>
@@ -13202,7 +13202,7 @@
         <v>98</v>
       </c>
       <c r="U96" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="V96" s="2" t="s">
         <v>77</v>
@@ -13229,13 +13229,13 @@
         <v>75</v>
       </c>
       <c r="AD96" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="AE96" s="2" t="s">
         <v>98</v>
       </c>
       <c r="AF96" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AG96" s="1"/>
       <c r="AH96" s="1"/>
@@ -13272,10 +13272,10 @@
     </row>
     <row r="97" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="B97" s="2" t="s">
         <v>581</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>582</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" s="9"/>
@@ -13297,10 +13297,10 @@
         <v>143</v>
       </c>
       <c r="N97" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="O97" s="2" t="s">
         <v>421</v>
-      </c>
-      <c r="O97" s="2" t="s">
-        <v>422</v>
       </c>
       <c r="P97" s="2" t="s">
         <v>96</v>
@@ -13318,7 +13318,7 @@
         <v>96</v>
       </c>
       <c r="U97" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="V97" s="2" t="s">
         <v>75</v>
@@ -13327,7 +13327,7 @@
         <v>95</v>
       </c>
       <c r="X97" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="Y97" s="2" t="s">
         <v>81</v>
@@ -13355,7 +13355,7 @@
         <v>131</v>
       </c>
       <c r="AH97" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="AI97" s="1"/>
       <c r="AJ97" s="1"/>
@@ -13390,10 +13390,10 @@
     </row>
     <row r="98" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="B98" s="2" t="s">
         <v>586</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>587</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" s="9"/>
@@ -13405,7 +13405,7 @@
         <v>161</v>
       </c>
       <c r="J98" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="K98" s="2" t="s">
         <v>67</v>
@@ -13417,10 +13417,10 @@
         <v>74</v>
       </c>
       <c r="N98" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="O98" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="P98" s="2" t="s">
         <v>69</v>
@@ -13453,7 +13453,7 @@
         <v>81</v>
       </c>
       <c r="Z98" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AA98" s="2" t="s">
         <v>155</v>
@@ -13474,7 +13474,7 @@
         <v>147</v>
       </c>
       <c r="AG98" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AH98" s="2"/>
       <c r="AI98" s="2"/>
@@ -13510,14 +13510,14 @@
     </row>
     <row r="99" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="B99" s="3" t="s">
         <v>590</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>591</v>
       </c>
       <c r="C99" s="1"/>
       <c r="D99" s="11" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E99" s="1"/>
       <c r="F99" s="3" t="s">
@@ -13539,10 +13539,10 @@
         <v>101</v>
       </c>
       <c r="N99" s="5" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="O99" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="P99" s="5" t="s">
         <v>72</v>
@@ -13630,14 +13630,14 @@
     </row>
     <row r="100" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="B100" s="3" t="s">
         <v>593</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>594</v>
       </c>
       <c r="C100" s="1"/>
       <c r="D100" s="11" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
@@ -13649,13 +13649,13 @@
       <c r="J100" s="1"/>
       <c r="K100" s="1"/>
       <c r="L100" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="M100" s="5" t="s">
         <v>69</v>
       </c>
       <c r="N100" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="O100" s="5" t="s">
         <v>213</v>
@@ -13701,7 +13701,7 @@
         <v>69</v>
       </c>
       <c r="AD100" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="AE100" s="5" t="s">
         <v>76</v>
@@ -13746,14 +13746,14 @@
     </row>
     <row r="101" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="B101" s="3" t="s">
         <v>596</v>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>597</v>
       </c>
       <c r="C101" s="1"/>
       <c r="D101" s="11" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E101" s="1"/>
       <c r="F101" s="3" t="s">
@@ -13769,16 +13769,16 @@
       <c r="J101" s="1"/>
       <c r="K101" s="1"/>
       <c r="L101" s="5" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="M101" s="5" t="s">
         <v>101</v>
       </c>
       <c r="N101" s="5" t="s">
+        <v>598</v>
+      </c>
+      <c r="O101" s="5" t="s">
         <v>599</v>
-      </c>
-      <c r="O101" s="5" t="s">
-        <v>600</v>
       </c>
       <c r="P101" s="5" t="s">
         <v>96</v>
@@ -13796,7 +13796,7 @@
         <v>72</v>
       </c>
       <c r="U101" s="5" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="V101" s="5" t="s">
         <v>73</v>
@@ -13809,10 +13809,10 @@
       </c>
       <c r="Y101" s="1"/>
       <c r="Z101" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AA101" s="5" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="AB101" s="5" t="s">
         <v>100</v>
@@ -13868,14 +13868,14 @@
     </row>
     <row r="102" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="B102" s="3" t="s">
         <v>602</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>603</v>
       </c>
       <c r="C102" s="1"/>
       <c r="D102" s="11" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
@@ -13895,10 +13895,10 @@
         <v>69</v>
       </c>
       <c r="N102" s="5" t="s">
+        <v>603</v>
+      </c>
+      <c r="O102" s="5" t="s">
         <v>604</v>
-      </c>
-      <c r="O102" s="5" t="s">
-        <v>605</v>
       </c>
       <c r="P102" s="5" t="s">
         <v>101</v>
@@ -13932,7 +13932,7 @@
         <v>82</v>
       </c>
       <c r="AA102" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AB102" s="5" t="s">
         <v>139</v>
@@ -13984,14 +13984,14 @@
     </row>
     <row r="103" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="B103" s="3" t="s">
         <v>606</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>607</v>
       </c>
       <c r="C103" s="1"/>
       <c r="D103" s="12" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
@@ -14002,21 +14002,21 @@
         <v>44438</v>
       </c>
       <c r="I103" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="J103" s="1"/>
       <c r="K103" s="1"/>
       <c r="L103" s="5" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="M103" s="5" t="s">
         <v>80</v>
       </c>
       <c r="N103" s="5" t="s">
+        <v>609</v>
+      </c>
+      <c r="O103" s="5" t="s">
         <v>610</v>
-      </c>
-      <c r="O103" s="5" t="s">
-        <v>611</v>
       </c>
       <c r="P103" s="5" t="s">
         <v>128</v>
@@ -14028,13 +14028,13 @@
         <v>128</v>
       </c>
       <c r="S103" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="T103" s="5" t="s">
         <v>77</v>
       </c>
       <c r="U103" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V103" s="5" t="s">
         <v>219</v>
@@ -14076,7 +14076,7 @@
         <v>147</v>
       </c>
       <c r="AK103" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AL103" s="3"/>
       <c r="AM103" s="3"/>
@@ -14108,19 +14108,19 @@
     </row>
     <row r="104" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="B104" s="3" t="s">
         <v>612</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>613</v>
       </c>
       <c r="C104" s="1"/>
       <c r="D104" s="11" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
       <c r="G104" s="3" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H104" s="4">
         <v>44964</v>
@@ -14131,7 +14131,7 @@
       <c r="J104" s="1"/>
       <c r="K104" s="1"/>
       <c r="L104" s="5" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="M104" s="5" t="s">
         <v>76</v>
@@ -14140,10 +14140,10 @@
         <v>77</v>
       </c>
       <c r="O104" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="P104" s="3" t="s">
         <v>616</v>
-      </c>
-      <c r="P104" s="3" t="s">
-        <v>617</v>
       </c>
       <c r="Q104" s="5" t="s">
         <v>75</v>
@@ -14168,7 +14168,7 @@
         <v>129</v>
       </c>
       <c r="AA104" s="5" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AB104" s="5" t="s">
         <v>175</v>
@@ -14178,13 +14178,13 @@
       </c>
       <c r="AD104" s="1"/>
       <c r="AE104" s="3" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="AF104" s="5" t="s">
         <v>98</v>
       </c>
       <c r="AG104" s="3" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="AH104" s="1"/>
       <c r="AI104" s="1"/>
@@ -14220,14 +14220,14 @@
     </row>
     <row r="105" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="B105" s="3" t="s">
         <v>620</v>
-      </c>
-      <c r="B105" s="3" t="s">
-        <v>621</v>
       </c>
       <c r="C105" s="1"/>
       <c r="D105" s="11" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
@@ -14248,7 +14248,7 @@
         <v>147</v>
       </c>
       <c r="O105" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="P105" s="5" t="s">
         <v>163</v>
@@ -14279,7 +14279,7 @@
       </c>
       <c r="Y105" s="1"/>
       <c r="Z105" s="5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AA105" s="5" t="s">
         <v>177</v>
@@ -14324,10 +14324,10 @@
     </row>
     <row r="106" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="B106" s="3" t="s">
         <v>624</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>625</v>
       </c>
       <c r="C106" s="1"/>
       <c r="D106" s="12" t="s">
@@ -14349,10 +14349,10 @@
         <v>69</v>
       </c>
       <c r="N106" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="O106" s="5" t="s">
         <v>322</v>
-      </c>
-      <c r="O106" s="5" t="s">
-        <v>323</v>
       </c>
       <c r="P106" s="5" t="s">
         <v>101</v>
@@ -14395,7 +14395,7 @@
         <v>69</v>
       </c>
       <c r="AD106" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AE106" s="5" t="s">
         <v>76</v>
@@ -14440,14 +14440,14 @@
     </row>
     <row r="107" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="B107" s="3" t="s">
         <v>626</v>
-      </c>
-      <c r="B107" s="3" t="s">
-        <v>627</v>
       </c>
       <c r="C107" s="1"/>
       <c r="D107" s="11" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
@@ -14467,7 +14467,7 @@
         <v>91</v>
       </c>
       <c r="N107" s="5" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O107" s="5" t="s">
         <v>108</v>
@@ -14501,7 +14501,7 @@
       </c>
       <c r="Y107" s="1"/>
       <c r="Z107" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AA107" s="5" t="s">
         <v>138</v>
@@ -14513,7 +14513,7 @@
         <v>69</v>
       </c>
       <c r="AD107" s="3" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="AE107" s="5" t="s">
         <v>76</v>
@@ -14564,13 +14564,13 @@
     </row>
     <row r="108" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="B108" s="3" t="s">
         <v>630</v>
       </c>
-      <c r="B108" s="3" t="s">
+      <c r="C108" s="3" t="s">
         <v>631</v>
-      </c>
-      <c r="C108" s="3" t="s">
-        <v>632</v>
       </c>
       <c r="D108" s="12" t="s">
         <v>160</v>
@@ -14584,7 +14584,7 @@
         <v>44973</v>
       </c>
       <c r="I108" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="J108" s="1"/>
       <c r="K108" s="1"/>
@@ -14595,10 +14595,10 @@
         <v>79</v>
       </c>
       <c r="N108" s="5" t="s">
+        <v>632</v>
+      </c>
+      <c r="O108" s="5" t="s">
         <v>633</v>
-      </c>
-      <c r="O108" s="5" t="s">
-        <v>634</v>
       </c>
       <c r="P108" s="5" t="s">
         <v>147</v>
@@ -14686,16 +14686,16 @@
     </row>
     <row r="109" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="B109" s="3" t="s">
         <v>635</v>
       </c>
-      <c r="B109" s="3" t="s">
-        <v>636</v>
-      </c>
       <c r="C109" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D109" s="11" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
@@ -14711,16 +14711,16 @@
       <c r="J109" s="1"/>
       <c r="K109" s="1"/>
       <c r="L109" s="5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="M109" s="5" t="s">
         <v>69</v>
       </c>
       <c r="N109" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="O109" s="5" t="s">
         <v>638</v>
-      </c>
-      <c r="O109" s="5" t="s">
-        <v>639</v>
       </c>
       <c r="P109" s="5" t="s">
         <v>101</v>
@@ -14738,7 +14738,7 @@
         <v>72</v>
       </c>
       <c r="U109" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="V109" s="5" t="s">
         <v>75</v>
@@ -14808,10 +14808,10 @@
     </row>
     <row r="110" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="B110" s="3" t="s">
         <v>640</v>
-      </c>
-      <c r="B110" s="3" t="s">
-        <v>641</v>
       </c>
       <c r="C110" s="1"/>
       <c r="D110" s="12" t="s">
@@ -14820,7 +14820,7 @@
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
       <c r="G110" s="3" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H110" s="4">
         <v>44977</v>
@@ -14860,10 +14860,10 @@
       <c r="AK110" s="1"/>
       <c r="AL110" s="1"/>
       <c r="AM110" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="AN110" s="5" t="s">
         <v>642</v>
-      </c>
-      <c r="AN110" s="5" t="s">
-        <v>643</v>
       </c>
       <c r="AO110" s="5" t="s">
         <v>94</v>
@@ -14875,13 +14875,13 @@
         <v>177</v>
       </c>
       <c r="AR110" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AS110" s="5" t="s">
+        <v>643</v>
+      </c>
+      <c r="AT110" s="5" t="s">
         <v>644</v>
-      </c>
-      <c r="AT110" s="5" t="s">
-        <v>645</v>
       </c>
       <c r="AU110" s="5" t="s">
         <v>72</v>
@@ -14906,10 +14906,10 @@
     </row>
     <row r="111" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="B111" s="3" t="s">
         <v>646</v>
-      </c>
-      <c r="B111" s="3" t="s">
-        <v>647</v>
       </c>
       <c r="C111" s="1"/>
       <c r="D111" s="12" t="s">
@@ -14935,10 +14935,10 @@
         <v>69</v>
       </c>
       <c r="N111" s="5" t="s">
+        <v>647</v>
+      </c>
+      <c r="O111" s="5" t="s">
         <v>648</v>
-      </c>
-      <c r="O111" s="5" t="s">
-        <v>649</v>
       </c>
       <c r="P111" s="3" t="s">
         <v>259</v>
@@ -14956,7 +14956,7 @@
         <v>72</v>
       </c>
       <c r="U111" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="V111" s="5" t="s">
         <v>79</v>
@@ -14974,7 +14974,7 @@
         <v>129</v>
       </c>
       <c r="AA111" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AB111" s="5" t="s">
         <v>148</v>
@@ -14983,7 +14983,7 @@
         <v>69</v>
       </c>
       <c r="AD111" s="3" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="AE111" s="5" t="s">
         <v>76</v>
@@ -15028,14 +15028,14 @@
     </row>
     <row r="112" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="B112" s="3" t="s">
         <v>651</v>
-      </c>
-      <c r="B112" s="3" t="s">
-        <v>652</v>
       </c>
       <c r="C112" s="1"/>
       <c r="D112" s="11" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
@@ -15055,7 +15055,7 @@
         <v>69</v>
       </c>
       <c r="N112" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="O112" s="5" t="s">
         <v>213</v>
@@ -15129,10 +15129,10 @@
     </row>
     <row r="113" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="B113" s="3" t="s">
         <v>654</v>
-      </c>
-      <c r="B113" s="3" t="s">
-        <v>655</v>
       </c>
       <c r="C113" s="1"/>
       <c r="D113" s="12" t="s">
@@ -15159,7 +15159,7 @@
         <v>184</v>
       </c>
       <c r="O113" s="5" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="P113" s="5" t="s">
         <v>94</v>
@@ -15195,7 +15195,7 @@
         <v>166</v>
       </c>
       <c r="AA113" s="5" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AB113" s="5" t="s">
         <v>100</v>
@@ -15224,10 +15224,10 @@
     </row>
     <row r="114" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="B114" s="3" t="s">
         <v>657</v>
-      </c>
-      <c r="B114" s="3" t="s">
-        <v>658</v>
       </c>
       <c r="C114" s="1"/>
       <c r="D114" s="12" t="s">
@@ -15245,16 +15245,16 @@
       <c r="J114" s="1"/>
       <c r="K114" s="1"/>
       <c r="L114" s="5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="M114" s="5" t="s">
         <v>163</v>
       </c>
       <c r="N114" s="5" t="s">
+        <v>658</v>
+      </c>
+      <c r="O114" s="5" t="s">
         <v>659</v>
-      </c>
-      <c r="O114" s="5" t="s">
-        <v>660</v>
       </c>
       <c r="P114" s="5" t="s">
         <v>69</v>
@@ -15272,7 +15272,7 @@
         <v>101</v>
       </c>
       <c r="U114" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="V114" s="5" t="s">
         <v>96</v>
@@ -15287,7 +15287,7 @@
         <v>81</v>
       </c>
       <c r="Z114" s="5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AA114" s="5" t="s">
         <v>187</v>
@@ -15299,7 +15299,7 @@
         <v>143</v>
       </c>
       <c r="AD114" s="3" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="AE114" s="5" t="s">
         <v>75</v>
@@ -15319,10 +15319,10 @@
     </row>
     <row r="115" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="B115" s="3" t="s">
         <v>662</v>
-      </c>
-      <c r="B115" s="3" t="s">
-        <v>663</v>
       </c>
       <c r="C115" s="1"/>
       <c r="D115" s="12" t="s">
@@ -15346,10 +15346,10 @@
         <v>75</v>
       </c>
       <c r="N115" s="5" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="O115" s="5" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="P115" s="5" t="s">
         <v>75</v>
@@ -15386,7 +15386,7 @@
         <v>75</v>
       </c>
       <c r="AD115" s="3" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="AE115" s="5" t="s">
         <v>102</v>
@@ -15406,13 +15406,13 @@
     </row>
     <row r="116" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="B116" s="3" t="s">
         <v>666</v>
       </c>
-      <c r="B116" s="3" t="s">
+      <c r="C116" s="3" t="s">
         <v>667</v>
-      </c>
-      <c r="C116" s="3" t="s">
-        <v>668</v>
       </c>
       <c r="D116" s="12" t="s">
         <v>160</v>
@@ -15429,7 +15429,7 @@
       <c r="J116" s="1"/>
       <c r="K116" s="1"/>
       <c r="L116" s="5" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="M116" s="5" t="s">
         <v>91</v>
@@ -15438,7 +15438,7 @@
         <v>173</v>
       </c>
       <c r="O116" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="P116" s="5" t="s">
         <v>94</v>
@@ -15454,7 +15454,7 @@
         <v>96</v>
       </c>
       <c r="U116" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="V116" s="5" t="s">
         <v>75</v>
@@ -15501,10 +15501,10 @@
     </row>
     <row r="117" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="B117" s="3" t="s">
         <v>670</v>
-      </c>
-      <c r="B117" s="3" t="s">
-        <v>671</v>
       </c>
       <c r="C117" s="1"/>
       <c r="D117" s="12" t="s">
@@ -15531,7 +15531,7 @@
         <v>239</v>
       </c>
       <c r="O117" s="5" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="P117" s="5" t="s">
         <v>101</v>
@@ -15594,7 +15594,7 @@
     </row>
     <row r="118" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>171</v>
@@ -15606,7 +15606,7 @@
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
       <c r="G118" s="3" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H118" s="1"/>
       <c r="I118" s="3" t="s">
@@ -15615,16 +15615,16 @@
       <c r="J118" s="1"/>
       <c r="K118" s="1"/>
       <c r="L118" s="5" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="M118" s="5" t="s">
         <v>91</v>
       </c>
       <c r="N118" s="5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="O118" s="5" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="P118" s="5" t="s">
         <v>69</v>
@@ -15683,14 +15683,14 @@
     </row>
     <row r="119" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="B119" s="3" t="s">
         <v>676</v>
-      </c>
-      <c r="B119" s="3" t="s">
-        <v>677</v>
       </c>
       <c r="C119" s="1"/>
       <c r="D119" s="11" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
@@ -15706,7 +15706,7 @@
       <c r="J119" s="1"/>
       <c r="K119" s="1"/>
       <c r="L119" s="5" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="M119" s="5" t="s">
         <v>74</v>
@@ -15715,7 +15715,7 @@
         <v>128</v>
       </c>
       <c r="O119" s="5" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="P119" s="5" t="s">
         <v>94</v>
@@ -15733,7 +15733,7 @@
         <v>94</v>
       </c>
       <c r="U119" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="V119" s="5" t="s">
         <v>75</v>
@@ -15761,18 +15761,18 @@
       <c r="AK119" s="1"/>
       <c r="AL119" s="1"/>
       <c r="AM119" s="3" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="120" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="B120" s="3" t="s">
         <v>680</v>
       </c>
-      <c r="B120" s="3" t="s">
-        <v>681</v>
-      </c>
       <c r="C120" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D120" s="12" t="s">
         <v>160</v>
@@ -15789,16 +15789,16 @@
       <c r="J120" s="1"/>
       <c r="K120" s="1"/>
       <c r="L120" s="5" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="M120" s="5" t="s">
         <v>91</v>
       </c>
       <c r="N120" s="5" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="O120" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="P120" s="5" t="s">
         <v>94</v>
@@ -15814,7 +15814,7 @@
         <v>101</v>
       </c>
       <c r="U120" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="V120" s="5" t="s">
         <v>75</v>
@@ -15829,7 +15829,7 @@
         <v>81</v>
       </c>
       <c r="Z120" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AA120" s="5" t="s">
         <v>113</v>
@@ -15861,10 +15861,10 @@
     </row>
     <row r="121" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="B121" s="3" t="s">
         <v>683</v>
-      </c>
-      <c r="B121" s="3" t="s">
-        <v>684</v>
       </c>
       <c r="C121" s="1"/>
       <c r="D121" s="12" t="s">
@@ -15882,16 +15882,16 @@
       <c r="J121" s="1"/>
       <c r="K121" s="1"/>
       <c r="L121" s="5" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="M121" s="5" t="s">
         <v>147</v>
       </c>
       <c r="N121" s="5" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="O121" s="5" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="P121" s="5" t="s">
         <v>102</v>
@@ -15900,7 +15900,7 @@
         <v>220</v>
       </c>
       <c r="R121" s="5" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="S121" s="5" t="s">
         <v>80</v>
@@ -15912,7 +15912,7 @@
         <v>219</v>
       </c>
       <c r="V121" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="W121" s="5" t="s">
         <v>77</v>
@@ -15942,13 +15942,13 @@
         <v>98</v>
       </c>
       <c r="AF121" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AG121" s="5" t="s">
         <v>74</v>
       </c>
       <c r="AH121" s="3" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="AI121" s="1"/>
       <c r="AJ121" s="1"/>
@@ -15958,10 +15958,10 @@
     </row>
     <row r="122" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
+        <v>688</v>
+      </c>
+      <c r="B122" s="3" t="s">
         <v>689</v>
-      </c>
-      <c r="B122" s="3" t="s">
-        <v>690</v>
       </c>
       <c r="C122" s="1"/>
       <c r="D122" s="12" t="s">
@@ -15979,16 +15979,16 @@
       <c r="J122" s="1"/>
       <c r="K122" s="1"/>
       <c r="L122" s="5" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="M122" s="5" t="s">
         <v>75</v>
       </c>
       <c r="N122" s="5" t="s">
+        <v>691</v>
+      </c>
+      <c r="O122" s="5" t="s">
         <v>692</v>
-      </c>
-      <c r="O122" s="5" t="s">
-        <v>693</v>
       </c>
       <c r="P122" s="5" t="s">
         <v>73</v>
@@ -16021,7 +16021,7 @@
         <v>81</v>
       </c>
       <c r="Z122" s="5" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="AA122" s="5" t="s">
         <v>139</v>
@@ -16030,10 +16030,10 @@
         <v>143</v>
       </c>
       <c r="AC122" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="AD122" s="3" t="s">
         <v>694</v>
-      </c>
-      <c r="AD122" s="3" t="s">
-        <v>695</v>
       </c>
       <c r="AE122" s="5" t="s">
         <v>102</v>
@@ -16045,7 +16045,7 @@
         <v>199</v>
       </c>
       <c r="AH122" s="3" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="AI122" s="1"/>
       <c r="AJ122" s="1"/>
@@ -16055,16 +16055,16 @@
     </row>
     <row r="123" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
+        <v>696</v>
+      </c>
+      <c r="B123" s="3" t="s">
         <v>697</v>
       </c>
-      <c r="B123" s="3" t="s">
+      <c r="C123" s="3" t="s">
         <v>698</v>
       </c>
-      <c r="C123" s="3" t="s">
-        <v>699</v>
-      </c>
       <c r="D123" s="11" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="E123" s="1"/>
       <c r="F123" s="1"/>
@@ -16078,20 +16078,20 @@
         <v>89</v>
       </c>
       <c r="J123" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="K123" s="1"/>
       <c r="L123" s="5" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="M123" s="5" t="s">
         <v>91</v>
       </c>
       <c r="N123" s="5" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="O123" s="5" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="P123" s="5" t="s">
         <v>96</v>
@@ -16136,7 +16136,7 @@
         <v>94</v>
       </c>
       <c r="AD123" s="3" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="AE123" s="5" t="s">
         <v>75</v>
@@ -16158,10 +16158,10 @@
     </row>
     <row r="124" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
+        <v>702</v>
+      </c>
+      <c r="B124" s="3" t="s">
         <v>703</v>
-      </c>
-      <c r="B124" s="3" t="s">
-        <v>704</v>
       </c>
       <c r="C124" s="1"/>
       <c r="D124" s="13"/>
@@ -16186,7 +16186,7 @@
         <v>234</v>
       </c>
       <c r="O124" s="5" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="P124" s="5" t="s">
         <v>94</v>
@@ -16224,21 +16224,21 @@
       <c r="AK124" s="1"/>
       <c r="AL124" s="1"/>
       <c r="AM124" s="3" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="125" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B125" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="C125" s="3" t="s">
         <v>698</v>
       </c>
-      <c r="C125" s="3" t="s">
-        <v>699</v>
-      </c>
       <c r="D125" s="11" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="E125" s="1"/>
       <c r="F125" s="1"/>
@@ -16252,20 +16252,20 @@
         <v>89</v>
       </c>
       <c r="J125" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="K125" s="1"/>
       <c r="L125" s="5" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="M125" s="5" t="s">
         <v>91</v>
       </c>
       <c r="N125" s="5" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="O125" s="5" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="P125" s="5" t="s">
         <v>96</v>
@@ -16310,7 +16310,7 @@
         <v>94</v>
       </c>
       <c r="AD125" s="3" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="AE125" s="5" t="s">
         <v>75</v>
@@ -16332,10 +16332,10 @@
     </row>
     <row r="126" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="B126" s="3" t="s">
         <v>706</v>
-      </c>
-      <c r="B126" s="3" t="s">
-        <v>707</v>
       </c>
       <c r="C126" s="1"/>
       <c r="D126" s="12" t="s">
@@ -16343,7 +16343,7 @@
       </c>
       <c r="E126" s="1"/>
       <c r="F126" s="3" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="G126" s="3" t="s">
         <v>106</v>
@@ -16355,16 +16355,16 @@
       <c r="J126" s="1"/>
       <c r="K126" s="1"/>
       <c r="L126" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="M126" s="5" t="s">
         <v>69</v>
       </c>
       <c r="N126" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="O126" s="5" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="P126" s="5" t="s">
         <v>101</v>
@@ -16419,10 +16419,10 @@
         <v>131</v>
       </c>
       <c r="AH126" s="3" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AI126" s="5" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="AJ126" s="5" t="s">
         <v>104</v>
@@ -16435,10 +16435,10 @@
     </row>
     <row r="127" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
+        <v>710</v>
+      </c>
+      <c r="B127" s="3" t="s">
         <v>711</v>
-      </c>
-      <c r="B127" s="3" t="s">
-        <v>712</v>
       </c>
       <c r="C127" s="1"/>
       <c r="D127" s="12" t="s">
@@ -16446,7 +16446,7 @@
       </c>
       <c r="E127" s="1"/>
       <c r="F127" s="3" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="G127" s="3" t="s">
         <v>106</v>
@@ -16458,16 +16458,16 @@
       <c r="J127" s="1"/>
       <c r="K127" s="1"/>
       <c r="L127" s="5" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="M127" s="5" t="s">
         <v>69</v>
       </c>
       <c r="N127" s="5" t="s">
+        <v>713</v>
+      </c>
+      <c r="O127" s="5" t="s">
         <v>714</v>
-      </c>
-      <c r="O127" s="5" t="s">
-        <v>715</v>
       </c>
       <c r="P127" s="5" t="s">
         <v>101</v>
@@ -16525,7 +16525,7 @@
         <v>85</v>
       </c>
       <c r="AI127" s="5" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="AJ127" s="5" t="s">
         <v>104</v>
@@ -16538,10 +16538,10 @@
     </row>
     <row r="128" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="B128" s="3" t="s">
         <v>716</v>
-      </c>
-      <c r="B128" s="3" t="s">
-        <v>717</v>
       </c>
       <c r="C128" s="1"/>
       <c r="D128" s="12" t="s">
@@ -16561,7 +16561,7 @@
       <c r="J128" s="1"/>
       <c r="K128" s="1"/>
       <c r="L128" s="5" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="M128" s="5" t="s">
         <v>91</v>
@@ -16570,7 +16570,7 @@
         <v>136</v>
       </c>
       <c r="O128" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="P128" s="5" t="s">
         <v>143</v>
@@ -16615,7 +16615,7 @@
         <v>143</v>
       </c>
       <c r="AD128" s="3" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="AE128" s="5" t="s">
         <v>76</v>
@@ -16634,15 +16634,15 @@
       <c r="AK128" s="1"/>
       <c r="AL128" s="1"/>
       <c r="AM128" s="3" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="129" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
+        <v>719</v>
+      </c>
+      <c r="B129" s="3" t="s">
         <v>720</v>
-      </c>
-      <c r="B129" s="3" t="s">
-        <v>721</v>
       </c>
       <c r="C129" s="1"/>
       <c r="D129" s="12" t="s">
@@ -16666,10 +16666,10 @@
         <v>91</v>
       </c>
       <c r="N129" s="5" t="s">
+        <v>721</v>
+      </c>
+      <c r="O129" s="5" t="s">
         <v>722</v>
-      </c>
-      <c r="O129" s="5" t="s">
-        <v>723</v>
       </c>
       <c r="P129" s="5" t="s">
         <v>96</v>
@@ -16728,10 +16728,10 @@
     </row>
     <row r="130" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="B130" s="3" t="s">
         <v>724</v>
-      </c>
-      <c r="B130" s="3" t="s">
-        <v>725</v>
       </c>
       <c r="C130" s="1"/>
       <c r="D130" s="12" t="s">
@@ -16755,10 +16755,10 @@
         <v>73</v>
       </c>
       <c r="N130" s="5" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="O130" s="5" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="P130" s="5" t="s">
         <v>147</v>
@@ -16803,7 +16803,7 @@
         <v>75</v>
       </c>
       <c r="AD130" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="AE130" s="5" t="s">
         <v>98</v>
@@ -16823,10 +16823,10 @@
     </row>
     <row r="131" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
+        <v>726</v>
+      </c>
+      <c r="B131" s="3" t="s">
         <v>727</v>
-      </c>
-      <c r="B131" s="3" t="s">
-        <v>728</v>
       </c>
       <c r="C131" s="1"/>
       <c r="D131" s="12" t="s">
@@ -16850,10 +16850,10 @@
         <v>75</v>
       </c>
       <c r="N131" s="5" t="s">
+        <v>728</v>
+      </c>
+      <c r="O131" s="5" t="s">
         <v>729</v>
-      </c>
-      <c r="O131" s="5" t="s">
-        <v>730</v>
       </c>
       <c r="P131" s="5" t="s">
         <v>73</v>
@@ -16871,7 +16871,7 @@
         <v>73</v>
       </c>
       <c r="U131" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="V131" s="5" t="s">
         <v>97</v>
@@ -16914,10 +16914,10 @@
     </row>
     <row r="132" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
+        <v>730</v>
+      </c>
+      <c r="B132" s="3" t="s">
         <v>731</v>
-      </c>
-      <c r="B132" s="3" t="s">
-        <v>732</v>
       </c>
       <c r="C132" s="1"/>
       <c r="D132" s="13"/>
@@ -16928,10 +16928,10 @@
         <v>45068</v>
       </c>
       <c r="I132" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="J132" s="3" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="K132" s="1"/>
       <c r="L132" s="5" t="s">
@@ -16941,10 +16941,10 @@
         <v>75</v>
       </c>
       <c r="N132" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="O132" s="5" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="P132" s="5" t="s">
         <v>73</v>
@@ -16977,7 +16977,7 @@
         <v>81</v>
       </c>
       <c r="Z132" s="5" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="AA132" s="5" t="s">
         <v>175</v>
@@ -17006,15 +17006,15 @@
       <c r="AK132" s="1"/>
       <c r="AL132" s="1"/>
       <c r="AM132" s="3" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="133" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="B133" s="3" t="s">
         <v>735</v>
-      </c>
-      <c r="B133" s="3" t="s">
-        <v>736</v>
       </c>
       <c r="C133" s="1"/>
       <c r="D133" s="12" t="s">
@@ -17027,10 +17027,10 @@
       </c>
       <c r="H133" s="1"/>
       <c r="I133" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="J133" s="3" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="K133" s="1"/>
       <c r="L133" s="5" t="s">
@@ -17040,10 +17040,10 @@
         <v>97</v>
       </c>
       <c r="N133" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="O133" s="5" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="P133" s="5" t="s">
         <v>98</v>
@@ -17060,13 +17060,13 @@
       </c>
       <c r="U133" s="1"/>
       <c r="V133" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="W133" s="5" t="s">
         <v>80</v>
       </c>
       <c r="X133" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="Y133" s="3" t="s">
         <v>81</v>
@@ -17097,15 +17097,15 @@
       <c r="AK133" s="1"/>
       <c r="AL133" s="1"/>
       <c r="AM133" s="3" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="134" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A134" s="5" t="s">
+        <v>737</v>
+      </c>
+      <c r="B134" s="3" t="s">
         <v>738</v>
-      </c>
-      <c r="B134" s="3" t="s">
-        <v>739</v>
       </c>
       <c r="C134" s="1"/>
       <c r="D134" s="13"/>
@@ -17116,10 +17116,10 @@
         <v>45081</v>
       </c>
       <c r="I134" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="J134" s="3" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="K134" s="1"/>
       <c r="L134" s="5" t="s">
@@ -17188,19 +17188,19 @@
         <v>75</v>
       </c>
       <c r="AK134" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AL134" s="1"/>
       <c r="AM134" s="3" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="135" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="B135" s="3" t="s">
         <v>741</v>
-      </c>
-      <c r="B135" s="3" t="s">
-        <v>742</v>
       </c>
       <c r="C135" s="1"/>
       <c r="D135" s="13"/>
@@ -17222,10 +17222,10 @@
         <v>91</v>
       </c>
       <c r="N135" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="O135" s="5" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="P135" s="5" t="s">
         <v>143</v>
@@ -17261,7 +17261,7 @@
         <v>167</v>
       </c>
       <c r="AA135" s="5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AB135" s="5" t="s">
         <v>114</v>
@@ -17285,15 +17285,15 @@
       <c r="AK135" s="1"/>
       <c r="AL135" s="1"/>
       <c r="AM135" s="3" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="136" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
+        <v>743</v>
+      </c>
+      <c r="B136" s="3" t="s">
         <v>744</v>
-      </c>
-      <c r="B136" s="3" t="s">
-        <v>745</v>
       </c>
       <c r="C136" s="1"/>
       <c r="D136" s="13"/>
@@ -17304,7 +17304,7 @@
         <v>45081</v>
       </c>
       <c r="I136" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="J136" s="1"/>
       <c r="K136" s="1"/>
@@ -17315,10 +17315,10 @@
         <v>75</v>
       </c>
       <c r="N136" s="5" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="O136" s="5" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="P136" s="5" t="s">
         <v>78</v>
@@ -17336,7 +17336,7 @@
         <v>147</v>
       </c>
       <c r="U136" s="3" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="V136" s="5" t="s">
         <v>97</v>
@@ -17345,7 +17345,7 @@
         <v>128</v>
       </c>
       <c r="X136" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="Y136" s="3" t="s">
         <v>81</v>
@@ -17378,15 +17378,15 @@
       <c r="AK136" s="1"/>
       <c r="AL136" s="1"/>
       <c r="AM136" s="3" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="137" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
+        <v>747</v>
+      </c>
+      <c r="B137" s="3" t="s">
         <v>748</v>
-      </c>
-      <c r="B137" s="3" t="s">
-        <v>749</v>
       </c>
       <c r="C137" s="1"/>
       <c r="D137" s="12" t="s">
@@ -17415,7 +17415,7 @@
         <v>164</v>
       </c>
       <c r="O137" s="5" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="P137" s="5" t="s">
         <v>94</v>
@@ -17451,7 +17451,7 @@
         <v>155</v>
       </c>
       <c r="AA137" s="5" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="AB137" s="5" t="s">
         <v>139</v>
@@ -17477,15 +17477,15 @@
       <c r="AK137" s="1"/>
       <c r="AL137" s="1"/>
       <c r="AM137" s="3" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="138" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
+        <v>749</v>
+      </c>
+      <c r="B138" s="3" t="s">
         <v>750</v>
-      </c>
-      <c r="B138" s="3" t="s">
-        <v>751</v>
       </c>
       <c r="C138" s="1"/>
       <c r="D138" s="12" t="s">
@@ -17505,16 +17505,16 @@
       <c r="J138" s="1"/>
       <c r="K138" s="1"/>
       <c r="L138" s="5" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="M138" s="5" t="s">
         <v>143</v>
       </c>
       <c r="N138" s="5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="O138" s="5" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="P138" s="5" t="s">
         <v>96</v>
@@ -17547,7 +17547,7 @@
         <v>81</v>
       </c>
       <c r="Z138" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AA138" s="5" t="s">
         <v>270</v>
@@ -17576,21 +17576,21 @@
       <c r="AK138" s="1"/>
       <c r="AL138" s="1"/>
       <c r="AM138" s="3" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="139" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
+        <v>753</v>
+      </c>
+      <c r="B139" s="3" t="s">
         <v>754</v>
-      </c>
-      <c r="B139" s="3" t="s">
-        <v>755</v>
       </c>
       <c r="C139" s="1"/>
       <c r="D139" s="11"/>
       <c r="E139" s="1"/>
       <c r="F139" s="3" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="G139" s="3" t="s">
         <v>106</v>

--- a/client_measurement.xlsx
+++ b/client_measurement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neeyee Clothier\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3E32D16-29AF-4BA6-9315-EDC76CCB460B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F264BF68-B814-4AFA-9E55-B27EAE8E1CA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{EC0E5991-954D-4A3E-B492-28ED6022059E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3454" uniqueCount="767">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3432" uniqueCount="761">
   <si>
     <t>Client_ID</t>
   </si>
@@ -1583,24 +1583,6 @@
   </si>
   <si>
     <t>49/48/50</t>
-  </si>
-  <si>
-    <t>1843cdcf</t>
-  </si>
-  <si>
-    <t>Mother John</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>50(14)/50(23)/52(33)</t>
-  </si>
-  <si>
-    <t>16.5(8.5)/14(16)</t>
-  </si>
-  <si>
-    <t>44 (Hips 48)</t>
   </si>
   <si>
     <t>0e9c51c5</t>
@@ -2727,10 +2709,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31B7A7FE-77BD-4A40-BBD2-BFE1DE08F7D8}">
-  <dimension ref="A1:BL139"/>
+  <dimension ref="A1:BL138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AC25" sqref="AC25"/>
+    <sheetView tabSelected="1" topLeftCell="A113" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A84" sqref="A84:XFD84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3295,7 +3277,7 @@
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="15" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -5448,7 +5430,7 @@
         <v>121</v>
       </c>
       <c r="AC25" s="2" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="AD25" s="2"/>
       <c r="AE25" s="2" t="s">
@@ -11859,63 +11841,57 @@
         <v>67</v>
       </c>
       <c r="L84" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="M84" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="N84" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="O84" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="M84" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="N84" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="O84" s="2" t="s">
-        <v>521</v>
-      </c>
       <c r="P84" s="2" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
       <c r="Q84" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="R84" s="2" t="s">
-        <v>121</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="R84" s="1"/>
       <c r="S84" s="2" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="T84" s="2" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="U84" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="V84" s="2" t="s">
-        <v>188</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="V84" s="1"/>
       <c r="W84" s="1"/>
       <c r="X84" s="1"/>
       <c r="Y84" s="1"/>
       <c r="Z84" s="2" t="s">
-        <v>82</v>
+        <v>138</v>
       </c>
       <c r="AA84" s="2" t="s">
-        <v>523</v>
+        <v>167</v>
       </c>
       <c r="AB84" s="2" t="s">
-        <v>264</v>
+        <v>168</v>
       </c>
       <c r="AC84" s="2" t="s">
-        <v>74</v>
+        <v>143</v>
       </c>
       <c r="AD84" s="1"/>
       <c r="AE84" s="2" t="s">
         <v>76</v>
       </c>
       <c r="AF84" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AG84" s="2" t="s">
-        <v>270</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="AG84" s="1"/>
       <c r="AH84" s="1"/>
       <c r="AI84" s="1"/>
       <c r="AJ84" s="1"/>
@@ -11950,10 +11926,10 @@
     </row>
     <row r="85" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" s="9"/>
@@ -11962,62 +11938,60 @@
       <c r="G85" s="2"/>
       <c r="H85" s="2"/>
       <c r="I85" s="2" t="s">
-        <v>161</v>
+        <v>89</v>
       </c>
       <c r="J85" s="1"/>
       <c r="K85" s="2" t="s">
         <v>67</v>
       </c>
       <c r="L85" s="2" t="s">
-        <v>253</v>
+        <v>130</v>
       </c>
       <c r="M85" s="2" t="s">
-        <v>74</v>
+        <v>143</v>
       </c>
       <c r="N85" s="2" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="O85" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="P85" s="2" t="s">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="Q85" s="2" t="s">
         <v>95</v>
       </c>
       <c r="R85" s="1"/>
       <c r="S85" s="2" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="T85" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="U85" s="2" t="s">
-        <v>97</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="U85" s="1"/>
       <c r="V85" s="1"/>
       <c r="W85" s="1"/>
       <c r="X85" s="1"/>
       <c r="Y85" s="1"/>
       <c r="Z85" s="2" t="s">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="AA85" s="2" t="s">
-        <v>167</v>
+        <v>113</v>
       </c>
       <c r="AB85" s="2" t="s">
-        <v>168</v>
+        <v>139</v>
       </c>
       <c r="AC85" s="2" t="s">
-        <v>143</v>
+        <v>69</v>
       </c>
       <c r="AD85" s="1"/>
       <c r="AE85" s="2" t="s">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="AF85" s="2" t="s">
-        <v>147</v>
+        <v>98</v>
       </c>
       <c r="AG85" s="1"/>
       <c r="AH85" s="1"/>
@@ -12054,10 +12028,10 @@
     </row>
     <row r="86" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" s="9"/>
@@ -12066,60 +12040,64 @@
       <c r="G86" s="2"/>
       <c r="H86" s="2"/>
       <c r="I86" s="2" t="s">
-        <v>89</v>
+        <v>216</v>
       </c>
       <c r="J86" s="1"/>
       <c r="K86" s="2" t="s">
         <v>67</v>
       </c>
       <c r="L86" s="2" t="s">
-        <v>130</v>
+        <v>490</v>
       </c>
       <c r="M86" s="2" t="s">
-        <v>143</v>
+        <v>95</v>
       </c>
       <c r="N86" s="2" t="s">
-        <v>72</v>
+        <v>526</v>
       </c>
       <c r="O86" s="2" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="P86" s="2" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="Q86" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="R86" s="1"/>
+        <v>102</v>
+      </c>
+      <c r="R86" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="S86" s="2" t="s">
-        <v>76</v>
+        <v>147</v>
       </c>
       <c r="T86" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="U86" s="1"/>
+        <v>73</v>
+      </c>
+      <c r="U86" s="2" t="s">
+        <v>220</v>
+      </c>
       <c r="V86" s="1"/>
       <c r="W86" s="1"/>
       <c r="X86" s="1"/>
       <c r="Y86" s="1"/>
       <c r="Z86" s="2" t="s">
-        <v>112</v>
+        <v>528</v>
       </c>
       <c r="AA86" s="2" t="s">
-        <v>113</v>
+        <v>264</v>
       </c>
       <c r="AB86" s="2" t="s">
-        <v>139</v>
+        <v>208</v>
       </c>
       <c r="AC86" s="2" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="AD86" s="1"/>
       <c r="AE86" s="2" t="s">
-        <v>109</v>
+        <v>73</v>
       </c>
       <c r="AF86" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AG86" s="1"/>
       <c r="AH86" s="1"/>
@@ -12156,10 +12134,10 @@
     </row>
     <row r="87" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="B87" s="2" t="s">
         <v>530</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>531</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" s="9"/>
@@ -12168,64 +12146,62 @@
       <c r="G87" s="2"/>
       <c r="H87" s="2"/>
       <c r="I87" s="2" t="s">
-        <v>216</v>
+        <v>161</v>
       </c>
       <c r="J87" s="1"/>
       <c r="K87" s="2" t="s">
         <v>67</v>
       </c>
       <c r="L87" s="2" t="s">
-        <v>490</v>
+        <v>531</v>
       </c>
       <c r="M87" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="N87" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="O87" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="P87" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q87" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="N87" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="O87" s="2" t="s">
-        <v>533</v>
-      </c>
-      <c r="P87" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q87" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="R87" s="2" t="s">
-        <v>69</v>
-      </c>
+      <c r="R87" s="1"/>
       <c r="S87" s="2" t="s">
-        <v>147</v>
+        <v>72</v>
       </c>
       <c r="T87" s="2" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="U87" s="2" t="s">
-        <v>220</v>
+        <v>111</v>
       </c>
       <c r="V87" s="1"/>
       <c r="W87" s="1"/>
       <c r="X87" s="1"/>
       <c r="Y87" s="1"/>
       <c r="Z87" s="2" t="s">
-        <v>534</v>
+        <v>112</v>
       </c>
       <c r="AA87" s="2" t="s">
-        <v>264</v>
+        <v>155</v>
       </c>
       <c r="AB87" s="2" t="s">
-        <v>208</v>
+        <v>131</v>
       </c>
       <c r="AC87" s="2" t="s">
-        <v>95</v>
+        <v>143</v>
       </c>
       <c r="AD87" s="1"/>
       <c r="AE87" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AF87" s="2" t="s">
-        <v>97</v>
+        <v>147</v>
       </c>
       <c r="AG87" s="1"/>
       <c r="AH87" s="1"/>
@@ -12262,10 +12238,10 @@
     </row>
     <row r="88" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="9"/>
@@ -12274,29 +12250,29 @@
       <c r="G88" s="2"/>
       <c r="H88" s="2"/>
       <c r="I88" s="2" t="s">
-        <v>161</v>
+        <v>89</v>
       </c>
       <c r="J88" s="1"/>
       <c r="K88" s="2" t="s">
         <v>67</v>
       </c>
       <c r="L88" s="2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="M88" s="2" t="s">
         <v>91</v>
       </c>
       <c r="N88" s="2" t="s">
-        <v>248</v>
+        <v>536</v>
       </c>
       <c r="O88" s="2" t="s">
-        <v>538</v>
+        <v>213</v>
       </c>
       <c r="P88" s="2" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="Q88" s="2" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="R88" s="1"/>
       <c r="S88" s="2" t="s">
@@ -12306,27 +12282,27 @@
         <v>101</v>
       </c>
       <c r="U88" s="2" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="V88" s="1"/>
       <c r="W88" s="1"/>
       <c r="X88" s="1"/>
       <c r="Y88" s="1"/>
       <c r="Z88" s="2" t="s">
-        <v>112</v>
+        <v>167</v>
       </c>
       <c r="AA88" s="2" t="s">
-        <v>155</v>
+        <v>113</v>
       </c>
       <c r="AB88" s="2" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="AC88" s="2" t="s">
         <v>143</v>
       </c>
       <c r="AD88" s="1"/>
       <c r="AE88" s="2" t="s">
-        <v>76</v>
+        <v>483</v>
       </c>
       <c r="AF88" s="2" t="s">
         <v>147</v>
@@ -12366,10 +12342,10 @@
     </row>
     <row r="89" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" s="9"/>
@@ -12378,62 +12354,60 @@
       <c r="G89" s="2"/>
       <c r="H89" s="2"/>
       <c r="I89" s="2" t="s">
-        <v>89</v>
+        <v>216</v>
       </c>
       <c r="J89" s="1"/>
       <c r="K89" s="2" t="s">
         <v>67</v>
       </c>
       <c r="L89" s="2" t="s">
-        <v>541</v>
+        <v>69</v>
       </c>
       <c r="M89" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="N89" s="2" t="s">
-        <v>542</v>
+        <v>406</v>
       </c>
       <c r="O89" s="2" t="s">
-        <v>213</v>
+        <v>539</v>
       </c>
       <c r="P89" s="2" t="s">
-        <v>69</v>
+        <v>128</v>
       </c>
       <c r="Q89" s="2" t="s">
-        <v>109</v>
+        <v>380</v>
       </c>
       <c r="R89" s="1"/>
       <c r="S89" s="2" t="s">
-        <v>72</v>
+        <v>219</v>
       </c>
       <c r="T89" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="U89" s="2" t="s">
-        <v>97</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="U89" s="1"/>
       <c r="V89" s="1"/>
       <c r="W89" s="1"/>
       <c r="X89" s="1"/>
       <c r="Y89" s="1"/>
       <c r="Z89" s="2" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="AA89" s="2" t="s">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="AB89" s="2" t="s">
-        <v>148</v>
+        <v>72</v>
       </c>
       <c r="AC89" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AD89" s="1"/>
       <c r="AE89" s="2" t="s">
-        <v>483</v>
+        <v>80</v>
       </c>
       <c r="AF89" s="2" t="s">
-        <v>147</v>
+        <v>219</v>
       </c>
       <c r="AG89" s="1"/>
       <c r="AH89" s="1"/>
@@ -12470,116 +12444,142 @@
     </row>
     <row r="90" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="C90" s="2"/>
-      <c r="D90" s="9"/>
+      <c r="D90" s="9" t="s">
+        <v>160</v>
+      </c>
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
-      <c r="G90" s="2"/>
+      <c r="G90" s="2" t="s">
+        <v>106</v>
+      </c>
       <c r="H90" s="2"/>
       <c r="I90" s="2" t="s">
-        <v>216</v>
+        <v>89</v>
       </c>
       <c r="J90" s="1"/>
       <c r="K90" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="L90" s="2" t="s">
+      <c r="L90" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="M90" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="M90" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="N90" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="O90" s="2" t="s">
+      <c r="N90" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="O90" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="P90" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q90" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="R90" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="S90" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="T90" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="U90" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="V90" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="W90" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="X90" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y90" s="1"/>
+      <c r="Z90" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA90" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB90" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="AC90" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD90" s="3" t="s">
         <v>545</v>
       </c>
-      <c r="P90" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q90" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="R90" s="1"/>
-      <c r="S90" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="T90" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="U90" s="1"/>
-      <c r="V90" s="1"/>
-      <c r="W90" s="1"/>
-      <c r="X90" s="1"/>
-      <c r="Y90" s="1"/>
-      <c r="Z90" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="AA90" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB90" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC90" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="AD90" s="1"/>
       <c r="AE90" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AF90" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="AG90" s="1"/>
-      <c r="AH90" s="1"/>
-      <c r="AI90" s="1"/>
-      <c r="AJ90" s="1"/>
-      <c r="AK90" s="1"/>
-      <c r="AL90" s="1"/>
-      <c r="AM90" s="1"/>
-      <c r="AN90" s="1"/>
-      <c r="AO90" s="1"/>
-      <c r="AP90" s="1"/>
-      <c r="AQ90" s="1"/>
-      <c r="AR90" s="1"/>
-      <c r="AS90" s="1"/>
-      <c r="AT90" s="1"/>
-      <c r="AU90" s="1"/>
-      <c r="AV90" s="1"/>
-      <c r="AW90" s="1"/>
-      <c r="AX90" s="1"/>
-      <c r="AY90" s="1"/>
-      <c r="AZ90" s="1"/>
-      <c r="BA90" s="1"/>
-      <c r="BB90" s="1"/>
-      <c r="BC90" s="1"/>
-      <c r="BD90" s="1"/>
-      <c r="BE90" s="1"/>
-      <c r="BF90" s="1"/>
-      <c r="BG90" s="1"/>
-      <c r="BH90" s="1"/>
-      <c r="BI90" s="1"/>
-      <c r="BJ90" s="1"/>
-      <c r="BK90" s="1"/>
-      <c r="BL90" s="1"/>
+        <v>102</v>
+      </c>
+      <c r="AG90" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="AH90" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AI90" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="AJ90" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AK90" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL90" s="2"/>
+      <c r="AM90" s="2"/>
+      <c r="AN90" s="2"/>
+      <c r="AO90" s="2"/>
+      <c r="AP90" s="2"/>
+      <c r="AQ90" s="2"/>
+      <c r="AR90" s="2"/>
+      <c r="AS90" s="2"/>
+      <c r="AT90" s="2"/>
+      <c r="AU90" s="2"/>
+      <c r="AV90" s="2"/>
+      <c r="AW90" s="2"/>
+      <c r="AX90" s="2"/>
+      <c r="AY90" s="2"/>
+      <c r="AZ90" s="2"/>
+      <c r="BA90" s="2"/>
+      <c r="BB90" s="2"/>
+      <c r="BC90" s="2"/>
+      <c r="BD90" s="2"/>
+      <c r="BE90" s="2"/>
+      <c r="BF90" s="2"/>
+      <c r="BG90" s="2"/>
+      <c r="BH90" s="2"/>
+      <c r="BI90" s="2"/>
+      <c r="BJ90" s="2"/>
+      <c r="BK90" s="2"/>
+      <c r="BL90" s="2"/>
     </row>
     <row r="91" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C91" s="2"/>
-      <c r="D91" s="9" t="s">
-        <v>160</v>
+      <c r="D91" s="10" t="s">
+        <v>751</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
@@ -12594,219 +12594,199 @@
       <c r="K91" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="L91" s="6" t="s">
-        <v>548</v>
-      </c>
-      <c r="M91" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="N91" s="6" t="s">
-        <v>453</v>
-      </c>
-      <c r="O91" s="6" t="s">
+      <c r="L91" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="M91" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N91" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="O91" s="2" t="s">
         <v>549</v>
       </c>
       <c r="P91" s="2" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="Q91" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="R91" s="5" t="s">
-        <v>110</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="R91" s="1"/>
       <c r="S91" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="T91" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="T91" s="2" t="s">
+      <c r="U91" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="V91" s="1"/>
+      <c r="W91" s="1"/>
+      <c r="X91" s="1"/>
+      <c r="Y91" s="1"/>
+      <c r="Z91" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA91" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="AB91" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="AC91" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD91" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="U91" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="V91" s="5" t="s">
+      <c r="AE91" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="W91" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="X91" s="5" t="s">
+      <c r="AF91" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="Y91" s="1"/>
-      <c r="Z91" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="AA91" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="AB91" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="AC91" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD91" s="3" t="s">
-        <v>551</v>
-      </c>
-      <c r="AE91" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="AF91" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="AG91" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="AH91" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="AI91" s="2" t="s">
-        <v>552</v>
-      </c>
-      <c r="AJ91" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="AK91" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="AL91" s="2"/>
-      <c r="AM91" s="2"/>
-      <c r="AN91" s="2"/>
-      <c r="AO91" s="2"/>
-      <c r="AP91" s="2"/>
-      <c r="AQ91" s="2"/>
-      <c r="AR91" s="2"/>
-      <c r="AS91" s="2"/>
-      <c r="AT91" s="2"/>
-      <c r="AU91" s="2"/>
-      <c r="AV91" s="2"/>
-      <c r="AW91" s="2"/>
-      <c r="AX91" s="2"/>
-      <c r="AY91" s="2"/>
-      <c r="AZ91" s="2"/>
-      <c r="BA91" s="2"/>
-      <c r="BB91" s="2"/>
-      <c r="BC91" s="2"/>
-      <c r="BD91" s="2"/>
-      <c r="BE91" s="2"/>
-      <c r="BF91" s="2"/>
-      <c r="BG91" s="2"/>
-      <c r="BH91" s="2"/>
-      <c r="BI91" s="2"/>
-      <c r="BJ91" s="2"/>
-      <c r="BK91" s="2"/>
-      <c r="BL91" s="2"/>
+      <c r="AG91" s="1"/>
+      <c r="AH91" s="1"/>
+      <c r="AI91" s="1"/>
+      <c r="AJ91" s="1"/>
+      <c r="AK91" s="1"/>
+      <c r="AL91" s="1"/>
+      <c r="AM91" s="1"/>
+      <c r="AN91" s="1"/>
+      <c r="AO91" s="1"/>
+      <c r="AP91" s="1"/>
+      <c r="AQ91" s="1"/>
+      <c r="AR91" s="1"/>
+      <c r="AS91" s="1"/>
+      <c r="AT91" s="1"/>
+      <c r="AU91" s="1"/>
+      <c r="AV91" s="1"/>
+      <c r="AW91" s="1"/>
+      <c r="AX91" s="1"/>
+      <c r="AY91" s="1"/>
+      <c r="AZ91" s="1"/>
+      <c r="BA91" s="1"/>
+      <c r="BB91" s="1"/>
+      <c r="BC91" s="1"/>
+      <c r="BD91" s="1"/>
+      <c r="BE91" s="1"/>
+      <c r="BF91" s="1"/>
+      <c r="BG91" s="1"/>
+      <c r="BH91" s="1"/>
+      <c r="BI91" s="1"/>
+      <c r="BJ91" s="1"/>
+      <c r="BK91" s="1"/>
+      <c r="BL91" s="1"/>
     </row>
     <row r="92" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="C92" s="2"/>
-      <c r="D92" s="10" t="s">
-        <v>757</v>
-      </c>
+      <c r="D92" s="9"/>
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
-      <c r="G92" s="2" t="s">
-        <v>106</v>
-      </c>
+      <c r="G92" s="2"/>
       <c r="H92" s="2"/>
       <c r="I92" s="2" t="s">
-        <v>89</v>
+        <v>552</v>
       </c>
       <c r="J92" s="1"/>
       <c r="K92" s="2" t="s">
         <v>67</v>
       </c>
       <c r="L92" s="2" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="M92" s="2" t="s">
-        <v>94</v>
+        <v>147</v>
       </c>
       <c r="N92" s="2" t="s">
-        <v>156</v>
+        <v>553</v>
       </c>
       <c r="O92" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="P92" s="2" t="s">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="Q92" s="2" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="R92" s="1"/>
-      <c r="S92" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="T92" s="2" t="s">
-        <v>76</v>
-      </c>
+      <c r="S92" s="1"/>
+      <c r="T92" s="1"/>
       <c r="U92" s="2" t="s">
-        <v>77</v>
+        <v>380</v>
       </c>
       <c r="V92" s="1"/>
       <c r="W92" s="1"/>
       <c r="X92" s="1"/>
       <c r="Y92" s="1"/>
       <c r="Z92" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="AA92" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="AB92" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="AC92" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="AD92" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="AE92" s="6" t="s">
-        <v>75</v>
+        <v>104</v>
+      </c>
+      <c r="AA92" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB92" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC92" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD92" s="1"/>
+      <c r="AE92" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="AF92" s="2" t="s">
-        <v>98</v>
+        <v>221</v>
       </c>
       <c r="AG92" s="1"/>
-      <c r="AH92" s="1"/>
-      <c r="AI92" s="1"/>
-      <c r="AJ92" s="1"/>
-      <c r="AK92" s="1"/>
-      <c r="AL92" s="1"/>
-      <c r="AM92" s="1"/>
-      <c r="AN92" s="1"/>
-      <c r="AO92" s="1"/>
-      <c r="AP92" s="1"/>
-      <c r="AQ92" s="1"/>
-      <c r="AR92" s="1"/>
-      <c r="AS92" s="1"/>
-      <c r="AT92" s="1"/>
-      <c r="AU92" s="1"/>
-      <c r="AV92" s="1"/>
-      <c r="AW92" s="1"/>
-      <c r="AX92" s="1"/>
-      <c r="AY92" s="1"/>
-      <c r="AZ92" s="1"/>
-      <c r="BA92" s="1"/>
-      <c r="BB92" s="1"/>
-      <c r="BC92" s="1"/>
-      <c r="BD92" s="1"/>
-      <c r="BE92" s="1"/>
-      <c r="BF92" s="1"/>
-      <c r="BG92" s="1"/>
-      <c r="BH92" s="1"/>
-      <c r="BI92" s="1"/>
-      <c r="BJ92" s="1"/>
-      <c r="BK92" s="1"/>
-      <c r="BL92" s="1"/>
+      <c r="AH92" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="AI92" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AJ92" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="AK92" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="AL92" s="2"/>
+      <c r="AM92" s="2"/>
+      <c r="AN92" s="2"/>
+      <c r="AO92" s="2"/>
+      <c r="AP92" s="2"/>
+      <c r="AQ92" s="2"/>
+      <c r="AR92" s="2"/>
+      <c r="AS92" s="2"/>
+      <c r="AT92" s="2"/>
+      <c r="AU92" s="2"/>
+      <c r="AV92" s="2"/>
+      <c r="AW92" s="2"/>
+      <c r="AX92" s="2"/>
+      <c r="AY92" s="2"/>
+      <c r="AZ92" s="2"/>
+      <c r="BA92" s="2"/>
+      <c r="BB92" s="2"/>
+      <c r="BC92" s="2"/>
+      <c r="BD92" s="2"/>
+      <c r="BE92" s="2"/>
+      <c r="BF92" s="2"/>
+      <c r="BG92" s="2"/>
+      <c r="BH92" s="2"/>
+      <c r="BI92" s="2"/>
+      <c r="BJ92" s="2"/>
+      <c r="BK92" s="2"/>
+      <c r="BL92" s="2"/>
     </row>
     <row r="93" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
@@ -12822,106 +12802,116 @@
       <c r="G93" s="2"/>
       <c r="H93" s="2"/>
       <c r="I93" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="J93" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="J93" s="1"/>
       <c r="K93" s="2" t="s">
         <v>67</v>
       </c>
       <c r="L93" s="2" t="s">
-        <v>104</v>
+        <v>559</v>
       </c>
       <c r="M93" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="N93" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="O93" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="P93" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="N93" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="O93" s="2" t="s">
-        <v>560</v>
-      </c>
-      <c r="P93" s="2" t="s">
+      <c r="Q93" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="R93" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="S93" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="T93" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="Q93" s="2" t="s">
+      <c r="U93" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="V93" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="R93" s="1"/>
-      <c r="S93" s="1"/>
-      <c r="T93" s="1"/>
-      <c r="U93" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="V93" s="1"/>
-      <c r="W93" s="1"/>
-      <c r="X93" s="1"/>
-      <c r="Y93" s="1"/>
+      <c r="W93" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="X93" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y93" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="Z93" s="2" t="s">
-        <v>104</v>
+        <v>265</v>
       </c>
       <c r="AA93" s="2" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="AB93" s="2" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="AC93" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD93" s="1"/>
+        <v>75</v>
+      </c>
+      <c r="AD93" s="2" t="s">
+        <v>562</v>
+      </c>
       <c r="AE93" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="AF93" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AG93" s="1"/>
-      <c r="AH93" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="AI93" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="AJ93" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="AK93" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="AL93" s="2"/>
-      <c r="AM93" s="2"/>
-      <c r="AN93" s="2"/>
-      <c r="AO93" s="2"/>
-      <c r="AP93" s="2"/>
-      <c r="AQ93" s="2"/>
-      <c r="AR93" s="2"/>
-      <c r="AS93" s="2"/>
-      <c r="AT93" s="2"/>
-      <c r="AU93" s="2"/>
-      <c r="AV93" s="2"/>
-      <c r="AW93" s="2"/>
-      <c r="AX93" s="2"/>
-      <c r="AY93" s="2"/>
-      <c r="AZ93" s="2"/>
-      <c r="BA93" s="2"/>
-      <c r="BB93" s="2"/>
-      <c r="BC93" s="2"/>
-      <c r="BD93" s="2"/>
-      <c r="BE93" s="2"/>
-      <c r="BF93" s="2"/>
-      <c r="BG93" s="2"/>
-      <c r="BH93" s="2"/>
-      <c r="BI93" s="2"/>
-      <c r="BJ93" s="2"/>
-      <c r="BK93" s="2"/>
-      <c r="BL93" s="2"/>
+      <c r="AH93" s="1"/>
+      <c r="AI93" s="1"/>
+      <c r="AJ93" s="1"/>
+      <c r="AK93" s="1"/>
+      <c r="AL93" s="1"/>
+      <c r="AM93" s="1"/>
+      <c r="AN93" s="1"/>
+      <c r="AO93" s="1"/>
+      <c r="AP93" s="1"/>
+      <c r="AQ93" s="1"/>
+      <c r="AR93" s="1"/>
+      <c r="AS93" s="1"/>
+      <c r="AT93" s="1"/>
+      <c r="AU93" s="1"/>
+      <c r="AV93" s="1"/>
+      <c r="AW93" s="1"/>
+      <c r="AX93" s="1"/>
+      <c r="AY93" s="1"/>
+      <c r="AZ93" s="1"/>
+      <c r="BA93" s="1"/>
+      <c r="BB93" s="1"/>
+      <c r="BC93" s="1"/>
+      <c r="BD93" s="1"/>
+      <c r="BE93" s="1"/>
+      <c r="BF93" s="1"/>
+      <c r="BG93" s="1"/>
+      <c r="BH93" s="1"/>
+      <c r="BI93" s="1"/>
+      <c r="BJ93" s="1"/>
+      <c r="BK93" s="1"/>
+      <c r="BL93" s="1"/>
     </row>
     <row r="94" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" s="9"/>
@@ -12933,22 +12923,22 @@
         <v>216</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="K94" s="2" t="s">
         <v>67</v>
       </c>
       <c r="L94" s="2" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="M94" s="2" t="s">
         <v>78</v>
       </c>
       <c r="N94" s="2" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="O94" s="2" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="P94" s="2" t="s">
         <v>147</v>
@@ -12957,7 +12947,7 @@
         <v>80</v>
       </c>
       <c r="R94" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="S94" s="2" t="s">
         <v>128</v>
@@ -12966,10 +12956,10 @@
         <v>102</v>
       </c>
       <c r="U94" s="2" t="s">
-        <v>219</v>
+        <v>569</v>
       </c>
       <c r="V94" s="2" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="W94" s="2" t="s">
         <v>98</v>
@@ -12981,7 +12971,7 @@
         <v>81</v>
       </c>
       <c r="Z94" s="2" t="s">
-        <v>265</v>
+        <v>114</v>
       </c>
       <c r="AA94" s="2" t="s">
         <v>121</v>
@@ -12993,13 +12983,13 @@
         <v>75</v>
       </c>
       <c r="AD94" s="2" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="AE94" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="AF94" s="2" t="s">
-        <v>220</v>
+        <v>380</v>
       </c>
       <c r="AG94" s="1"/>
       <c r="AH94" s="1"/>
@@ -13036,10 +13026,10 @@
     </row>
     <row r="95" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" s="9"/>
@@ -13051,40 +13041,40 @@
         <v>216</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="K95" s="2" t="s">
         <v>67</v>
       </c>
       <c r="L95" s="2" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="M95" s="2" t="s">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="N95" s="2" t="s">
         <v>573</v>
       </c>
       <c r="O95" s="2" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="P95" s="2" t="s">
-        <v>147</v>
+        <v>102</v>
       </c>
       <c r="Q95" s="2" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="R95" s="2" t="s">
         <v>76</v>
       </c>
       <c r="S95" s="2" t="s">
-        <v>128</v>
+        <v>80</v>
       </c>
       <c r="T95" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="U95" s="2" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="V95" s="2" t="s">
         <v>77</v>
@@ -13099,7 +13089,7 @@
         <v>81</v>
       </c>
       <c r="Z95" s="2" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="AA95" s="2" t="s">
         <v>121</v>
@@ -13111,7 +13101,7 @@
         <v>75</v>
       </c>
       <c r="AD95" s="2" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="AE95" s="2" t="s">
         <v>98</v>
@@ -13154,10 +13144,10 @@
     </row>
     <row r="96" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" s="9"/>
@@ -13166,79 +13156,79 @@
       <c r="G96" s="2"/>
       <c r="H96" s="2"/>
       <c r="I96" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="J96" s="2" t="s">
-        <v>578</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="J96" s="1"/>
       <c r="K96" s="2" t="s">
         <v>67</v>
       </c>
       <c r="L96" s="2" t="s">
-        <v>572</v>
+        <v>211</v>
       </c>
       <c r="M96" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="N96" s="2" t="s">
-        <v>579</v>
+        <v>420</v>
       </c>
       <c r="O96" s="2" t="s">
-        <v>574</v>
+        <v>421</v>
       </c>
       <c r="P96" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="Q96" s="2" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="R96" s="2" t="s">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="S96" s="2" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="T96" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="U96" s="2" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="V96" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="W96" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="X96" s="2" t="s">
-        <v>220</v>
+        <v>577</v>
       </c>
       <c r="Y96" s="2" t="s">
         <v>81</v>
       </c>
       <c r="Z96" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA96" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB96" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC96" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD96" s="1"/>
+      <c r="AE96" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF96" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AG96" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="AA96" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="AB96" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="AC96" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AD96" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="AE96" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AF96" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="AG96" s="1"/>
-      <c r="AH96" s="1"/>
+      <c r="AH96" s="2" t="s">
+        <v>578</v>
+      </c>
       <c r="AI96" s="1"/>
       <c r="AJ96" s="1"/>
       <c r="AK96" s="1"/>
@@ -13272,10 +13262,10 @@
     </row>
     <row r="97" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="B97" s="2" t="s">
         <v>580</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>581</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" s="9"/>
@@ -13284,318 +13274,316 @@
       <c r="G97" s="2"/>
       <c r="H97" s="2"/>
       <c r="I97" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="J97" s="1"/>
+        <v>161</v>
+      </c>
+      <c r="J97" s="2" t="s">
+        <v>581</v>
+      </c>
       <c r="K97" s="2" t="s">
         <v>67</v>
       </c>
       <c r="L97" s="2" t="s">
-        <v>211</v>
+        <v>130</v>
       </c>
       <c r="M97" s="2" t="s">
-        <v>143</v>
+        <v>74</v>
       </c>
       <c r="N97" s="2" t="s">
-        <v>420</v>
+        <v>467</v>
       </c>
       <c r="O97" s="2" t="s">
-        <v>421</v>
+        <v>532</v>
       </c>
       <c r="P97" s="2" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="Q97" s="2" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="R97" s="2" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="S97" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="T97" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="U97" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="V97" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="T97" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="U97" s="2" t="s">
-        <v>582</v>
-      </c>
-      <c r="V97" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="W97" s="2" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="X97" s="2" t="s">
-        <v>583</v>
+        <v>102</v>
       </c>
       <c r="Y97" s="2" t="s">
         <v>81</v>
       </c>
       <c r="Z97" s="2" t="s">
-        <v>112</v>
+        <v>373</v>
       </c>
       <c r="AA97" s="2" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="AB97" s="2" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="AC97" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD97" s="1"/>
+        <v>143</v>
+      </c>
+      <c r="AD97" s="2" t="s">
+        <v>101</v>
+      </c>
       <c r="AE97" s="2" t="s">
         <v>76</v>
       </c>
       <c r="AF97" s="2" t="s">
-        <v>98</v>
+        <v>147</v>
       </c>
       <c r="AG97" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="AH97" s="2" t="s">
-        <v>584</v>
-      </c>
-      <c r="AI97" s="1"/>
-      <c r="AJ97" s="1"/>
-      <c r="AK97" s="1"/>
-      <c r="AL97" s="1"/>
-      <c r="AM97" s="1"/>
-      <c r="AN97" s="1"/>
-      <c r="AO97" s="1"/>
-      <c r="AP97" s="1"/>
-      <c r="AQ97" s="1"/>
-      <c r="AR97" s="1"/>
-      <c r="AS97" s="1"/>
-      <c r="AT97" s="1"/>
-      <c r="AU97" s="1"/>
-      <c r="AV97" s="1"/>
-      <c r="AW97" s="1"/>
-      <c r="AX97" s="1"/>
-      <c r="AY97" s="1"/>
-      <c r="AZ97" s="1"/>
-      <c r="BA97" s="1"/>
-      <c r="BB97" s="1"/>
-      <c r="BC97" s="1"/>
-      <c r="BD97" s="1"/>
-      <c r="BE97" s="1"/>
-      <c r="BF97" s="1"/>
-      <c r="BG97" s="1"/>
-      <c r="BH97" s="1"/>
-      <c r="BI97" s="1"/>
-      <c r="BJ97" s="1"/>
-      <c r="BK97" s="1"/>
-      <c r="BL97" s="1"/>
+        <v>582</v>
+      </c>
+      <c r="AH97" s="2"/>
+      <c r="AI97" s="2"/>
+      <c r="AJ97" s="2"/>
+      <c r="AK97" s="2"/>
+      <c r="AL97" s="2"/>
+      <c r="AM97" s="2"/>
+      <c r="AN97" s="2"/>
+      <c r="AO97" s="2"/>
+      <c r="AP97" s="2"/>
+      <c r="AQ97" s="2"/>
+      <c r="AR97" s="2"/>
+      <c r="AS97" s="2"/>
+      <c r="AT97" s="2"/>
+      <c r="AU97" s="2"/>
+      <c r="AV97" s="2"/>
+      <c r="AW97" s="2"/>
+      <c r="AX97" s="2"/>
+      <c r="AY97" s="2"/>
+      <c r="AZ97" s="2"/>
+      <c r="BA97" s="2"/>
+      <c r="BB97" s="2"/>
+      <c r="BC97" s="2"/>
+      <c r="BD97" s="2"/>
+      <c r="BE97" s="2"/>
+      <c r="BF97" s="2"/>
+      <c r="BG97" s="2"/>
+      <c r="BH97" s="2"/>
+      <c r="BI97" s="2"/>
+      <c r="BJ97" s="2"/>
+      <c r="BK97" s="2"/>
+      <c r="BL97" s="2"/>
     </row>
     <row r="98" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A98" s="2" t="s">
+      <c r="A98" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="C98" s="1"/>
+      <c r="D98" s="11" t="s">
+        <v>752</v>
+      </c>
+      <c r="E98" s="1"/>
+      <c r="F98" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="H98" s="1"/>
+      <c r="I98" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J98" s="1"/>
+      <c r="K98" s="1"/>
+      <c r="L98" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="M98" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="N98" s="5" t="s">
         <v>585</v>
       </c>
-      <c r="B98" s="2" t="s">
-        <v>586</v>
-      </c>
-      <c r="C98" s="2"/>
-      <c r="D98" s="9"/>
-      <c r="E98" s="2"/>
-      <c r="F98" s="2"/>
-      <c r="G98" s="2"/>
-      <c r="H98" s="2"/>
-      <c r="I98" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="J98" s="2" t="s">
-        <v>587</v>
-      </c>
-      <c r="K98" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="L98" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="M98" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="N98" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="O98" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="P98" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q98" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="R98" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="S98" s="2" t="s">
+      <c r="O98" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="P98" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q98" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="R98" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="S98" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="T98" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="U98" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="V98" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="W98" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="X98" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y98" s="1"/>
+      <c r="Z98" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA98" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="AB98" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="AC98" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="T98" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="U98" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="V98" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="W98" s="2" t="s">
+      <c r="AD98" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="X98" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="Y98" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z98" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="AA98" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="AB98" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AC98" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="AD98" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="AE98" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="AF98" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="AG98" s="2" t="s">
-        <v>588</v>
-      </c>
-      <c r="AH98" s="2"/>
-      <c r="AI98" s="2"/>
-      <c r="AJ98" s="2"/>
-      <c r="AK98" s="2"/>
-      <c r="AL98" s="2"/>
-      <c r="AM98" s="2"/>
-      <c r="AN98" s="2"/>
-      <c r="AO98" s="2"/>
-      <c r="AP98" s="2"/>
-      <c r="AQ98" s="2"/>
-      <c r="AR98" s="2"/>
-      <c r="AS98" s="2"/>
-      <c r="AT98" s="2"/>
-      <c r="AU98" s="2"/>
-      <c r="AV98" s="2"/>
-      <c r="AW98" s="2"/>
-      <c r="AX98" s="2"/>
-      <c r="AY98" s="2"/>
-      <c r="AZ98" s="2"/>
-      <c r="BA98" s="2"/>
-      <c r="BB98" s="2"/>
-      <c r="BC98" s="2"/>
-      <c r="BD98" s="2"/>
-      <c r="BE98" s="2"/>
-      <c r="BF98" s="2"/>
-      <c r="BG98" s="2"/>
-      <c r="BH98" s="2"/>
-      <c r="BI98" s="2"/>
-      <c r="BJ98" s="2"/>
-      <c r="BK98" s="2"/>
-      <c r="BL98" s="2"/>
+      <c r="AE98" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF98" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="AG98" s="1"/>
+      <c r="AH98" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="AI98" s="1"/>
+      <c r="AJ98" s="1"/>
+      <c r="AK98" s="1"/>
+      <c r="AL98" s="1"/>
+      <c r="AM98" s="1"/>
+      <c r="AN98" s="1"/>
+      <c r="AO98" s="1"/>
+      <c r="AP98" s="1"/>
+      <c r="AQ98" s="1"/>
+      <c r="AR98" s="1"/>
+      <c r="AS98" s="1"/>
+      <c r="AT98" s="1"/>
+      <c r="AU98" s="1"/>
+      <c r="AV98" s="1"/>
+      <c r="AW98" s="1"/>
+      <c r="AX98" s="1"/>
+      <c r="AY98" s="1"/>
+      <c r="AZ98" s="1"/>
+      <c r="BA98" s="1"/>
+      <c r="BB98" s="1"/>
+      <c r="BC98" s="1"/>
+      <c r="BD98" s="1"/>
+      <c r="BE98" s="1"/>
+      <c r="BF98" s="1"/>
+      <c r="BG98" s="1"/>
+      <c r="BH98" s="1"/>
+      <c r="BI98" s="1"/>
+      <c r="BJ98" s="1"/>
+      <c r="BK98" s="1"/>
+      <c r="BL98" s="1"/>
     </row>
     <row r="99" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="C99" s="1"/>
       <c r="D99" s="11" t="s">
-        <v>758</v>
+        <v>588</v>
       </c>
       <c r="E99" s="1"/>
-      <c r="F99" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="G99" s="3" t="s">
-        <v>106</v>
-      </c>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1"/>
       <c r="H99" s="1"/>
       <c r="I99" s="3" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="J99" s="1"/>
       <c r="K99" s="1"/>
       <c r="L99" s="5" t="s">
-        <v>118</v>
+        <v>320</v>
       </c>
       <c r="M99" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="N99" s="5" t="s">
-        <v>591</v>
+        <v>69</v>
+      </c>
+      <c r="N99" s="3" t="s">
+        <v>321</v>
       </c>
       <c r="O99" s="5" t="s">
-        <v>372</v>
+        <v>213</v>
       </c>
       <c r="P99" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q99" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="R99" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="S99" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="T99" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="Q99" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="R99" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="S99" s="5" t="s">
+      <c r="U99" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="V99" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="T99" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="U99" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="V99" s="5" t="s">
-        <v>78</v>
-      </c>
       <c r="W99" s="5" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="X99" s="5" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="Y99" s="1"/>
       <c r="Z99" s="5" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="AA99" s="5" t="s">
-        <v>270</v>
+        <v>113</v>
       </c>
       <c r="AB99" s="5" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="AC99" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="AD99" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
+      </c>
+      <c r="AD99" s="3" t="s">
+        <v>545</v>
       </c>
       <c r="AE99" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF99" s="5" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="AG99" s="1"/>
-      <c r="AH99" s="3" t="s">
-        <v>122</v>
+      <c r="AH99" s="5" t="s">
+        <v>110</v>
       </c>
       <c r="AI99" s="1"/>
       <c r="AJ99" s="1"/>
@@ -13630,18 +13618,22 @@
     </row>
     <row r="100" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="C100" s="1"/>
       <c r="D100" s="11" t="s">
-        <v>594</v>
+        <v>753</v>
       </c>
       <c r="E100" s="1"/>
-      <c r="F100" s="1"/>
-      <c r="G100" s="1"/>
+      <c r="F100" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>106</v>
+      </c>
       <c r="H100" s="1"/>
       <c r="I100" s="3" t="s">
         <v>89</v>
@@ -13649,25 +13641,25 @@
       <c r="J100" s="1"/>
       <c r="K100" s="1"/>
       <c r="L100" s="5" t="s">
-        <v>320</v>
+        <v>591</v>
       </c>
       <c r="M100" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="N100" s="3" t="s">
-        <v>321</v>
+        <v>101</v>
+      </c>
+      <c r="N100" s="5" t="s">
+        <v>592</v>
       </c>
       <c r="O100" s="5" t="s">
-        <v>213</v>
+        <v>593</v>
       </c>
       <c r="P100" s="5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q100" s="5" t="s">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="R100" s="5" t="s">
-        <v>85</v>
+        <v>183</v>
       </c>
       <c r="S100" s="5" t="s">
         <v>76</v>
@@ -13675,41 +13667,43 @@
       <c r="T100" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="U100" s="3" t="s">
-        <v>111</v>
+      <c r="U100" s="5" t="s">
+        <v>594</v>
       </c>
       <c r="V100" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="W100" s="5" t="s">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="X100" s="5" t="s">
         <v>98</v>
       </c>
       <c r="Y100" s="1"/>
       <c r="Z100" s="5" t="s">
-        <v>167</v>
+        <v>312</v>
       </c>
       <c r="AA100" s="5" t="s">
-        <v>113</v>
+        <v>528</v>
       </c>
       <c r="AB100" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC100" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD100" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="AE100" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF100" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="AG100" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="AC100" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD100" s="3" t="s">
-        <v>551</v>
-      </c>
-      <c r="AE100" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="AF100" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="AG100" s="1"/>
       <c r="AH100" s="5" t="s">
         <v>110</v>
       </c>
@@ -13753,12 +13747,10 @@
       </c>
       <c r="C101" s="1"/>
       <c r="D101" s="11" t="s">
-        <v>759</v>
+        <v>588</v>
       </c>
       <c r="E101" s="1"/>
-      <c r="F101" s="3" t="s">
-        <v>105</v>
-      </c>
+      <c r="F101" s="1"/>
       <c r="G101" s="3" t="s">
         <v>106</v>
       </c>
@@ -13769,34 +13761,34 @@
       <c r="J101" s="1"/>
       <c r="K101" s="1"/>
       <c r="L101" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="M101" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="N101" s="5" t="s">
         <v>597</v>
       </c>
-      <c r="M101" s="5" t="s">
+      <c r="O101" s="5" t="s">
+        <v>598</v>
+      </c>
+      <c r="P101" s="5" t="s">
         <v>101</v>
-      </c>
-      <c r="N101" s="5" t="s">
-        <v>598</v>
-      </c>
-      <c r="O101" s="5" t="s">
-        <v>599</v>
-      </c>
-      <c r="P101" s="5" t="s">
-        <v>96</v>
       </c>
       <c r="Q101" s="5" t="s">
         <v>75</v>
       </c>
       <c r="R101" s="5" t="s">
-        <v>183</v>
+        <v>110</v>
       </c>
       <c r="S101" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="T101" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="T101" s="5" t="s">
-        <v>72</v>
-      </c>
       <c r="U101" s="5" t="s">
-        <v>600</v>
+        <v>97</v>
       </c>
       <c r="V101" s="5" t="s">
         <v>73</v>
@@ -13805,36 +13797,32 @@
         <v>109</v>
       </c>
       <c r="X101" s="5" t="s">
-        <v>98</v>
+        <v>128</v>
       </c>
       <c r="Y101" s="1"/>
       <c r="Z101" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA101" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="AA101" s="5" t="s">
-        <v>534</v>
-      </c>
       <c r="AB101" s="5" t="s">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AC101" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="AD101" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="AD101" s="3" t="s">
+        <v>132</v>
       </c>
       <c r="AE101" s="5" t="s">
         <v>75</v>
       </c>
       <c r="AF101" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="AG101" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="AH101" s="5" t="s">
-        <v>110</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="AG101" s="1"/>
+      <c r="AH101" s="1"/>
       <c r="AI101" s="1"/>
       <c r="AJ101" s="1"/>
       <c r="AK101" s="1"/>
@@ -13868,31 +13856,33 @@
     </row>
     <row r="102" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="C102" s="1"/>
+      <c r="D102" s="12" t="s">
         <v>601</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>602</v>
-      </c>
-      <c r="C102" s="1"/>
-      <c r="D102" s="11" t="s">
-        <v>594</v>
       </c>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
       <c r="G102" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="H102" s="1"/>
+      <c r="H102" s="4">
+        <v>44438</v>
+      </c>
       <c r="I102" s="3" t="s">
-        <v>89</v>
+        <v>552</v>
       </c>
       <c r="J102" s="1"/>
       <c r="K102" s="1"/>
       <c r="L102" s="5" t="s">
-        <v>211</v>
+        <v>602</v>
       </c>
       <c r="M102" s="5" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="N102" s="5" t="s">
         <v>603</v>
@@ -13901,86 +13891,92 @@
         <v>604</v>
       </c>
       <c r="P102" s="5" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="Q102" s="5" t="s">
-        <v>75</v>
+        <v>219</v>
       </c>
       <c r="R102" s="5" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="S102" s="5" t="s">
-        <v>75</v>
+        <v>380</v>
       </c>
       <c r="T102" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U102" s="5" t="s">
-        <v>97</v>
+        <v>555</v>
       </c>
       <c r="V102" s="5" t="s">
-        <v>73</v>
+        <v>219</v>
       </c>
       <c r="W102" s="5" t="s">
-        <v>109</v>
+        <v>220</v>
       </c>
       <c r="X102" s="5" t="s">
-        <v>128</v>
+        <v>221</v>
       </c>
       <c r="Y102" s="1"/>
       <c r="Z102" s="5" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="AA102" s="5" t="s">
-        <v>312</v>
+        <v>74</v>
       </c>
       <c r="AB102" s="5" t="s">
-        <v>139</v>
+        <v>72</v>
       </c>
       <c r="AC102" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="AD102" s="3" t="s">
-        <v>132</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="AD102" s="1"/>
       <c r="AE102" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AF102" s="5" t="s">
-        <v>102</v>
+        <v>221</v>
       </c>
       <c r="AG102" s="1"/>
-      <c r="AH102" s="1"/>
-      <c r="AI102" s="1"/>
-      <c r="AJ102" s="1"/>
-      <c r="AK102" s="1"/>
-      <c r="AL102" s="1"/>
-      <c r="AM102" s="1"/>
-      <c r="AN102" s="1"/>
-      <c r="AO102" s="1"/>
-      <c r="AP102" s="1"/>
-      <c r="AQ102" s="1"/>
-      <c r="AR102" s="1"/>
-      <c r="AS102" s="1"/>
-      <c r="AT102" s="1"/>
-      <c r="AU102" s="1"/>
-      <c r="AV102" s="1"/>
-      <c r="AW102" s="1"/>
-      <c r="AX102" s="1"/>
-      <c r="AY102" s="1"/>
-      <c r="AZ102" s="1"/>
-      <c r="BA102" s="1"/>
-      <c r="BB102" s="1"/>
-      <c r="BC102" s="1"/>
-      <c r="BD102" s="1"/>
-      <c r="BE102" s="1"/>
-      <c r="BF102" s="1"/>
-      <c r="BG102" s="1"/>
-      <c r="BH102" s="1"/>
-      <c r="BI102" s="1"/>
-      <c r="BJ102" s="1"/>
-      <c r="BK102" s="1"/>
-      <c r="BL102" s="1"/>
+      <c r="AH102" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI102" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AJ102" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="AK102" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="AL102" s="3"/>
+      <c r="AM102" s="3"/>
+      <c r="AN102" s="3"/>
+      <c r="AO102" s="3"/>
+      <c r="AP102" s="3"/>
+      <c r="AQ102" s="3"/>
+      <c r="AR102" s="3"/>
+      <c r="AS102" s="3"/>
+      <c r="AT102" s="3"/>
+      <c r="AU102" s="3"/>
+      <c r="AV102" s="3"/>
+      <c r="AW102" s="3"/>
+      <c r="AX102" s="3"/>
+      <c r="AY102" s="3"/>
+      <c r="AZ102" s="3"/>
+      <c r="BA102" s="3"/>
+      <c r="BB102" s="3"/>
+      <c r="BC102" s="3"/>
+      <c r="BD102" s="3"/>
+      <c r="BE102" s="3"/>
+      <c r="BF102" s="3"/>
+      <c r="BG102" s="3"/>
+      <c r="BH102" s="3"/>
+      <c r="BI102" s="3"/>
+      <c r="BJ102" s="3"/>
+      <c r="BK102" s="3"/>
+      <c r="BL102" s="3"/>
     </row>
     <row r="103" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
@@ -13990,19 +13986,19 @@
         <v>606</v>
       </c>
       <c r="C103" s="1"/>
-      <c r="D103" s="12" t="s">
-        <v>607</v>
+      <c r="D103" s="11" t="s">
+        <v>754</v>
       </c>
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
       <c r="G103" s="3" t="s">
-        <v>106</v>
+        <v>607</v>
       </c>
       <c r="H103" s="4">
-        <v>44438</v>
+        <v>44964</v>
       </c>
       <c r="I103" s="3" t="s">
-        <v>558</v>
+        <v>66</v>
       </c>
       <c r="J103" s="1"/>
       <c r="K103" s="1"/>
@@ -14010,182 +14006,162 @@
         <v>608</v>
       </c>
       <c r="M103" s="5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="N103" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O103" s="3" t="s">
         <v>609</v>
       </c>
-      <c r="O103" s="5" t="s">
+      <c r="P103" s="3" t="s">
         <v>610</v>
       </c>
-      <c r="P103" s="5" t="s">
-        <v>128</v>
-      </c>
       <c r="Q103" s="5" t="s">
-        <v>219</v>
+        <v>75</v>
       </c>
       <c r="R103" s="5" t="s">
-        <v>128</v>
+        <v>163</v>
       </c>
       <c r="S103" s="5" t="s">
-        <v>380</v>
+        <v>73</v>
       </c>
       <c r="T103" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="U103" s="5" t="s">
-        <v>561</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="U103" s="1"/>
       <c r="V103" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="W103" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="X103" s="5" t="s">
-        <v>221</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="W103" s="1"/>
+      <c r="X103" s="1"/>
       <c r="Y103" s="1"/>
       <c r="Z103" s="5" t="s">
-        <v>69</v>
+        <v>129</v>
       </c>
       <c r="AA103" s="5" t="s">
-        <v>74</v>
+        <v>413</v>
       </c>
       <c r="AB103" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="AC103" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="AC103" s="5" t="s">
-        <v>102</v>
-      </c>
       <c r="AD103" s="1"/>
-      <c r="AE103" s="5" t="s">
-        <v>77</v>
+      <c r="AE103" s="3" t="s">
+        <v>611</v>
       </c>
       <c r="AF103" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="AG103" s="1"/>
-      <c r="AH103" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="AI103" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="AJ103" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="AK103" s="5" t="s">
-        <v>561</v>
-      </c>
-      <c r="AL103" s="3"/>
-      <c r="AM103" s="3"/>
-      <c r="AN103" s="3"/>
-      <c r="AO103" s="3"/>
-      <c r="AP103" s="3"/>
-      <c r="AQ103" s="3"/>
-      <c r="AR103" s="3"/>
-      <c r="AS103" s="3"/>
-      <c r="AT103" s="3"/>
-      <c r="AU103" s="3"/>
-      <c r="AV103" s="3"/>
-      <c r="AW103" s="3"/>
-      <c r="AX103" s="3"/>
-      <c r="AY103" s="3"/>
-      <c r="AZ103" s="3"/>
-      <c r="BA103" s="3"/>
-      <c r="BB103" s="3"/>
-      <c r="BC103" s="3"/>
-      <c r="BD103" s="3"/>
-      <c r="BE103" s="3"/>
-      <c r="BF103" s="3"/>
-      <c r="BG103" s="3"/>
-      <c r="BH103" s="3"/>
-      <c r="BI103" s="3"/>
-      <c r="BJ103" s="3"/>
-      <c r="BK103" s="3"/>
-      <c r="BL103" s="3"/>
+        <v>98</v>
+      </c>
+      <c r="AG103" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="AH103" s="1"/>
+      <c r="AI103" s="1"/>
+      <c r="AJ103" s="1"/>
+      <c r="AK103" s="1"/>
+      <c r="AL103" s="1"/>
+      <c r="AM103" s="1"/>
+      <c r="AN103" s="1"/>
+      <c r="AO103" s="1"/>
+      <c r="AP103" s="1"/>
+      <c r="AQ103" s="1"/>
+      <c r="AR103" s="1"/>
+      <c r="AS103" s="1"/>
+      <c r="AT103" s="1"/>
+      <c r="AU103" s="1"/>
+      <c r="AV103" s="1"/>
+      <c r="AW103" s="1"/>
+      <c r="AX103" s="1"/>
+      <c r="AY103" s="1"/>
+      <c r="AZ103" s="1"/>
+      <c r="BA103" s="1"/>
+      <c r="BB103" s="1"/>
+      <c r="BC103" s="1"/>
+      <c r="BD103" s="1"/>
+      <c r="BE103" s="1"/>
+      <c r="BF103" s="1"/>
+      <c r="BG103" s="1"/>
+      <c r="BH103" s="1"/>
+      <c r="BI103" s="1"/>
+      <c r="BJ103" s="1"/>
+      <c r="BK103" s="1"/>
+      <c r="BL103" s="1"/>
     </row>
     <row r="104" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="C104" s="1"/>
       <c r="D104" s="11" t="s">
-        <v>760</v>
+        <v>615</v>
       </c>
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
-      <c r="G104" s="3" t="s">
-        <v>613</v>
-      </c>
-      <c r="H104" s="4">
-        <v>44964</v>
-      </c>
+      <c r="G104" s="1"/>
+      <c r="H104" s="1"/>
       <c r="I104" s="3" t="s">
-        <v>66</v>
+        <v>181</v>
       </c>
       <c r="J104" s="1"/>
       <c r="K104" s="1"/>
       <c r="L104" s="5" t="s">
-        <v>614</v>
+        <v>270</v>
       </c>
       <c r="M104" s="5" t="s">
-        <v>76</v>
+        <v>183</v>
       </c>
       <c r="N104" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="O104" s="3" t="s">
-        <v>615</v>
-      </c>
-      <c r="P104" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="O104" s="5" t="s">
         <v>616</v>
       </c>
+      <c r="P104" s="5" t="s">
+        <v>163</v>
+      </c>
       <c r="Q104" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R104" s="5" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="S104" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="T104" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="U104" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="V104" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="W104" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="X104" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="T104" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="U104" s="1"/>
-      <c r="V104" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="W104" s="1"/>
-      <c r="X104" s="1"/>
       <c r="Y104" s="1"/>
       <c r="Z104" s="5" t="s">
-        <v>129</v>
+        <v>417</v>
       </c>
       <c r="AA104" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="AB104" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="AC104" s="5" t="s">
-        <v>72</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="AB104" s="1"/>
+      <c r="AC104" s="1"/>
       <c r="AD104" s="1"/>
-      <c r="AE104" s="3" t="s">
-        <v>617</v>
-      </c>
-      <c r="AF104" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="AG104" s="3" t="s">
-        <v>618</v>
-      </c>
+      <c r="AE104" s="1"/>
+      <c r="AF104" s="1"/>
+      <c r="AG104" s="1"/>
       <c r="AH104" s="1"/>
       <c r="AI104" s="1"/>
       <c r="AJ104" s="1"/>
@@ -14220,77 +14196,89 @@
     </row>
     <row r="105" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C105" s="1"/>
-      <c r="D105" s="11" t="s">
-        <v>621</v>
+      <c r="D105" s="12" t="s">
+        <v>160</v>
       </c>
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
       <c r="I105" s="3" t="s">
-        <v>181</v>
+        <v>89</v>
       </c>
       <c r="J105" s="1"/>
       <c r="K105" s="1"/>
       <c r="L105" s="5" t="s">
-        <v>270</v>
+        <v>107</v>
       </c>
       <c r="M105" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="N105" s="5" t="s">
-        <v>147</v>
+        <v>69</v>
+      </c>
+      <c r="N105" s="3" t="s">
+        <v>321</v>
       </c>
       <c r="O105" s="5" t="s">
-        <v>622</v>
+        <v>322</v>
       </c>
       <c r="P105" s="5" t="s">
-        <v>163</v>
+        <v>101</v>
       </c>
       <c r="Q105" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="R105" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="S105" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="T105" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="R105" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="S105" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="T105" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="U105" s="5" t="s">
-        <v>128</v>
+      <c r="U105" s="3" t="s">
+        <v>111</v>
       </c>
       <c r="V105" s="5" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="W105" s="5" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="X105" s="5" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="Y105" s="1"/>
       <c r="Z105" s="5" t="s">
-        <v>417</v>
+        <v>155</v>
       </c>
       <c r="AA105" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="AB105" s="1"/>
-      <c r="AC105" s="1"/>
-      <c r="AD105" s="1"/>
-      <c r="AE105" s="1"/>
-      <c r="AF105" s="1"/>
+        <v>113</v>
+      </c>
+      <c r="AB105" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC105" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD105" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="AE105" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF105" s="5" t="s">
+        <v>102</v>
+      </c>
       <c r="AG105" s="1"/>
-      <c r="AH105" s="1"/>
+      <c r="AH105" s="5" t="s">
+        <v>110</v>
+      </c>
       <c r="AI105" s="1"/>
       <c r="AJ105" s="1"/>
       <c r="AK105" s="1"/>
@@ -14324,50 +14312,52 @@
     </row>
     <row r="106" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="C106" s="1"/>
-      <c r="D106" s="12" t="s">
-        <v>160</v>
+      <c r="D106" s="11" t="s">
+        <v>755</v>
       </c>
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
-      <c r="G106" s="1"/>
+      <c r="G106" s="3" t="s">
+        <v>106</v>
+      </c>
       <c r="H106" s="1"/>
       <c r="I106" s="3" t="s">
-        <v>89</v>
+        <v>161</v>
       </c>
       <c r="J106" s="1"/>
       <c r="K106" s="1"/>
       <c r="L106" s="5" t="s">
-        <v>107</v>
+        <v>162</v>
       </c>
       <c r="M106" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="N106" s="5" t="s">
+        <v>621</v>
+      </c>
+      <c r="O106" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="P106" s="5" t="s">
         <v>69</v>
-      </c>
-      <c r="N106" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="O106" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="P106" s="5" t="s">
-        <v>101</v>
       </c>
       <c r="Q106" s="5" t="s">
         <v>109</v>
       </c>
       <c r="R106" s="5" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="S106" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="T106" s="5" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="U106" s="3" t="s">
         <v>111</v>
@@ -14376,17 +14366,17 @@
         <v>75</v>
       </c>
       <c r="W106" s="5" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="X106" s="5" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="Y106" s="1"/>
       <c r="Z106" s="5" t="s">
-        <v>155</v>
+        <v>373</v>
       </c>
       <c r="AA106" s="5" t="s">
-        <v>113</v>
+        <v>138</v>
       </c>
       <c r="AB106" s="5" t="s">
         <v>131</v>
@@ -14395,185 +14385,189 @@
         <v>69</v>
       </c>
       <c r="AD106" s="3" t="s">
-        <v>323</v>
+        <v>622</v>
       </c>
       <c r="AE106" s="5" t="s">
         <v>76</v>
       </c>
       <c r="AF106" s="5" t="s">
-        <v>102</v>
+        <v>147</v>
       </c>
       <c r="AG106" s="1"/>
       <c r="AH106" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="AI106" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="AJ106" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="AI106" s="1"/>
-      <c r="AJ106" s="1"/>
-      <c r="AK106" s="1"/>
-      <c r="AL106" s="1"/>
-      <c r="AM106" s="1"/>
-      <c r="AN106" s="1"/>
-      <c r="AO106" s="1"/>
-      <c r="AP106" s="1"/>
-      <c r="AQ106" s="1"/>
-      <c r="AR106" s="1"/>
-      <c r="AS106" s="1"/>
-      <c r="AT106" s="1"/>
-      <c r="AU106" s="1"/>
-      <c r="AV106" s="1"/>
-      <c r="AW106" s="1"/>
-      <c r="AX106" s="1"/>
-      <c r="AY106" s="1"/>
-      <c r="AZ106" s="1"/>
-      <c r="BA106" s="1"/>
-      <c r="BB106" s="1"/>
-      <c r="BC106" s="1"/>
-      <c r="BD106" s="1"/>
-      <c r="BE106" s="1"/>
-      <c r="BF106" s="1"/>
-      <c r="BG106" s="1"/>
-      <c r="BH106" s="1"/>
-      <c r="BI106" s="1"/>
-      <c r="BJ106" s="1"/>
-      <c r="BK106" s="1"/>
-      <c r="BL106" s="1"/>
+      <c r="AK106" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL106" s="3"/>
+      <c r="AM106" s="3"/>
+      <c r="AN106" s="3"/>
+      <c r="AO106" s="3"/>
+      <c r="AP106" s="3"/>
+      <c r="AQ106" s="3"/>
+      <c r="AR106" s="3"/>
+      <c r="AS106" s="3"/>
+      <c r="AT106" s="3"/>
+      <c r="AU106" s="3"/>
+      <c r="AV106" s="3"/>
+      <c r="AW106" s="3"/>
+      <c r="AX106" s="3"/>
+      <c r="AY106" s="3"/>
+      <c r="AZ106" s="3"/>
+      <c r="BA106" s="3"/>
+      <c r="BB106" s="3"/>
+      <c r="BC106" s="3"/>
+      <c r="BD106" s="3"/>
+      <c r="BE106" s="3"/>
+      <c r="BF106" s="3"/>
+      <c r="BG106" s="3"/>
+      <c r="BH106" s="3"/>
+      <c r="BI106" s="3"/>
+      <c r="BJ106" s="3"/>
+      <c r="BK106" s="3"/>
+      <c r="BL106" s="3"/>
     </row>
     <row r="107" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="C107" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="B107" s="3" t="s">
-        <v>626</v>
-      </c>
-      <c r="C107" s="1"/>
-      <c r="D107" s="11" t="s">
-        <v>761</v>
+      <c r="D107" s="12" t="s">
+        <v>160</v>
       </c>
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
       <c r="G107" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="H107" s="1"/>
+      <c r="H107" s="4">
+        <v>44973</v>
+      </c>
       <c r="I107" s="3" t="s">
-        <v>161</v>
+        <v>552</v>
       </c>
       <c r="J107" s="1"/>
       <c r="K107" s="1"/>
       <c r="L107" s="5" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="M107" s="5" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="N107" s="5" t="s">
+        <v>626</v>
+      </c>
+      <c r="O107" s="5" t="s">
         <v>627</v>
       </c>
-      <c r="O107" s="5" t="s">
-        <v>108</v>
-      </c>
       <c r="P107" s="5" t="s">
-        <v>69</v>
+        <v>147</v>
       </c>
       <c r="Q107" s="5" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="R107" s="5" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="S107" s="5" t="s">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="T107" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="U107" s="3" t="s">
-        <v>111</v>
+        <v>78</v>
+      </c>
+      <c r="U107" s="5" t="s">
+        <v>221</v>
       </c>
       <c r="V107" s="5" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="W107" s="5" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="X107" s="5" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="Y107" s="1"/>
       <c r="Z107" s="5" t="s">
-        <v>373</v>
+        <v>188</v>
       </c>
       <c r="AA107" s="5" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="AB107" s="5" t="s">
-        <v>131</v>
+        <v>74</v>
       </c>
       <c r="AC107" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD107" s="3" t="s">
-        <v>628</v>
+        <v>109</v>
+      </c>
+      <c r="AD107" s="5" t="s">
+        <v>79</v>
       </c>
       <c r="AE107" s="5" t="s">
-        <v>76</v>
+        <v>147</v>
       </c>
       <c r="AF107" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="AG107" s="1"/>
-      <c r="AH107" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="AI107" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="AJ107" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="AK107" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="AL107" s="3"/>
-      <c r="AM107" s="3"/>
-      <c r="AN107" s="3"/>
-      <c r="AO107" s="3"/>
-      <c r="AP107" s="3"/>
-      <c r="AQ107" s="3"/>
-      <c r="AR107" s="3"/>
-      <c r="AS107" s="3"/>
-      <c r="AT107" s="3"/>
-      <c r="AU107" s="3"/>
-      <c r="AV107" s="3"/>
-      <c r="AW107" s="3"/>
-      <c r="AX107" s="3"/>
-      <c r="AY107" s="3"/>
-      <c r="AZ107" s="3"/>
-      <c r="BA107" s="3"/>
-      <c r="BB107" s="3"/>
-      <c r="BC107" s="3"/>
-      <c r="BD107" s="3"/>
-      <c r="BE107" s="3"/>
-      <c r="BF107" s="3"/>
-      <c r="BG107" s="3"/>
-      <c r="BH107" s="3"/>
-      <c r="BI107" s="3"/>
-      <c r="BJ107" s="3"/>
-      <c r="BK107" s="3"/>
-      <c r="BL107" s="3"/>
+        <v>77</v>
+      </c>
+      <c r="AG107" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="AH107" s="1"/>
+      <c r="AI107" s="1"/>
+      <c r="AJ107" s="1"/>
+      <c r="AK107" s="1"/>
+      <c r="AL107" s="1"/>
+      <c r="AM107" s="1"/>
+      <c r="AN107" s="1"/>
+      <c r="AO107" s="1"/>
+      <c r="AP107" s="1"/>
+      <c r="AQ107" s="1"/>
+      <c r="AR107" s="1"/>
+      <c r="AS107" s="1"/>
+      <c r="AT107" s="1"/>
+      <c r="AU107" s="1"/>
+      <c r="AV107" s="1"/>
+      <c r="AW107" s="1"/>
+      <c r="AX107" s="1"/>
+      <c r="AY107" s="1"/>
+      <c r="AZ107" s="1"/>
+      <c r="BA107" s="1"/>
+      <c r="BB107" s="1"/>
+      <c r="BC107" s="1"/>
+      <c r="BD107" s="1"/>
+      <c r="BE107" s="1"/>
+      <c r="BF107" s="1"/>
+      <c r="BG107" s="1"/>
+      <c r="BH107" s="1"/>
+      <c r="BI107" s="1"/>
+      <c r="BJ107" s="1"/>
+      <c r="BK107" s="1"/>
+      <c r="BL107" s="1"/>
     </row>
     <row r="108" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="B108" s="3" t="s">
         <v>629</v>
       </c>
-      <c r="B108" s="3" t="s">
-        <v>630</v>
-      </c>
       <c r="C108" s="3" t="s">
-        <v>631</v>
-      </c>
-      <c r="D108" s="12" t="s">
-        <v>160</v>
+        <v>625</v>
+      </c>
+      <c r="D108" s="11" t="s">
+        <v>756</v>
       </c>
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
@@ -14581,76 +14575,76 @@
         <v>106</v>
       </c>
       <c r="H108" s="4">
-        <v>44973</v>
+        <v>44975</v>
       </c>
       <c r="I108" s="3" t="s">
-        <v>558</v>
+        <v>89</v>
       </c>
       <c r="J108" s="1"/>
       <c r="K108" s="1"/>
       <c r="L108" s="5" t="s">
-        <v>168</v>
+        <v>630</v>
       </c>
       <c r="M108" s="5" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="N108" s="5" t="s">
+        <v>631</v>
+      </c>
+      <c r="O108" s="5" t="s">
         <v>632</v>
       </c>
-      <c r="O108" s="5" t="s">
-        <v>633</v>
-      </c>
       <c r="P108" s="5" t="s">
-        <v>147</v>
+        <v>101</v>
       </c>
       <c r="Q108" s="5" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="R108" s="5" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="S108" s="5" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="T108" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="U108" s="5" t="s">
-        <v>221</v>
+        <v>72</v>
+      </c>
+      <c r="U108" s="3" t="s">
+        <v>544</v>
       </c>
       <c r="V108" s="5" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="W108" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="X108" s="5" t="s">
         <v>98</v>
-      </c>
-      <c r="X108" s="5" t="s">
-        <v>77</v>
       </c>
       <c r="Y108" s="1"/>
       <c r="Z108" s="5" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="AA108" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AB108" s="5" t="s">
-        <v>74</v>
+        <v>148</v>
       </c>
       <c r="AC108" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD108" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE108" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="AD108" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE108" s="5" t="s">
-        <v>147</v>
-      </c>
       <c r="AF108" s="5" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AG108" s="5" t="s">
-        <v>104</v>
+        <v>148</v>
       </c>
       <c r="AH108" s="1"/>
       <c r="AI108" s="1"/>
@@ -14686,108 +14680,84 @@
     </row>
     <row r="109" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="B109" s="3" t="s">
         <v>634</v>
       </c>
-      <c r="B109" s="3" t="s">
-        <v>635</v>
-      </c>
-      <c r="C109" s="3" t="s">
-        <v>631</v>
-      </c>
-      <c r="D109" s="11" t="s">
-        <v>762</v>
+      <c r="C109" s="1"/>
+      <c r="D109" s="12" t="s">
+        <v>160</v>
       </c>
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
       <c r="G109" s="3" t="s">
-        <v>106</v>
+        <v>607</v>
       </c>
       <c r="H109" s="4">
-        <v>44975</v>
+        <v>44977</v>
       </c>
       <c r="I109" s="3" t="s">
         <v>89</v>
       </c>
       <c r="J109" s="1"/>
       <c r="K109" s="1"/>
-      <c r="L109" s="5" t="s">
-        <v>636</v>
-      </c>
-      <c r="M109" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="N109" s="5" t="s">
-        <v>637</v>
-      </c>
-      <c r="O109" s="5" t="s">
-        <v>638</v>
-      </c>
-      <c r="P109" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q109" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="R109" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="S109" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="T109" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="U109" s="3" t="s">
-        <v>550</v>
-      </c>
-      <c r="V109" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="W109" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="X109" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y109" s="1"/>
-      <c r="Z109" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="AA109" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="AB109" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="AC109" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD109" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="AE109" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="AF109" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="AG109" s="5" t="s">
-        <v>148</v>
-      </c>
+      <c r="L109" s="1"/>
+      <c r="M109" s="1"/>
+      <c r="N109" s="1"/>
+      <c r="O109" s="1"/>
+      <c r="P109" s="1"/>
+      <c r="Q109" s="1"/>
+      <c r="R109" s="1"/>
+      <c r="S109" s="1"/>
+      <c r="T109" s="1"/>
+      <c r="U109" s="1"/>
+      <c r="V109" s="1"/>
+      <c r="W109" s="1"/>
+      <c r="X109" s="1"/>
+      <c r="Y109" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z109" s="1"/>
+      <c r="AA109" s="1"/>
+      <c r="AB109" s="1"/>
+      <c r="AC109" s="1"/>
+      <c r="AD109" s="1"/>
+      <c r="AE109" s="1"/>
+      <c r="AF109" s="1"/>
+      <c r="AG109" s="1"/>
       <c r="AH109" s="1"/>
       <c r="AI109" s="1"/>
       <c r="AJ109" s="1"/>
       <c r="AK109" s="1"/>
       <c r="AL109" s="1"/>
-      <c r="AM109" s="1"/>
-      <c r="AN109" s="1"/>
-      <c r="AO109" s="1"/>
-      <c r="AP109" s="1"/>
-      <c r="AQ109" s="1"/>
-      <c r="AR109" s="1"/>
-      <c r="AS109" s="1"/>
-      <c r="AT109" s="1"/>
-      <c r="AU109" s="1"/>
+      <c r="AM109" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="AN109" s="5" t="s">
+        <v>636</v>
+      </c>
+      <c r="AO109" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="AP109" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ109" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="AR109" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="AS109" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="AT109" s="5" t="s">
+        <v>638</v>
+      </c>
+      <c r="AU109" s="5" t="s">
+        <v>72</v>
+      </c>
       <c r="AV109" s="1"/>
       <c r="AW109" s="1"/>
       <c r="AX109" s="1"/>
@@ -14820,72 +14790,96 @@
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
       <c r="G110" s="3" t="s">
-        <v>613</v>
-      </c>
-      <c r="H110" s="4">
-        <v>44977</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="H110" s="1"/>
       <c r="I110" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="J110" s="1"/>
+      <c r="J110" s="3" t="s">
+        <v>238</v>
+      </c>
       <c r="K110" s="1"/>
-      <c r="L110" s="1"/>
-      <c r="M110" s="1"/>
-      <c r="N110" s="1"/>
-      <c r="O110" s="1"/>
-      <c r="P110" s="1"/>
-      <c r="Q110" s="1"/>
-      <c r="R110" s="1"/>
-      <c r="S110" s="1"/>
-      <c r="T110" s="1"/>
-      <c r="U110" s="1"/>
-      <c r="V110" s="1"/>
-      <c r="W110" s="1"/>
-      <c r="X110" s="1"/>
+      <c r="L110" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="M110" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="N110" s="5" t="s">
+        <v>641</v>
+      </c>
+      <c r="O110" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="P110" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q110" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="R110" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="S110" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="T110" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="U110" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="V110" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="W110" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="X110" s="5" t="s">
+        <v>98</v>
+      </c>
       <c r="Y110" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="Z110" s="1"/>
-      <c r="AA110" s="1"/>
-      <c r="AB110" s="1"/>
-      <c r="AC110" s="1"/>
-      <c r="AD110" s="1"/>
-      <c r="AE110" s="1"/>
-      <c r="AF110" s="1"/>
-      <c r="AG110" s="1"/>
+      <c r="Z110" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA110" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="AB110" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="AC110" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD110" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="AE110" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF110" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="AG110" s="5" t="s">
+        <v>131</v>
+      </c>
       <c r="AH110" s="1"/>
       <c r="AI110" s="1"/>
       <c r="AJ110" s="1"/>
       <c r="AK110" s="1"/>
       <c r="AL110" s="1"/>
-      <c r="AM110" s="3" t="s">
-        <v>641</v>
-      </c>
-      <c r="AN110" s="5" t="s">
-        <v>642</v>
-      </c>
-      <c r="AO110" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="AP110" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="AQ110" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="AR110" s="5" t="s">
-        <v>356</v>
-      </c>
-      <c r="AS110" s="5" t="s">
-        <v>643</v>
-      </c>
-      <c r="AT110" s="5" t="s">
-        <v>644</v>
-      </c>
-      <c r="AU110" s="5" t="s">
-        <v>72</v>
-      </c>
+      <c r="AM110" s="1"/>
+      <c r="AN110" s="1"/>
+      <c r="AO110" s="1"/>
+      <c r="AP110" s="1"/>
+      <c r="AQ110" s="1"/>
+      <c r="AR110" s="1"/>
+      <c r="AS110" s="1"/>
+      <c r="AT110" s="1"/>
+      <c r="AU110" s="1"/>
       <c r="AV110" s="1"/>
       <c r="AW110" s="1"/>
       <c r="AX110" s="1"/>
@@ -14906,14 +14900,14 @@
     </row>
     <row r="111" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="B111" s="3" t="s">
         <v>645</v>
       </c>
-      <c r="B111" s="3" t="s">
-        <v>646</v>
-      </c>
       <c r="C111" s="1"/>
-      <c r="D111" s="12" t="s">
-        <v>160</v>
+      <c r="D111" s="11" t="s">
+        <v>757</v>
       </c>
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
@@ -14922,11 +14916,9 @@
       </c>
       <c r="H111" s="1"/>
       <c r="I111" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="J111" s="3" t="s">
-        <v>238</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="J111" s="1"/>
       <c r="K111" s="1"/>
       <c r="L111" s="5" t="s">
         <v>253</v>
@@ -14935,107 +14927,88 @@
         <v>69</v>
       </c>
       <c r="N111" s="5" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="O111" s="5" t="s">
-        <v>648</v>
-      </c>
-      <c r="P111" s="3" t="s">
-        <v>259</v>
+        <v>213</v>
+      </c>
+      <c r="P111" s="5" t="s">
+        <v>101</v>
       </c>
       <c r="Q111" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="R111" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="S111" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="T111" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="U111" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="V111" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="R111" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="S111" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="T111" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="U111" s="3" t="s">
-        <v>550</v>
-      </c>
-      <c r="V111" s="5" t="s">
-        <v>79</v>
-      </c>
       <c r="W111" s="5" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="X111" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y111" s="3" t="s">
-        <v>81</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="Y111" s="1"/>
       <c r="Z111" s="5" t="s">
         <v>129</v>
       </c>
       <c r="AA111" s="5" t="s">
-        <v>356</v>
+        <v>129</v>
       </c>
       <c r="AB111" s="5" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="AC111" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="AD111" s="3" t="s">
-        <v>649</v>
+      <c r="AD111" s="5" t="s">
+        <v>96</v>
       </c>
       <c r="AE111" s="5" t="s">
         <v>76</v>
       </c>
       <c r="AF111" s="5" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="AG111" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="AH111" s="1"/>
-      <c r="AI111" s="1"/>
-      <c r="AJ111" s="1"/>
-      <c r="AK111" s="1"/>
+        <v>148</v>
+      </c>
+      <c r="AH111" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="AI111" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="AJ111" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="AK111" s="5" t="s">
+        <v>69</v>
+      </c>
       <c r="AL111" s="1"/>
       <c r="AM111" s="1"/>
-      <c r="AN111" s="1"/>
-      <c r="AO111" s="1"/>
-      <c r="AP111" s="1"/>
-      <c r="AQ111" s="1"/>
-      <c r="AR111" s="1"/>
-      <c r="AS111" s="1"/>
-      <c r="AT111" s="1"/>
-      <c r="AU111" s="1"/>
-      <c r="AV111" s="1"/>
-      <c r="AW111" s="1"/>
-      <c r="AX111" s="1"/>
-      <c r="AY111" s="1"/>
-      <c r="AZ111" s="1"/>
-      <c r="BA111" s="1"/>
-      <c r="BB111" s="1"/>
-      <c r="BC111" s="1"/>
-      <c r="BD111" s="1"/>
-      <c r="BE111" s="1"/>
-      <c r="BF111" s="1"/>
-      <c r="BG111" s="1"/>
-      <c r="BH111" s="1"/>
-      <c r="BI111" s="1"/>
-      <c r="BJ111" s="1"/>
-      <c r="BK111" s="1"/>
-      <c r="BL111" s="1"/>
     </row>
     <row r="112" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="C112" s="1"/>
-      <c r="D112" s="11" t="s">
-        <v>763</v>
+      <c r="D112" s="12" t="s">
+        <v>160</v>
       </c>
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
@@ -15044,95 +15017,89 @@
       </c>
       <c r="H112" s="1"/>
       <c r="I112" s="3" t="s">
-        <v>161</v>
+        <v>89</v>
       </c>
       <c r="J112" s="1"/>
       <c r="K112" s="1"/>
       <c r="L112" s="5" t="s">
-        <v>253</v>
+        <v>155</v>
       </c>
       <c r="M112" s="5" t="s">
         <v>69</v>
       </c>
       <c r="N112" s="5" t="s">
-        <v>652</v>
+        <v>184</v>
       </c>
       <c r="O112" s="5" t="s">
-        <v>213</v>
+        <v>649</v>
       </c>
       <c r="P112" s="5" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="Q112" s="5" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="R112" s="5" t="s">
         <v>104</v>
       </c>
       <c r="S112" s="5" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="T112" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="U112" s="3" t="s">
-        <v>111</v>
+        <v>72</v>
+      </c>
+      <c r="U112" s="5" t="s">
+        <v>97</v>
       </c>
       <c r="V112" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="W112" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="W112" s="5" t="s">
-        <v>95</v>
-      </c>
       <c r="X112" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="Y112" s="1"/>
+        <v>128</v>
+      </c>
+      <c r="Y112" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="Z112" s="5" t="s">
-        <v>129</v>
+        <v>166</v>
       </c>
       <c r="AA112" s="5" t="s">
-        <v>129</v>
+        <v>413</v>
       </c>
       <c r="AB112" s="5" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="AC112" s="5" t="s">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="AD112" s="5" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="AE112" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AF112" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="AG112" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="AH112" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="AI112" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="AJ112" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="AK112" s="5" t="s">
-        <v>69</v>
-      </c>
+      <c r="AH112" s="1"/>
+      <c r="AI112" s="1"/>
+      <c r="AJ112" s="1"/>
+      <c r="AK112" s="1"/>
       <c r="AL112" s="1"/>
       <c r="AM112" s="1"/>
     </row>
     <row r="113" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="C113" s="1"/>
       <c r="D113" s="12" t="s">
@@ -15150,70 +15117,70 @@
       <c r="J113" s="1"/>
       <c r="K113" s="1"/>
       <c r="L113" s="5" t="s">
-        <v>155</v>
+        <v>417</v>
       </c>
       <c r="M113" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="N113" s="5" t="s">
+        <v>652</v>
+      </c>
+      <c r="O113" s="5" t="s">
+        <v>653</v>
+      </c>
+      <c r="P113" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="N113" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="O113" s="5" t="s">
-        <v>655</v>
-      </c>
-      <c r="P113" s="5" t="s">
+      <c r="Q113" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="Q113" s="5" t="s">
-        <v>75</v>
-      </c>
       <c r="R113" s="5" t="s">
-        <v>104</v>
+        <v>234</v>
       </c>
       <c r="S113" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="T113" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="U113" s="5" t="s">
-        <v>97</v>
+        <v>101</v>
+      </c>
+      <c r="U113" s="3" t="s">
+        <v>544</v>
       </c>
       <c r="V113" s="5" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="W113" s="5" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="X113" s="5" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="Y113" s="3" t="s">
         <v>81</v>
       </c>
       <c r="Z113" s="5" t="s">
-        <v>166</v>
+        <v>417</v>
       </c>
       <c r="AA113" s="5" t="s">
-        <v>413</v>
+        <v>187</v>
       </c>
       <c r="AB113" s="5" t="s">
-        <v>100</v>
+        <v>264</v>
       </c>
       <c r="AC113" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="AD113" s="5" t="s">
-        <v>72</v>
+        <v>143</v>
+      </c>
+      <c r="AD113" s="3" t="s">
+        <v>654</v>
       </c>
       <c r="AE113" s="5" t="s">
         <v>75</v>
       </c>
       <c r="AF113" s="5" t="s">
-        <v>98</v>
+        <v>147</v>
       </c>
       <c r="AG113" s="5" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="AH113" s="1"/>
       <c r="AI113" s="1"/>
@@ -15224,10 +15191,10 @@
     </row>
     <row r="114" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="B114" s="3" t="s">
         <v>656</v>
-      </c>
-      <c r="B114" s="3" t="s">
-        <v>657</v>
       </c>
       <c r="C114" s="1"/>
       <c r="D114" s="12" t="s">
@@ -15240,75 +15207,67 @@
       </c>
       <c r="H114" s="1"/>
       <c r="I114" s="3" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="J114" s="1"/>
       <c r="K114" s="1"/>
       <c r="L114" s="5" t="s">
-        <v>417</v>
+        <v>264</v>
       </c>
       <c r="M114" s="5" t="s">
-        <v>163</v>
+        <v>75</v>
       </c>
       <c r="N114" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="O114" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="P114" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q114" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="R114" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="S114" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="T114" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="U114" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="V114" s="1"/>
+      <c r="W114" s="1"/>
+      <c r="X114" s="1"/>
+      <c r="Y114" s="1"/>
+      <c r="Z114" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA114" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="AB114" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="AC114" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD114" s="3" t="s">
         <v>658</v>
       </c>
-      <c r="O114" s="5" t="s">
-        <v>659</v>
-      </c>
-      <c r="P114" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q114" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="R114" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="S114" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="T114" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="U114" s="3" t="s">
-        <v>550</v>
-      </c>
-      <c r="V114" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="W114" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="X114" s="5" t="s">
+      <c r="AE114" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="Y114" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z114" s="5" t="s">
-        <v>417</v>
-      </c>
-      <c r="AA114" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="AB114" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="AC114" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="AD114" s="3" t="s">
-        <v>660</v>
-      </c>
-      <c r="AE114" s="5" t="s">
-        <v>75</v>
-      </c>
       <c r="AF114" s="5" t="s">
-        <v>147</v>
+        <v>220</v>
       </c>
       <c r="AG114" s="5" t="s">
-        <v>168</v>
+        <v>104</v>
       </c>
       <c r="AH114" s="1"/>
       <c r="AI114" s="1"/>
@@ -15319,12 +15278,14 @@
     </row>
     <row r="115" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="C115" s="3" t="s">
         <v>661</v>
       </c>
-      <c r="B115" s="3" t="s">
-        <v>662</v>
-      </c>
-      <c r="C115" s="1"/>
       <c r="D115" s="12" t="s">
         <v>160</v>
       </c>
@@ -15335,67 +15296,73 @@
       </c>
       <c r="H115" s="1"/>
       <c r="I115" s="3" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="J115" s="1"/>
       <c r="K115" s="1"/>
       <c r="L115" s="5" t="s">
-        <v>264</v>
+        <v>662</v>
       </c>
       <c r="M115" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="N115" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="O115" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="P115" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q115" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="R115" s="1"/>
+      <c r="S115" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="T115" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="U115" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="V115" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="N115" s="5" t="s">
-        <v>663</v>
-      </c>
-      <c r="O115" s="5" t="s">
-        <v>457</v>
-      </c>
-      <c r="P115" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q115" s="5" t="s">
+      <c r="W115" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="X115" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="R115" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="S115" s="5" t="s">
+      <c r="Y115" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z115" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="AA115" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB115" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="AC115" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD115" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE115" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF115" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="T115" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="U115" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="V115" s="1"/>
-      <c r="W115" s="1"/>
-      <c r="X115" s="1"/>
-      <c r="Y115" s="1"/>
-      <c r="Z115" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="AA115" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="AB115" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="AC115" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="AD115" s="3" t="s">
-        <v>664</v>
-      </c>
-      <c r="AE115" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="AF115" s="5" t="s">
-        <v>220</v>
-      </c>
       <c r="AG115" s="5" t="s">
-        <v>104</v>
+        <v>139</v>
       </c>
       <c r="AH115" s="1"/>
       <c r="AI115" s="1"/>
@@ -15406,14 +15373,12 @@
     </row>
     <row r="116" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="C116" s="3" t="s">
-        <v>667</v>
-      </c>
+        <v>664</v>
+      </c>
+      <c r="C116" s="1"/>
       <c r="D116" s="12" t="s">
         <v>160</v>
       </c>
@@ -15429,69 +15394,69 @@
       <c r="J116" s="1"/>
       <c r="K116" s="1"/>
       <c r="L116" s="5" t="s">
-        <v>668</v>
+        <v>130</v>
       </c>
       <c r="M116" s="5" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="N116" s="5" t="s">
-        <v>173</v>
+        <v>239</v>
       </c>
       <c r="O116" s="5" t="s">
-        <v>396</v>
+        <v>665</v>
       </c>
       <c r="P116" s="5" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="Q116" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="R116" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="S116" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="R116" s="1"/>
-      <c r="S116" s="5" t="s">
-        <v>95</v>
-      </c>
       <c r="T116" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="U116" s="3" t="s">
-        <v>550</v>
+        <v>72</v>
+      </c>
+      <c r="U116" s="5" t="s">
+        <v>97</v>
       </c>
       <c r="V116" s="5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="W116" s="5" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="X116" s="5" t="s">
-        <v>98</v>
+        <v>128</v>
       </c>
       <c r="Y116" s="3" t="s">
         <v>81</v>
       </c>
       <c r="Z116" s="5" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="AA116" s="5" t="s">
         <v>130</v>
       </c>
       <c r="AB116" s="5" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="AC116" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="AD116" s="5" t="s">
-        <v>96</v>
+      <c r="AD116" s="3" t="s">
+        <v>241</v>
       </c>
       <c r="AE116" s="5" t="s">
         <v>109</v>
       </c>
       <c r="AF116" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="AG116" s="5" t="s">
-        <v>139</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="AG116" s="1"/>
       <c r="AH116" s="1"/>
       <c r="AI116" s="1"/>
       <c r="AJ116" s="1"/>
@@ -15501,10 +15466,10 @@
     </row>
     <row r="117" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>670</v>
+        <v>171</v>
       </c>
       <c r="C117" s="1"/>
       <c r="D117" s="12" t="s">
@@ -15513,76 +15478,72 @@
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
       <c r="G117" s="3" t="s">
-        <v>106</v>
+        <v>607</v>
       </c>
       <c r="H117" s="1"/>
       <c r="I117" s="3" t="s">
-        <v>89</v>
+        <v>161</v>
       </c>
       <c r="J117" s="1"/>
       <c r="K117" s="1"/>
       <c r="L117" s="5" t="s">
-        <v>130</v>
+        <v>667</v>
       </c>
       <c r="M117" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="N117" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="O117" s="5" t="s">
+        <v>668</v>
+      </c>
+      <c r="P117" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="N117" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="O117" s="5" t="s">
-        <v>671</v>
-      </c>
-      <c r="P117" s="5" t="s">
+      <c r="Q117" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="R117" s="1"/>
+      <c r="S117" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="T117" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="Q117" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="R117" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="S117" s="5" t="s">
+      <c r="U117" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="V117" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="T117" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="U117" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="V117" s="5" t="s">
-        <v>79</v>
-      </c>
       <c r="W117" s="5" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="X117" s="5" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="Y117" s="3" t="s">
         <v>81</v>
       </c>
       <c r="Z117" s="5" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="AA117" s="5" t="s">
-        <v>130</v>
+        <v>177</v>
       </c>
       <c r="AB117" s="5" t="s">
-        <v>131</v>
+        <v>178</v>
       </c>
       <c r="AC117" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD117" s="3" t="s">
-        <v>241</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="AD117" s="1"/>
       <c r="AE117" s="5" t="s">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="AF117" s="5" t="s">
-        <v>98</v>
+        <v>147</v>
       </c>
       <c r="AG117" s="1"/>
       <c r="AH117" s="1"/>
@@ -15594,128 +15555,122 @@
     </row>
     <row r="118" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>171</v>
+        <v>670</v>
       </c>
       <c r="C118" s="1"/>
-      <c r="D118" s="12" t="s">
-        <v>160</v>
+      <c r="D118" s="11" t="s">
+        <v>758</v>
       </c>
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
       <c r="G118" s="3" t="s">
-        <v>613</v>
-      </c>
-      <c r="H118" s="1"/>
+        <v>106</v>
+      </c>
+      <c r="H118" s="4">
+        <v>45023</v>
+      </c>
       <c r="I118" s="3" t="s">
-        <v>161</v>
+        <v>89</v>
       </c>
       <c r="J118" s="1"/>
       <c r="K118" s="1"/>
       <c r="L118" s="5" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="M118" s="5" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="N118" s="5" t="s">
-        <v>450</v>
+        <v>128</v>
       </c>
       <c r="O118" s="5" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="P118" s="5" t="s">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="Q118" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="R118" s="1"/>
+        <v>76</v>
+      </c>
+      <c r="R118" s="5" t="s">
+        <v>104</v>
+      </c>
       <c r="S118" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="T118" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="U118" s="5" t="s">
-        <v>80</v>
+        <v>94</v>
+      </c>
+      <c r="U118" s="3" t="s">
+        <v>544</v>
       </c>
       <c r="V118" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="W118" s="5" t="s">
         <v>95</v>
       </c>
       <c r="X118" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="Y118" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="Z118" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="AA118" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="AB118" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="AC118" s="5" t="s">
-        <v>143</v>
-      </c>
+      <c r="Z118" s="1"/>
+      <c r="AA118" s="1"/>
+      <c r="AB118" s="1"/>
+      <c r="AC118" s="1"/>
       <c r="AD118" s="1"/>
-      <c r="AE118" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="AF118" s="5" t="s">
-        <v>147</v>
-      </c>
+      <c r="AE118" s="1"/>
+      <c r="AF118" s="1"/>
       <c r="AG118" s="1"/>
       <c r="AH118" s="1"/>
       <c r="AI118" s="1"/>
       <c r="AJ118" s="1"/>
       <c r="AK118" s="1"/>
       <c r="AL118" s="1"/>
-      <c r="AM118" s="1"/>
+      <c r="AM118" s="3" t="s">
+        <v>635</v>
+      </c>
     </row>
     <row r="119" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>676</v>
-      </c>
-      <c r="C119" s="1"/>
-      <c r="D119" s="11" t="s">
-        <v>764</v>
+        <v>674</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="D119" s="12" t="s">
+        <v>160</v>
       </c>
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
       <c r="G119" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="H119" s="4">
-        <v>45023</v>
-      </c>
+      <c r="H119" s="1"/>
       <c r="I119" s="3" t="s">
         <v>89</v>
       </c>
       <c r="J119" s="1"/>
       <c r="K119" s="1"/>
       <c r="L119" s="5" t="s">
-        <v>677</v>
+        <v>662</v>
       </c>
       <c r="M119" s="5" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="N119" s="5" t="s">
-        <v>128</v>
+        <v>675</v>
       </c>
       <c r="O119" s="5" t="s">
-        <v>678</v>
+        <v>396</v>
       </c>
       <c r="P119" s="5" t="s">
         <v>94</v>
@@ -15723,17 +15678,15 @@
       <c r="Q119" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="R119" s="5" t="s">
-        <v>104</v>
-      </c>
+      <c r="R119" s="1"/>
       <c r="S119" s="5" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="T119" s="5" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="U119" s="3" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="V119" s="5" t="s">
         <v>75</v>
@@ -15747,33 +15700,45 @@
       <c r="Y119" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="Z119" s="1"/>
-      <c r="AA119" s="1"/>
-      <c r="AB119" s="1"/>
-      <c r="AC119" s="1"/>
-      <c r="AD119" s="1"/>
-      <c r="AE119" s="1"/>
-      <c r="AF119" s="1"/>
-      <c r="AG119" s="1"/>
+      <c r="Z119" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="AA119" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB119" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="AC119" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD119" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE119" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF119" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="AG119" s="5" t="s">
+        <v>148</v>
+      </c>
       <c r="AH119" s="1"/>
       <c r="AI119" s="1"/>
       <c r="AJ119" s="1"/>
       <c r="AK119" s="1"/>
       <c r="AL119" s="1"/>
-      <c r="AM119" s="3" t="s">
-        <v>641</v>
-      </c>
+      <c r="AM119" s="1"/>
     </row>
     <row r="120" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>680</v>
-      </c>
-      <c r="C120" s="3" t="s">
-        <v>667</v>
-      </c>
+        <v>677</v>
+      </c>
+      <c r="C120" s="1"/>
       <c r="D120" s="12" t="s">
         <v>160</v>
       </c>
@@ -15784,75 +15749,79 @@
       </c>
       <c r="H120" s="1"/>
       <c r="I120" s="3" t="s">
-        <v>89</v>
+        <v>216</v>
       </c>
       <c r="J120" s="1"/>
       <c r="K120" s="1"/>
       <c r="L120" s="5" t="s">
-        <v>668</v>
+        <v>678</v>
       </c>
       <c r="M120" s="5" t="s">
-        <v>91</v>
+        <v>147</v>
       </c>
       <c r="N120" s="5" t="s">
-        <v>681</v>
+        <v>573</v>
       </c>
       <c r="O120" s="5" t="s">
-        <v>396</v>
+        <v>679</v>
       </c>
       <c r="P120" s="5" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="Q120" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="R120" s="1"/>
+        <v>220</v>
+      </c>
+      <c r="R120" s="5" t="s">
+        <v>680</v>
+      </c>
       <c r="S120" s="5" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="T120" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="U120" s="3" t="s">
-        <v>550</v>
+        <v>98</v>
+      </c>
+      <c r="U120" s="5" t="s">
+        <v>219</v>
       </c>
       <c r="V120" s="5" t="s">
-        <v>75</v>
+        <v>380</v>
       </c>
       <c r="W120" s="5" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="X120" s="5" t="s">
-        <v>98</v>
+        <v>220</v>
       </c>
       <c r="Y120" s="3" t="s">
         <v>81</v>
       </c>
       <c r="Z120" s="5" t="s">
-        <v>373</v>
+        <v>148</v>
       </c>
       <c r="AA120" s="5" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
       <c r="AB120" s="5" t="s">
-        <v>148</v>
+        <v>72</v>
       </c>
       <c r="AC120" s="5" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="AD120" s="5" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="AE120" s="5" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="AF120" s="5" t="s">
-        <v>102</v>
+        <v>380</v>
       </c>
       <c r="AG120" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="AH120" s="1"/>
+        <v>74</v>
+      </c>
+      <c r="AH120" s="3" t="s">
+        <v>681</v>
+      </c>
       <c r="AI120" s="1"/>
       <c r="AJ120" s="1"/>
       <c r="AK120" s="1"/>
@@ -15885,70 +15854,70 @@
         <v>684</v>
       </c>
       <c r="M121" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="N121" s="5" t="s">
+        <v>685</v>
+      </c>
+      <c r="O121" s="5" t="s">
+        <v>686</v>
+      </c>
+      <c r="P121" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q121" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="R121" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="S121" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="N121" s="5" t="s">
-        <v>579</v>
-      </c>
-      <c r="O121" s="5" t="s">
-        <v>685</v>
-      </c>
-      <c r="P121" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q121" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="R121" s="5" t="s">
-        <v>686</v>
-      </c>
-      <c r="S121" s="5" t="s">
-        <v>80</v>
-      </c>
       <c r="T121" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="U121" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="V121" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="W121" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="U121" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="V121" s="5" t="s">
-        <v>380</v>
-      </c>
-      <c r="W121" s="5" t="s">
+      <c r="X121" s="5" t="s">
         <v>77</v>
-      </c>
-      <c r="X121" s="5" t="s">
-        <v>220</v>
       </c>
       <c r="Y121" s="3" t="s">
         <v>81</v>
       </c>
       <c r="Z121" s="5" t="s">
-        <v>148</v>
+        <v>490</v>
       </c>
       <c r="AA121" s="5" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="AB121" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC121" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD121" s="5" t="s">
-        <v>78</v>
+        <v>143</v>
+      </c>
+      <c r="AC121" s="3" t="s">
+        <v>687</v>
+      </c>
+      <c r="AD121" s="3" t="s">
+        <v>688</v>
       </c>
       <c r="AE121" s="5" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="AF121" s="5" t="s">
-        <v>380</v>
+        <v>220</v>
       </c>
       <c r="AG121" s="5" t="s">
-        <v>74</v>
+        <v>199</v>
       </c>
       <c r="AH121" s="3" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="AI121" s="1"/>
       <c r="AJ121" s="1"/>
@@ -15958,94 +15927,100 @@
     </row>
     <row r="122" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>689</v>
-      </c>
-      <c r="C122" s="1"/>
-      <c r="D122" s="12" t="s">
-        <v>160</v>
+        <v>691</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="D122" s="11" t="s">
+        <v>759</v>
       </c>
       <c r="E122" s="1"/>
       <c r="F122" s="1"/>
       <c r="G122" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="H122" s="1"/>
+      <c r="H122" s="4">
+        <v>31835</v>
+      </c>
       <c r="I122" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="J122" s="1"/>
+        <v>89</v>
+      </c>
+      <c r="J122" s="3" t="s">
+        <v>581</v>
+      </c>
       <c r="K122" s="1"/>
       <c r="L122" s="5" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="M122" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="N122" s="5" t="s">
+        <v>694</v>
+      </c>
+      <c r="O122" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="P122" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q122" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="N122" s="5" t="s">
-        <v>691</v>
-      </c>
-      <c r="O122" s="5" t="s">
-        <v>692</v>
-      </c>
-      <c r="P122" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q122" s="5" t="s">
+      <c r="R122" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="S122" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="T122" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="U122" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="R122" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="S122" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="T122" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="U122" s="5" t="s">
-        <v>221</v>
-      </c>
       <c r="V122" s="5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="W122" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="X122" s="5" t="s">
         <v>98</v>
-      </c>
-      <c r="X122" s="5" t="s">
-        <v>77</v>
       </c>
       <c r="Y122" s="3" t="s">
         <v>81</v>
       </c>
       <c r="Z122" s="5" t="s">
-        <v>490</v>
+        <v>167</v>
       </c>
       <c r="AA122" s="5" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="AB122" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="AC122" s="3" t="s">
-        <v>693</v>
+        <v>148</v>
+      </c>
+      <c r="AC122" s="5" t="s">
+        <v>94</v>
       </c>
       <c r="AD122" s="3" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="AE122" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF122" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="AF122" s="5" t="s">
-        <v>220</v>
-      </c>
       <c r="AG122" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="AH122" s="3" t="s">
-        <v>695</v>
+        <v>131</v>
+      </c>
+      <c r="AH122" s="5" t="s">
+        <v>146</v>
       </c>
       <c r="AI122" s="1"/>
       <c r="AJ122" s="1"/>
@@ -16060,282 +16035,282 @@
       <c r="B123" s="3" t="s">
         <v>697</v>
       </c>
-      <c r="C123" s="3" t="s">
-        <v>698</v>
-      </c>
-      <c r="D123" s="11" t="s">
-        <v>765</v>
-      </c>
+      <c r="C123" s="1"/>
+      <c r="D123" s="13"/>
       <c r="E123" s="1"/>
       <c r="F123" s="1"/>
-      <c r="G123" s="3" t="s">
-        <v>106</v>
-      </c>
+      <c r="G123" s="1"/>
       <c r="H123" s="4">
-        <v>31835</v>
+        <v>45044</v>
       </c>
       <c r="I123" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="J123" s="3" t="s">
-        <v>587</v>
-      </c>
+      <c r="J123" s="1"/>
       <c r="K123" s="1"/>
       <c r="L123" s="5" t="s">
-        <v>699</v>
+        <v>129</v>
       </c>
       <c r="M123" s="5" t="s">
         <v>91</v>
       </c>
       <c r="N123" s="5" t="s">
-        <v>700</v>
+        <v>234</v>
       </c>
       <c r="O123" s="5" t="s">
-        <v>468</v>
+        <v>523</v>
       </c>
       <c r="P123" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="Q123" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="R123" s="5" t="s">
-        <v>183</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="R123" s="1"/>
       <c r="S123" s="5" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="T123" s="5" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="U123" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="V123" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="W123" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="X123" s="5" t="s">
-        <v>98</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="V123" s="1"/>
+      <c r="W123" s="1"/>
+      <c r="X123" s="1"/>
       <c r="Y123" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="Z123" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="AA123" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="AB123" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="AC123" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="AD123" s="3" t="s">
-        <v>701</v>
-      </c>
-      <c r="AE123" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="AF123" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="AG123" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="AH123" s="5" t="s">
-        <v>146</v>
-      </c>
+      <c r="Z123" s="1"/>
+      <c r="AA123" s="1"/>
+      <c r="AB123" s="1"/>
+      <c r="AC123" s="1"/>
+      <c r="AD123" s="1"/>
+      <c r="AE123" s="1"/>
+      <c r="AF123" s="1"/>
+      <c r="AG123" s="1"/>
+      <c r="AH123" s="1"/>
       <c r="AI123" s="1"/>
       <c r="AJ123" s="1"/>
       <c r="AK123" s="1"/>
       <c r="AL123" s="1"/>
-      <c r="AM123" s="1"/>
+      <c r="AM123" s="3" t="s">
+        <v>635</v>
+      </c>
     </row>
     <row r="124" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>703</v>
-      </c>
-      <c r="C124" s="1"/>
-      <c r="D124" s="13"/>
+        <v>691</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="D124" s="11" t="s">
+        <v>759</v>
+      </c>
       <c r="E124" s="1"/>
       <c r="F124" s="1"/>
-      <c r="G124" s="1"/>
+      <c r="G124" s="3" t="s">
+        <v>106</v>
+      </c>
       <c r="H124" s="4">
-        <v>45044</v>
+        <v>31835</v>
       </c>
       <c r="I124" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="J124" s="1"/>
+      <c r="J124" s="3" t="s">
+        <v>581</v>
+      </c>
       <c r="K124" s="1"/>
       <c r="L124" s="5" t="s">
-        <v>129</v>
+        <v>693</v>
       </c>
       <c r="M124" s="5" t="s">
         <v>91</v>
       </c>
       <c r="N124" s="5" t="s">
-        <v>234</v>
+        <v>694</v>
       </c>
       <c r="O124" s="5" t="s">
-        <v>529</v>
+        <v>468</v>
       </c>
       <c r="P124" s="5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q124" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="R124" s="1"/>
+        <v>75</v>
+      </c>
+      <c r="R124" s="5" t="s">
+        <v>104</v>
+      </c>
       <c r="S124" s="5" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="T124" s="5" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="U124" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="V124" s="1"/>
-      <c r="W124" s="1"/>
-      <c r="X124" s="1"/>
+        <v>97</v>
+      </c>
+      <c r="V124" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="W124" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="X124" s="5" t="s">
+        <v>98</v>
+      </c>
       <c r="Y124" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="Z124" s="1"/>
-      <c r="AA124" s="1"/>
-      <c r="AB124" s="1"/>
-      <c r="AC124" s="1"/>
-      <c r="AD124" s="1"/>
-      <c r="AE124" s="1"/>
-      <c r="AF124" s="1"/>
-      <c r="AG124" s="1"/>
-      <c r="AH124" s="1"/>
+      <c r="Z124" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="AA124" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB124" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="AC124" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD124" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="AE124" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF124" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="AG124" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="AH124" s="5" t="s">
+        <v>146</v>
+      </c>
       <c r="AI124" s="1"/>
       <c r="AJ124" s="1"/>
       <c r="AK124" s="1"/>
       <c r="AL124" s="1"/>
-      <c r="AM124" s="3" t="s">
-        <v>641</v>
-      </c>
+      <c r="AM124" s="1"/>
     </row>
     <row r="125" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>697</v>
-      </c>
-      <c r="C125" s="3" t="s">
-        <v>698</v>
-      </c>
-      <c r="D125" s="11" t="s">
-        <v>765</v>
+        <v>700</v>
+      </c>
+      <c r="C125" s="1"/>
+      <c r="D125" s="12" t="s">
+        <v>160</v>
       </c>
       <c r="E125" s="1"/>
-      <c r="F125" s="1"/>
+      <c r="F125" s="3" t="s">
+        <v>701</v>
+      </c>
       <c r="G125" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="H125" s="4">
-        <v>31835</v>
-      </c>
+      <c r="H125" s="1"/>
       <c r="I125" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="J125" s="3" t="s">
-        <v>587</v>
-      </c>
+      <c r="J125" s="1"/>
       <c r="K125" s="1"/>
       <c r="L125" s="5" t="s">
-        <v>699</v>
+        <v>362</v>
       </c>
       <c r="M125" s="5" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="N125" s="5" t="s">
-        <v>700</v>
+        <v>359</v>
       </c>
       <c r="O125" s="5" t="s">
-        <v>468</v>
+        <v>702</v>
       </c>
       <c r="P125" s="5" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="Q125" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="R125" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="S125" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="T125" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="U125" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="V125" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="R125" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="S125" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="T125" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="U125" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="V125" s="5" t="s">
-        <v>79</v>
-      </c>
       <c r="W125" s="5" t="s">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="X125" s="5" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="Y125" s="3" t="s">
         <v>81</v>
       </c>
       <c r="Z125" s="5" t="s">
-        <v>167</v>
+        <v>138</v>
       </c>
       <c r="AA125" s="5" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="AB125" s="5" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="AC125" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="AD125" s="3" t="s">
-        <v>701</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="AD125" s="1"/>
       <c r="AE125" s="5" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="AF125" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="AG125" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="AH125" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="AI125" s="1"/>
-      <c r="AJ125" s="1"/>
-      <c r="AK125" s="1"/>
+      <c r="AH125" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="AI125" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="AJ125" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="AK125" s="5" t="s">
+        <v>72</v>
+      </c>
       <c r="AL125" s="1"/>
       <c r="AM125" s="1"/>
     </row>
     <row r="126" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="B126" s="3" t="s">
         <v>705</v>
-      </c>
-      <c r="B126" s="3" t="s">
-        <v>706</v>
       </c>
       <c r="C126" s="1"/>
       <c r="D126" s="12" t="s">
@@ -16343,7 +16318,7 @@
       </c>
       <c r="E126" s="1"/>
       <c r="F126" s="3" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="G126" s="3" t="s">
         <v>106</v>
@@ -16355,13 +16330,13 @@
       <c r="J126" s="1"/>
       <c r="K126" s="1"/>
       <c r="L126" s="5" t="s">
-        <v>362</v>
+        <v>706</v>
       </c>
       <c r="M126" s="5" t="s">
         <v>69</v>
       </c>
       <c r="N126" s="5" t="s">
-        <v>359</v>
+        <v>707</v>
       </c>
       <c r="O126" s="5" t="s">
         <v>708</v>
@@ -16370,7 +16345,7 @@
         <v>101</v>
       </c>
       <c r="Q126" s="5" t="s">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="R126" s="5" t="s">
         <v>110</v>
@@ -16397,10 +16372,10 @@
         <v>81</v>
       </c>
       <c r="Z126" s="5" t="s">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="AA126" s="5" t="s">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="AB126" s="5" t="s">
         <v>131</v>
@@ -16416,10 +16391,10 @@
         <v>98</v>
       </c>
       <c r="AG126" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="AH126" s="3" t="s">
-        <v>709</v>
+        <v>264</v>
+      </c>
+      <c r="AH126" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="AI126" s="5" t="s">
         <v>511</v>
@@ -16435,63 +16410,63 @@
     </row>
     <row r="127" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
+        <v>709</v>
+      </c>
+      <c r="B127" s="3" t="s">
         <v>710</v>
-      </c>
-      <c r="B127" s="3" t="s">
-        <v>711</v>
       </c>
       <c r="C127" s="1"/>
       <c r="D127" s="12" t="s">
         <v>160</v>
       </c>
       <c r="E127" s="1"/>
-      <c r="F127" s="3" t="s">
-        <v>707</v>
-      </c>
+      <c r="F127" s="1"/>
       <c r="G127" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="H127" s="1"/>
+      <c r="H127" s="4">
+        <v>45061</v>
+      </c>
       <c r="I127" s="3" t="s">
-        <v>89</v>
+        <v>161</v>
       </c>
       <c r="J127" s="1"/>
       <c r="K127" s="1"/>
       <c r="L127" s="5" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="M127" s="5" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="N127" s="5" t="s">
-        <v>713</v>
+        <v>136</v>
       </c>
       <c r="O127" s="5" t="s">
-        <v>714</v>
+        <v>461</v>
       </c>
       <c r="P127" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q127" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="R127" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="S127" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="T127" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="Q127" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="R127" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="S127" s="5" t="s">
+      <c r="U127" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="V127" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="T127" s="5" t="s">
+      <c r="W127" s="5" t="s">
         <v>72</v>
-      </c>
-      <c r="U127" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="V127" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="W127" s="5" t="s">
-        <v>76</v>
       </c>
       <c r="X127" s="5" t="s">
         <v>102</v>
@@ -16500,48 +16475,46 @@
         <v>81</v>
       </c>
       <c r="Z127" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AA127" s="5" t="s">
-        <v>82</v>
+        <v>138</v>
       </c>
       <c r="AB127" s="5" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="AC127" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD127" s="1"/>
+        <v>143</v>
+      </c>
+      <c r="AD127" s="3" t="s">
+        <v>712</v>
+      </c>
       <c r="AE127" s="5" t="s">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="AF127" s="5" t="s">
-        <v>98</v>
+        <v>147</v>
       </c>
       <c r="AG127" s="5" t="s">
-        <v>264</v>
+        <v>188</v>
       </c>
       <c r="AH127" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="AI127" s="5" t="s">
-        <v>511</v>
-      </c>
-      <c r="AJ127" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="AK127" s="5" t="s">
-        <v>72</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="AI127" s="1"/>
+      <c r="AJ127" s="1"/>
+      <c r="AK127" s="1"/>
       <c r="AL127" s="1"/>
-      <c r="AM127" s="1"/>
+      <c r="AM127" s="3" t="s">
+        <v>635</v>
+      </c>
     </row>
     <row r="128" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="C128" s="1"/>
       <c r="D128" s="12" t="s">
@@ -16552,35 +16525,31 @@
       <c r="G128" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="H128" s="4">
-        <v>45061</v>
-      </c>
+      <c r="H128" s="1"/>
       <c r="I128" s="3" t="s">
-        <v>161</v>
+        <v>89</v>
       </c>
       <c r="J128" s="1"/>
       <c r="K128" s="1"/>
       <c r="L128" s="5" t="s">
-        <v>717</v>
+        <v>211</v>
       </c>
       <c r="M128" s="5" t="s">
         <v>91</v>
       </c>
       <c r="N128" s="5" t="s">
-        <v>136</v>
+        <v>715</v>
       </c>
       <c r="O128" s="5" t="s">
-        <v>461</v>
+        <v>716</v>
       </c>
       <c r="P128" s="5" t="s">
-        <v>143</v>
+        <v>96</v>
       </c>
       <c r="Q128" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="R128" s="5" t="s">
-        <v>84</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="R128" s="1"/>
       <c r="S128" s="5" t="s">
         <v>72</v>
       </c>
@@ -16588,61 +16557,53 @@
         <v>101</v>
       </c>
       <c r="U128" s="5" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="V128" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="W128" s="5" t="s">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="X128" s="5" t="s">
-        <v>102</v>
+        <v>128</v>
       </c>
       <c r="Y128" s="3" t="s">
         <v>81</v>
       </c>
       <c r="Z128" s="5" t="s">
-        <v>113</v>
+        <v>138</v>
       </c>
       <c r="AA128" s="5" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="AB128" s="5" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="AC128" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="AD128" s="3" t="s">
-        <v>718</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="AD128" s="1"/>
       <c r="AE128" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AF128" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="AG128" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="AH128" s="5" t="s">
-        <v>121</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="AG128" s="1"/>
+      <c r="AH128" s="1"/>
       <c r="AI128" s="1"/>
       <c r="AJ128" s="1"/>
       <c r="AK128" s="1"/>
       <c r="AL128" s="1"/>
-      <c r="AM128" s="3" t="s">
-        <v>641</v>
-      </c>
+      <c r="AM128" s="1"/>
     </row>
     <row r="129" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C129" s="1"/>
       <c r="D129" s="12" t="s">
@@ -16655,70 +16616,76 @@
       </c>
       <c r="H129" s="1"/>
       <c r="I129" s="3" t="s">
-        <v>89</v>
+        <v>216</v>
       </c>
       <c r="J129" s="1"/>
       <c r="K129" s="1"/>
       <c r="L129" s="5" t="s">
-        <v>211</v>
+        <v>104</v>
       </c>
       <c r="M129" s="5" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="N129" s="5" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="O129" s="5" t="s">
-        <v>722</v>
+        <v>539</v>
       </c>
       <c r="P129" s="5" t="s">
-        <v>96</v>
+        <v>147</v>
       </c>
       <c r="Q129" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="R129" s="1"/>
+        <v>220</v>
+      </c>
+      <c r="R129" s="5" t="s">
+        <v>76</v>
+      </c>
       <c r="S129" s="5" t="s">
-        <v>72</v>
+        <v>128</v>
       </c>
       <c r="T129" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="U129" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="V129" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="W129" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="V129" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="W129" s="5" t="s">
-        <v>109</v>
-      </c>
       <c r="X129" s="5" t="s">
-        <v>128</v>
+        <v>220</v>
       </c>
       <c r="Y129" s="3" t="s">
         <v>81</v>
       </c>
       <c r="Z129" s="5" t="s">
-        <v>138</v>
+        <v>264</v>
       </c>
       <c r="AA129" s="5" t="s">
-        <v>151</v>
+        <v>110</v>
       </c>
       <c r="AB129" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AC129" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="AD129" s="1"/>
+        <v>75</v>
+      </c>
+      <c r="AD129" s="3" t="s">
+        <v>562</v>
+      </c>
       <c r="AE129" s="5" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="AF129" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="AG129" s="1"/>
+        <v>220</v>
+      </c>
+      <c r="AG129" s="5" t="s">
+        <v>74</v>
+      </c>
       <c r="AH129" s="1"/>
       <c r="AI129" s="1"/>
       <c r="AJ129" s="1"/>
@@ -16728,10 +16695,10 @@
     </row>
     <row r="130" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="C130" s="1"/>
       <c r="D130" s="12" t="s">
@@ -16749,70 +16716,66 @@
       <c r="J130" s="1"/>
       <c r="K130" s="1"/>
       <c r="L130" s="5" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="M130" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="N130" s="5" t="s">
+        <v>722</v>
+      </c>
+      <c r="O130" s="5" t="s">
+        <v>723</v>
+      </c>
+      <c r="P130" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="N130" s="5" t="s">
-        <v>725</v>
-      </c>
-      <c r="O130" s="5" t="s">
-        <v>545</v>
-      </c>
-      <c r="P130" s="5" t="s">
+      <c r="Q130" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="R130" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="S130" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="Q130" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="R130" s="5" t="s">
+      <c r="T130" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="U130" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="V130" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="W130" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="X130" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y130" s="1"/>
+      <c r="Z130" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA130" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="AB130" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="AC130" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="S130" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="T130" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="U130" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="V130" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="W130" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="X130" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="Y130" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z130" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="AA130" s="5" t="s">
+      <c r="AD130" s="1"/>
+      <c r="AE130" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="AF130" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG130" s="5" t="s">
         <v>110</v>
-      </c>
-      <c r="AB130" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="AC130" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="AD130" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="AE130" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="AF130" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="AG130" s="5" t="s">
-        <v>74</v>
       </c>
       <c r="AH130" s="1"/>
       <c r="AI130" s="1"/>
@@ -16823,46 +16786,46 @@
     </row>
     <row r="131" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C131" s="1"/>
-      <c r="D131" s="12" t="s">
-        <v>160</v>
-      </c>
+      <c r="D131" s="13"/>
       <c r="E131" s="1"/>
       <c r="F131" s="1"/>
-      <c r="G131" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="H131" s="1"/>
+      <c r="G131" s="1"/>
+      <c r="H131" s="4">
+        <v>45068</v>
+      </c>
       <c r="I131" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="J131" s="1"/>
+        <v>552</v>
+      </c>
+      <c r="J131" s="3" t="s">
+        <v>726</v>
+      </c>
       <c r="K131" s="1"/>
       <c r="L131" s="5" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="M131" s="5" t="s">
         <v>75</v>
       </c>
       <c r="N131" s="5" t="s">
-        <v>728</v>
+        <v>380</v>
       </c>
       <c r="O131" s="5" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="P131" s="5" t="s">
         <v>73</v>
       </c>
       <c r="Q131" s="5" t="s">
-        <v>128</v>
+        <v>80</v>
       </c>
       <c r="R131" s="5" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="S131" s="5" t="s">
         <v>147</v>
@@ -16871,36 +16834,40 @@
         <v>73</v>
       </c>
       <c r="U131" s="5" t="s">
-        <v>380</v>
+        <v>221</v>
       </c>
       <c r="V131" s="5" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="W131" s="5" t="s">
         <v>98</v>
       </c>
       <c r="X131" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y131" s="1"/>
+        <v>77</v>
+      </c>
+      <c r="Y131" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="Z131" s="5" t="s">
-        <v>151</v>
+        <v>490</v>
       </c>
       <c r="AA131" s="5" t="s">
         <v>175</v>
       </c>
       <c r="AB131" s="5" t="s">
-        <v>183</v>
+        <v>74</v>
       </c>
       <c r="AC131" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="AD131" s="1"/>
+      <c r="AD131" s="5" t="s">
+        <v>75</v>
+      </c>
       <c r="AE131" s="5" t="s">
         <v>147</v>
       </c>
       <c r="AF131" s="5" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="AG131" s="5" t="s">
         <v>110</v>
@@ -16910,202 +16877,202 @@
       <c r="AJ131" s="1"/>
       <c r="AK131" s="1"/>
       <c r="AL131" s="1"/>
-      <c r="AM131" s="1"/>
+      <c r="AM131" s="3" t="s">
+        <v>635</v>
+      </c>
     </row>
     <row r="132" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="C132" s="1"/>
-      <c r="D132" s="13"/>
+      <c r="D132" s="12" t="s">
+        <v>160</v>
+      </c>
       <c r="E132" s="1"/>
       <c r="F132" s="1"/>
-      <c r="G132" s="1"/>
-      <c r="H132" s="4">
-        <v>45068</v>
-      </c>
+      <c r="G132" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="H132" s="1"/>
       <c r="I132" s="3" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="J132" s="3" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="K132" s="1"/>
       <c r="L132" s="5" t="s">
-        <v>139</v>
+        <v>74</v>
       </c>
       <c r="M132" s="5" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="N132" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="O132" s="5" t="s">
+        <v>730</v>
+      </c>
+      <c r="P132" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q132" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="R132" s="1"/>
+      <c r="S132" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="T132" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="U132" s="1"/>
+      <c r="V132" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="O132" s="5" t="s">
-        <v>733</v>
-      </c>
-      <c r="P132" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q132" s="5" t="s">
+      <c r="W132" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="R132" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="S132" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="T132" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="U132" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="V132" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="W132" s="5" t="s">
-        <v>98</v>
-      </c>
       <c r="X132" s="5" t="s">
-        <v>77</v>
+        <v>380</v>
       </c>
       <c r="Y132" s="3" t="s">
         <v>81</v>
       </c>
       <c r="Z132" s="5" t="s">
-        <v>490</v>
+        <v>91</v>
       </c>
       <c r="AA132" s="5" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="AB132" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AC132" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="AD132" s="5" t="s">
-        <v>75</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="AD132" s="1"/>
       <c r="AE132" s="5" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="AF132" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="AG132" s="5" t="s">
-        <v>110</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="AG132" s="1"/>
       <c r="AH132" s="1"/>
       <c r="AI132" s="1"/>
       <c r="AJ132" s="1"/>
       <c r="AK132" s="1"/>
       <c r="AL132" s="1"/>
       <c r="AM132" s="3" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
     </row>
     <row r="133" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A133" s="3" t="s">
-        <v>734</v>
+      <c r="A133" s="5" t="s">
+        <v>731</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="C133" s="1"/>
-      <c r="D133" s="12" t="s">
-        <v>160</v>
-      </c>
+      <c r="D133" s="13"/>
       <c r="E133" s="1"/>
       <c r="F133" s="1"/>
-      <c r="G133" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="H133" s="1"/>
+      <c r="G133" s="1"/>
+      <c r="H133" s="4">
+        <v>45081</v>
+      </c>
       <c r="I133" s="3" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="J133" s="3" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="K133" s="1"/>
       <c r="L133" s="5" t="s">
-        <v>74</v>
+        <v>121</v>
       </c>
       <c r="M133" s="5" t="s">
-        <v>97</v>
+        <v>147</v>
       </c>
       <c r="N133" s="5" t="s">
-        <v>561</v>
+        <v>128</v>
       </c>
       <c r="O133" s="5" t="s">
-        <v>736</v>
+        <v>218</v>
       </c>
       <c r="P133" s="5" t="s">
-        <v>98</v>
+        <v>147</v>
       </c>
       <c r="Q133" s="5" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="R133" s="1"/>
       <c r="S133" s="5" t="s">
-        <v>220</v>
+        <v>80</v>
       </c>
       <c r="T133" s="5" t="s">
-        <v>220</v>
+        <v>98</v>
       </c>
       <c r="U133" s="1"/>
       <c r="V133" s="5" t="s">
-        <v>380</v>
+        <v>80</v>
       </c>
       <c r="W133" s="5" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="X133" s="5" t="s">
-        <v>380</v>
+        <v>220</v>
       </c>
       <c r="Y133" s="3" t="s">
         <v>81</v>
       </c>
       <c r="Z133" s="5" t="s">
-        <v>91</v>
+        <v>148</v>
       </c>
       <c r="AA133" s="5" t="s">
-        <v>163</v>
+        <v>121</v>
       </c>
       <c r="AB133" s="5" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="AC133" s="5" t="s">
-        <v>147</v>
+        <v>79</v>
       </c>
       <c r="AD133" s="1"/>
       <c r="AE133" s="5" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="AF133" s="5" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AG133" s="1"/>
       <c r="AH133" s="1"/>
-      <c r="AI133" s="1"/>
-      <c r="AJ133" s="1"/>
-      <c r="AK133" s="1"/>
+      <c r="AI133" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="AJ133" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK133" s="5" t="s">
+        <v>380</v>
+      </c>
       <c r="AL133" s="1"/>
       <c r="AM133" s="3" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
     </row>
     <row r="134" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A134" s="5" t="s">
-        <v>737</v>
+      <c r="A134" s="3" t="s">
+        <v>734</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="C134" s="1"/>
       <c r="D134" s="13"/>
@@ -17116,91 +17083,89 @@
         <v>45081</v>
       </c>
       <c r="I134" s="3" t="s">
-        <v>558</v>
-      </c>
-      <c r="J134" s="3" t="s">
-        <v>739</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="J134" s="1"/>
       <c r="K134" s="1"/>
       <c r="L134" s="5" t="s">
-        <v>121</v>
+        <v>155</v>
       </c>
       <c r="M134" s="5" t="s">
-        <v>147</v>
+        <v>91</v>
       </c>
       <c r="N134" s="5" t="s">
-        <v>128</v>
+        <v>280</v>
       </c>
       <c r="O134" s="5" t="s">
-        <v>218</v>
+        <v>736</v>
       </c>
       <c r="P134" s="5" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="Q134" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="R134" s="1"/>
+        <v>95</v>
+      </c>
+      <c r="R134" s="5" t="s">
+        <v>110</v>
+      </c>
       <c r="S134" s="5" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="T134" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="U134" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="V134" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="W134" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="X134" s="5" t="s">
         <v>98</v>
-      </c>
-      <c r="U134" s="1"/>
-      <c r="V134" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="W134" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="X134" s="5" t="s">
-        <v>220</v>
       </c>
       <c r="Y134" s="3" t="s">
         <v>81</v>
       </c>
       <c r="Z134" s="5" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="AA134" s="5" t="s">
-        <v>121</v>
+        <v>417</v>
       </c>
       <c r="AB134" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC134" s="5" t="s">
         <v>69</v>
-      </c>
-      <c r="AC134" s="5" t="s">
-        <v>79</v>
       </c>
       <c r="AD134" s="1"/>
       <c r="AE134" s="5" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="AF134" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="AG134" s="1"/>
+        <v>102</v>
+      </c>
+      <c r="AG134" s="5" t="s">
+        <v>168</v>
+      </c>
       <c r="AH134" s="1"/>
-      <c r="AI134" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="AJ134" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="AK134" s="5" t="s">
-        <v>380</v>
-      </c>
+      <c r="AI134" s="1"/>
+      <c r="AJ134" s="1"/>
+      <c r="AK134" s="1"/>
       <c r="AL134" s="1"/>
       <c r="AM134" s="3" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
     </row>
     <row r="135" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="C135" s="1"/>
       <c r="D135" s="13"/>
@@ -17211,73 +17176,73 @@
         <v>45081</v>
       </c>
       <c r="I135" s="3" t="s">
-        <v>89</v>
+        <v>552</v>
       </c>
       <c r="J135" s="1"/>
       <c r="K135" s="1"/>
       <c r="L135" s="5" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="M135" s="5" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="N135" s="5" t="s">
-        <v>280</v>
+        <v>739</v>
       </c>
       <c r="O135" s="5" t="s">
-        <v>742</v>
+        <v>727</v>
       </c>
       <c r="P135" s="5" t="s">
-        <v>143</v>
+        <v>78</v>
       </c>
       <c r="Q135" s="5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="R135" s="5" t="s">
-        <v>110</v>
+        <v>72</v>
       </c>
       <c r="S135" s="5" t="s">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="T135" s="5" t="s">
-        <v>101</v>
+        <v>147</v>
       </c>
       <c r="U135" s="3" t="s">
-        <v>111</v>
+        <v>740</v>
       </c>
       <c r="V135" s="5" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="W135" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="X135" s="5" t="s">
-        <v>98</v>
+        <v>128</v>
+      </c>
+      <c r="X135" s="3" t="s">
+        <v>433</v>
       </c>
       <c r="Y135" s="3" t="s">
         <v>81</v>
       </c>
       <c r="Z135" s="5" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="AA135" s="5" t="s">
-        <v>417</v>
+        <v>121</v>
       </c>
       <c r="AB135" s="5" t="s">
-        <v>114</v>
+        <v>74</v>
       </c>
       <c r="AC135" s="5" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="AD135" s="1"/>
       <c r="AE135" s="5" t="s">
-        <v>76</v>
+        <v>147</v>
       </c>
       <c r="AF135" s="5" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="AG135" s="5" t="s">
-        <v>168</v>
+        <v>110</v>
       </c>
       <c r="AH135" s="1"/>
       <c r="AI135" s="1"/>
@@ -17285,92 +17250,98 @@
       <c r="AK135" s="1"/>
       <c r="AL135" s="1"/>
       <c r="AM135" s="3" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
     </row>
     <row r="136" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="C136" s="1"/>
-      <c r="D136" s="13"/>
+      <c r="D136" s="12" t="s">
+        <v>160</v>
+      </c>
       <c r="E136" s="1"/>
       <c r="F136" s="1"/>
-      <c r="G136" s="1"/>
+      <c r="G136" s="3" t="s">
+        <v>106</v>
+      </c>
       <c r="H136" s="4">
-        <v>45081</v>
+        <v>45145</v>
       </c>
       <c r="I136" s="3" t="s">
-        <v>558</v>
+        <v>89</v>
       </c>
       <c r="J136" s="1"/>
       <c r="K136" s="1"/>
       <c r="L136" s="5" t="s">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="M136" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="N136" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="O136" s="5" t="s">
+        <v>672</v>
+      </c>
+      <c r="P136" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q136" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="N136" s="5" t="s">
-        <v>745</v>
-      </c>
-      <c r="O136" s="5" t="s">
-        <v>733</v>
-      </c>
-      <c r="P136" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q136" s="5" t="s">
-        <v>97</v>
-      </c>
       <c r="R136" s="5" t="s">
-        <v>72</v>
+        <v>183</v>
       </c>
       <c r="S136" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="T136" s="5" t="s">
-        <v>147</v>
+        <v>95</v>
       </c>
       <c r="U136" s="3" t="s">
-        <v>746</v>
+        <v>111</v>
       </c>
       <c r="V136" s="5" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="W136" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="X136" s="5" t="s">
         <v>128</v>
-      </c>
-      <c r="X136" s="3" t="s">
-        <v>433</v>
       </c>
       <c r="Y136" s="3" t="s">
         <v>81</v>
       </c>
       <c r="Z136" s="5" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="AA136" s="5" t="s">
-        <v>121</v>
+        <v>528</v>
       </c>
       <c r="AB136" s="5" t="s">
-        <v>74</v>
+        <v>139</v>
       </c>
       <c r="AC136" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="AD136" s="1"/>
+        <v>94</v>
+      </c>
+      <c r="AD136" s="5" t="s">
+        <v>72</v>
+      </c>
       <c r="AE136" s="5" t="s">
-        <v>147</v>
+        <v>75</v>
       </c>
       <c r="AF136" s="5" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AG136" s="5" t="s">
-        <v>110</v>
+        <v>168</v>
       </c>
       <c r="AH136" s="1"/>
       <c r="AI136" s="1"/>
@@ -17378,15 +17349,15 @@
       <c r="AK136" s="1"/>
       <c r="AL136" s="1"/>
       <c r="AM136" s="3" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
     </row>
     <row r="137" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="C137" s="1"/>
       <c r="D137" s="12" t="s">
@@ -17406,40 +17377,40 @@
       <c r="J137" s="1"/>
       <c r="K137" s="1"/>
       <c r="L137" s="5" t="s">
-        <v>82</v>
+        <v>745</v>
       </c>
       <c r="M137" s="5" t="s">
-        <v>69</v>
+        <v>143</v>
       </c>
       <c r="N137" s="5" t="s">
-        <v>164</v>
+        <v>354</v>
       </c>
       <c r="O137" s="5" t="s">
-        <v>678</v>
+        <v>746</v>
       </c>
       <c r="P137" s="5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q137" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="R137" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="S137" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="T137" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="U137" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="V137" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="W137" s="5" t="s">
         <v>75</v>
-      </c>
-      <c r="R137" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="S137" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="T137" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="U137" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="V137" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="W137" s="5" t="s">
-        <v>109</v>
       </c>
       <c r="X137" s="5" t="s">
         <v>128</v>
@@ -17448,28 +17419,28 @@
         <v>81</v>
       </c>
       <c r="Z137" s="5" t="s">
-        <v>155</v>
+        <v>356</v>
       </c>
       <c r="AA137" s="5" t="s">
-        <v>534</v>
+        <v>270</v>
       </c>
       <c r="AB137" s="5" t="s">
-        <v>139</v>
+        <v>234</v>
       </c>
       <c r="AC137" s="5" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="AD137" s="5" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="AE137" s="5" t="s">
         <v>75</v>
       </c>
       <c r="AF137" s="5" t="s">
-        <v>98</v>
+        <v>128</v>
       </c>
       <c r="AG137" s="5" t="s">
-        <v>168</v>
+        <v>139</v>
       </c>
       <c r="AH137" s="1"/>
       <c r="AI137" s="1"/>
@@ -17477,53 +17448,51 @@
       <c r="AK137" s="1"/>
       <c r="AL137" s="1"/>
       <c r="AM137" s="3" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
     </row>
     <row r="138" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
+        <v>747</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>748</v>
+      </c>
+      <c r="C138" s="1"/>
+      <c r="D138" s="11"/>
+      <c r="E138" s="1"/>
+      <c r="F138" s="3" t="s">
         <v>749</v>
       </c>
-      <c r="B138" s="3" t="s">
-        <v>750</v>
-      </c>
-      <c r="C138" s="1"/>
-      <c r="D138" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="E138" s="1"/>
-      <c r="F138" s="1"/>
       <c r="G138" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="H138" s="4">
-        <v>45145</v>
-      </c>
+      <c r="H138" s="1"/>
       <c r="I138" s="3" t="s">
         <v>89</v>
       </c>
       <c r="J138" s="1"/>
       <c r="K138" s="1"/>
       <c r="L138" s="5" t="s">
-        <v>751</v>
+        <v>130</v>
       </c>
       <c r="M138" s="5" t="s">
-        <v>143</v>
+        <v>69</v>
       </c>
       <c r="N138" s="5" t="s">
-        <v>354</v>
+        <v>156</v>
       </c>
       <c r="O138" s="5" t="s">
-        <v>752</v>
+        <v>275</v>
       </c>
       <c r="P138" s="5" t="s">
         <v>96</v>
       </c>
       <c r="Q138" s="5" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="R138" s="5" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="S138" s="5" t="s">
         <v>76</v>
@@ -17538,22 +17507,20 @@
         <v>73</v>
       </c>
       <c r="W138" s="5" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="X138" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="Y138" s="3" t="s">
-        <v>81</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="Y138" s="1"/>
       <c r="Z138" s="5" t="s">
-        <v>356</v>
+        <v>167</v>
       </c>
       <c r="AA138" s="5" t="s">
         <v>270</v>
       </c>
       <c r="AB138" s="5" t="s">
-        <v>234</v>
+        <v>175</v>
       </c>
       <c r="AC138" s="5" t="s">
         <v>101</v>
@@ -17565,114 +17532,19 @@
         <v>75</v>
       </c>
       <c r="AF138" s="5" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="AG138" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="AH138" s="1"/>
+        <v>131</v>
+      </c>
+      <c r="AH138" s="5" t="s">
+        <v>110</v>
+      </c>
       <c r="AI138" s="1"/>
       <c r="AJ138" s="1"/>
       <c r="AK138" s="1"/>
       <c r="AL138" s="1"/>
-      <c r="AM138" s="3" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="139" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A139" s="3" t="s">
-        <v>753</v>
-      </c>
-      <c r="B139" s="3" t="s">
-        <v>754</v>
-      </c>
-      <c r="C139" s="1"/>
-      <c r="D139" s="11"/>
-      <c r="E139" s="1"/>
-      <c r="F139" s="3" t="s">
-        <v>755</v>
-      </c>
-      <c r="G139" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="H139" s="1"/>
-      <c r="I139" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="J139" s="1"/>
-      <c r="K139" s="1"/>
-      <c r="L139" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="M139" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="N139" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="O139" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="P139" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q139" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="R139" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="S139" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="T139" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="U139" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="V139" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="W139" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="X139" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y139" s="1"/>
-      <c r="Z139" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="AA139" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="AB139" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="AC139" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="AD139" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="AE139" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="AF139" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="AG139" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="AH139" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="AI139" s="1"/>
-      <c r="AJ139" s="1"/>
-      <c r="AK139" s="1"/>
-      <c r="AL139" s="1"/>
-      <c r="AM139" s="1"/>
+      <c r="AM138" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/client_measurement.xlsx
+++ b/client_measurement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neeyee Clothier\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F264BF68-B814-4AFA-9E55-B27EAE8E1CA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D0A82B9-E915-4F24-98AC-2752C7ECD059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{EC0E5991-954D-4A3E-B492-28ED6022059E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3432" uniqueCount="761">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3410" uniqueCount="753">
   <si>
     <t>Client_ID</t>
   </si>
@@ -1846,30 +1846,9 @@
     <t>24/22/26</t>
   </si>
   <si>
-    <t>7ed384a5</t>
-  </si>
-  <si>
-    <t>Mrs Evelyn</t>
-  </si>
-  <si>
     <t>Female</t>
   </si>
   <si>
-    <t>25.5/32</t>
-  </si>
-  <si>
-    <t>39/34/41   @   (10/17/25)</t>
-  </si>
-  <si>
-    <t>14.5     but the office shirt 16</t>
-  </si>
-  <si>
-    <t>14 or 16.5</t>
-  </si>
-  <si>
-    <t>28 also the HIP is 41</t>
-  </si>
-  <si>
     <t>e2a58312</t>
   </si>
   <si>
@@ -2291,9 +2270,6 @@
   </si>
   <si>
     <t>+2347031057733</t>
-  </si>
-  <si>
-    <t>+2348148011194</t>
   </si>
   <si>
     <t>+2348037023871</t>
@@ -2709,10 +2685,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31B7A7FE-77BD-4A40-BBD2-BFE1DE08F7D8}">
-  <dimension ref="A1:BL138"/>
+  <dimension ref="A1:BL137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A113" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A84" sqref="A84:XFD84"/>
+    <sheetView tabSelected="1" topLeftCell="A101" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A103" sqref="A103:XFD103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3277,7 +3253,7 @@
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="15" t="s">
-        <v>750</v>
+        <v>743</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -5430,7 +5406,7 @@
         <v>121</v>
       </c>
       <c r="AC25" s="2" t="s">
-        <v>760</v>
+        <v>752</v>
       </c>
       <c r="AD25" s="2"/>
       <c r="AE25" s="2" t="s">
@@ -12579,7 +12555,7 @@
       </c>
       <c r="C91" s="2"/>
       <c r="D91" s="10" t="s">
-        <v>751</v>
+        <v>744</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
@@ -13389,7 +13365,7 @@
       </c>
       <c r="C98" s="1"/>
       <c r="D98" s="11" t="s">
-        <v>752</v>
+        <v>745</v>
       </c>
       <c r="E98" s="1"/>
       <c r="F98" s="3" t="s">
@@ -13625,7 +13601,7 @@
       </c>
       <c r="C100" s="1"/>
       <c r="D100" s="11" t="s">
-        <v>753</v>
+        <v>746</v>
       </c>
       <c r="E100" s="1"/>
       <c r="F100" s="3" t="s">
@@ -13980,84 +13956,76 @@
     </row>
     <row r="103" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C103" s="1"/>
       <c r="D103" s="11" t="s">
-        <v>754</v>
+        <v>608</v>
       </c>
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
-      <c r="G103" s="3" t="s">
-        <v>607</v>
-      </c>
-      <c r="H103" s="4">
-        <v>44964</v>
-      </c>
+      <c r="G103" s="1"/>
+      <c r="H103" s="1"/>
       <c r="I103" s="3" t="s">
-        <v>66</v>
+        <v>181</v>
       </c>
       <c r="J103" s="1"/>
       <c r="K103" s="1"/>
       <c r="L103" s="5" t="s">
-        <v>608</v>
+        <v>270</v>
       </c>
       <c r="M103" s="5" t="s">
-        <v>76</v>
+        <v>183</v>
       </c>
       <c r="N103" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="O103" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="O103" s="5" t="s">
         <v>609</v>
       </c>
-      <c r="P103" s="3" t="s">
-        <v>610</v>
+      <c r="P103" s="5" t="s">
+        <v>163</v>
       </c>
       <c r="Q103" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R103" s="5" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="S103" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="T103" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="U103" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="V103" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="W103" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="X103" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="T103" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="U103" s="1"/>
-      <c r="V103" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="W103" s="1"/>
-      <c r="X103" s="1"/>
       <c r="Y103" s="1"/>
       <c r="Z103" s="5" t="s">
-        <v>129</v>
+        <v>417</v>
       </c>
       <c r="AA103" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="AB103" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="AC103" s="5" t="s">
-        <v>72</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="AB103" s="1"/>
+      <c r="AC103" s="1"/>
       <c r="AD103" s="1"/>
-      <c r="AE103" s="3" t="s">
-        <v>611</v>
-      </c>
-      <c r="AF103" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="AG103" s="3" t="s">
-        <v>612</v>
-      </c>
+      <c r="AE103" s="1"/>
+      <c r="AF103" s="1"/>
+      <c r="AG103" s="1"/>
       <c r="AH103" s="1"/>
       <c r="AI103" s="1"/>
       <c r="AJ103" s="1"/>
@@ -14092,77 +14060,89 @@
     </row>
     <row r="104" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="C104" s="1"/>
-      <c r="D104" s="11" t="s">
-        <v>615</v>
+      <c r="D104" s="12" t="s">
+        <v>160</v>
       </c>
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
       <c r="I104" s="3" t="s">
-        <v>181</v>
+        <v>89</v>
       </c>
       <c r="J104" s="1"/>
       <c r="K104" s="1"/>
       <c r="L104" s="5" t="s">
-        <v>270</v>
+        <v>107</v>
       </c>
       <c r="M104" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="N104" s="5" t="s">
-        <v>147</v>
+        <v>69</v>
+      </c>
+      <c r="N104" s="3" t="s">
+        <v>321</v>
       </c>
       <c r="O104" s="5" t="s">
-        <v>616</v>
+        <v>322</v>
       </c>
       <c r="P104" s="5" t="s">
-        <v>163</v>
+        <v>101</v>
       </c>
       <c r="Q104" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="R104" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="S104" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="T104" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="R104" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="S104" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="T104" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="U104" s="5" t="s">
-        <v>128</v>
+      <c r="U104" s="3" t="s">
+        <v>111</v>
       </c>
       <c r="V104" s="5" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="W104" s="5" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="X104" s="5" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="Y104" s="1"/>
       <c r="Z104" s="5" t="s">
-        <v>417</v>
+        <v>155</v>
       </c>
       <c r="AA104" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="AB104" s="1"/>
-      <c r="AC104" s="1"/>
-      <c r="AD104" s="1"/>
-      <c r="AE104" s="1"/>
-      <c r="AF104" s="1"/>
+        <v>113</v>
+      </c>
+      <c r="AB104" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC104" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD104" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="AE104" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF104" s="5" t="s">
+        <v>102</v>
+      </c>
       <c r="AG104" s="1"/>
-      <c r="AH104" s="1"/>
+      <c r="AH104" s="5" t="s">
+        <v>110</v>
+      </c>
       <c r="AI104" s="1"/>
       <c r="AJ104" s="1"/>
       <c r="AK104" s="1"/>
@@ -14196,50 +14176,52 @@
     </row>
     <row r="105" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="C105" s="1"/>
-      <c r="D105" s="12" t="s">
-        <v>160</v>
+      <c r="D105" s="11" t="s">
+        <v>747</v>
       </c>
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
-      <c r="G105" s="1"/>
+      <c r="G105" s="3" t="s">
+        <v>106</v>
+      </c>
       <c r="H105" s="1"/>
       <c r="I105" s="3" t="s">
-        <v>89</v>
+        <v>161</v>
       </c>
       <c r="J105" s="1"/>
       <c r="K105" s="1"/>
       <c r="L105" s="5" t="s">
-        <v>107</v>
+        <v>162</v>
       </c>
       <c r="M105" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="N105" s="5" t="s">
+        <v>614</v>
+      </c>
+      <c r="O105" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="P105" s="5" t="s">
         <v>69</v>
-      </c>
-      <c r="N105" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="O105" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="P105" s="5" t="s">
-        <v>101</v>
       </c>
       <c r="Q105" s="5" t="s">
         <v>109</v>
       </c>
       <c r="R105" s="5" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="S105" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="T105" s="5" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="U105" s="3" t="s">
         <v>111</v>
@@ -14248,17 +14230,17 @@
         <v>75</v>
       </c>
       <c r="W105" s="5" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="X105" s="5" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="Y105" s="1"/>
       <c r="Z105" s="5" t="s">
-        <v>155</v>
+        <v>373</v>
       </c>
       <c r="AA105" s="5" t="s">
-        <v>113</v>
+        <v>138</v>
       </c>
       <c r="AB105" s="5" t="s">
         <v>131</v>
@@ -14267,185 +14249,189 @@
         <v>69</v>
       </c>
       <c r="AD105" s="3" t="s">
-        <v>323</v>
+        <v>615</v>
       </c>
       <c r="AE105" s="5" t="s">
         <v>76</v>
       </c>
       <c r="AF105" s="5" t="s">
-        <v>102</v>
+        <v>147</v>
       </c>
       <c r="AG105" s="1"/>
       <c r="AH105" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="AI105" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="AJ105" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="AI105" s="1"/>
-      <c r="AJ105" s="1"/>
-      <c r="AK105" s="1"/>
-      <c r="AL105" s="1"/>
-      <c r="AM105" s="1"/>
-      <c r="AN105" s="1"/>
-      <c r="AO105" s="1"/>
-      <c r="AP105" s="1"/>
-      <c r="AQ105" s="1"/>
-      <c r="AR105" s="1"/>
-      <c r="AS105" s="1"/>
-      <c r="AT105" s="1"/>
-      <c r="AU105" s="1"/>
-      <c r="AV105" s="1"/>
-      <c r="AW105" s="1"/>
-      <c r="AX105" s="1"/>
-      <c r="AY105" s="1"/>
-      <c r="AZ105" s="1"/>
-      <c r="BA105" s="1"/>
-      <c r="BB105" s="1"/>
-      <c r="BC105" s="1"/>
-      <c r="BD105" s="1"/>
-      <c r="BE105" s="1"/>
-      <c r="BF105" s="1"/>
-      <c r="BG105" s="1"/>
-      <c r="BH105" s="1"/>
-      <c r="BI105" s="1"/>
-      <c r="BJ105" s="1"/>
-      <c r="BK105" s="1"/>
-      <c r="BL105" s="1"/>
+      <c r="AK105" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL105" s="3"/>
+      <c r="AM105" s="3"/>
+      <c r="AN105" s="3"/>
+      <c r="AO105" s="3"/>
+      <c r="AP105" s="3"/>
+      <c r="AQ105" s="3"/>
+      <c r="AR105" s="3"/>
+      <c r="AS105" s="3"/>
+      <c r="AT105" s="3"/>
+      <c r="AU105" s="3"/>
+      <c r="AV105" s="3"/>
+      <c r="AW105" s="3"/>
+      <c r="AX105" s="3"/>
+      <c r="AY105" s="3"/>
+      <c r="AZ105" s="3"/>
+      <c r="BA105" s="3"/>
+      <c r="BB105" s="3"/>
+      <c r="BC105" s="3"/>
+      <c r="BD105" s="3"/>
+      <c r="BE105" s="3"/>
+      <c r="BF105" s="3"/>
+      <c r="BG105" s="3"/>
+      <c r="BH105" s="3"/>
+      <c r="BI105" s="3"/>
+      <c r="BJ105" s="3"/>
+      <c r="BK105" s="3"/>
+      <c r="BL105" s="3"/>
     </row>
     <row r="106" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>620</v>
-      </c>
-      <c r="C106" s="1"/>
-      <c r="D106" s="11" t="s">
-        <v>755</v>
+        <v>617</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="D106" s="12" t="s">
+        <v>160</v>
       </c>
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
       <c r="G106" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="H106" s="1"/>
+      <c r="H106" s="4">
+        <v>44973</v>
+      </c>
       <c r="I106" s="3" t="s">
-        <v>161</v>
+        <v>552</v>
       </c>
       <c r="J106" s="1"/>
       <c r="K106" s="1"/>
       <c r="L106" s="5" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="M106" s="5" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="N106" s="5" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="O106" s="5" t="s">
-        <v>108</v>
+        <v>620</v>
       </c>
       <c r="P106" s="5" t="s">
-        <v>69</v>
+        <v>147</v>
       </c>
       <c r="Q106" s="5" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="R106" s="5" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="S106" s="5" t="s">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="T106" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="U106" s="3" t="s">
-        <v>111</v>
+        <v>78</v>
+      </c>
+      <c r="U106" s="5" t="s">
+        <v>221</v>
       </c>
       <c r="V106" s="5" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="W106" s="5" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="X106" s="5" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="Y106" s="1"/>
       <c r="Z106" s="5" t="s">
-        <v>373</v>
+        <v>188</v>
       </c>
       <c r="AA106" s="5" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="AB106" s="5" t="s">
-        <v>131</v>
+        <v>74</v>
       </c>
       <c r="AC106" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD106" s="3" t="s">
-        <v>622</v>
+        <v>109</v>
+      </c>
+      <c r="AD106" s="5" t="s">
+        <v>79</v>
       </c>
       <c r="AE106" s="5" t="s">
-        <v>76</v>
+        <v>147</v>
       </c>
       <c r="AF106" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="AG106" s="1"/>
-      <c r="AH106" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="AI106" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="AJ106" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="AK106" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="AL106" s="3"/>
-      <c r="AM106" s="3"/>
-      <c r="AN106" s="3"/>
-      <c r="AO106" s="3"/>
-      <c r="AP106" s="3"/>
-      <c r="AQ106" s="3"/>
-      <c r="AR106" s="3"/>
-      <c r="AS106" s="3"/>
-      <c r="AT106" s="3"/>
-      <c r="AU106" s="3"/>
-      <c r="AV106" s="3"/>
-      <c r="AW106" s="3"/>
-      <c r="AX106" s="3"/>
-      <c r="AY106" s="3"/>
-      <c r="AZ106" s="3"/>
-      <c r="BA106" s="3"/>
-      <c r="BB106" s="3"/>
-      <c r="BC106" s="3"/>
-      <c r="BD106" s="3"/>
-      <c r="BE106" s="3"/>
-      <c r="BF106" s="3"/>
-      <c r="BG106" s="3"/>
-      <c r="BH106" s="3"/>
-      <c r="BI106" s="3"/>
-      <c r="BJ106" s="3"/>
-      <c r="BK106" s="3"/>
-      <c r="BL106" s="3"/>
+        <v>77</v>
+      </c>
+      <c r="AG106" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="AH106" s="1"/>
+      <c r="AI106" s="1"/>
+      <c r="AJ106" s="1"/>
+      <c r="AK106" s="1"/>
+      <c r="AL106" s="1"/>
+      <c r="AM106" s="1"/>
+      <c r="AN106" s="1"/>
+      <c r="AO106" s="1"/>
+      <c r="AP106" s="1"/>
+      <c r="AQ106" s="1"/>
+      <c r="AR106" s="1"/>
+      <c r="AS106" s="1"/>
+      <c r="AT106" s="1"/>
+      <c r="AU106" s="1"/>
+      <c r="AV106" s="1"/>
+      <c r="AW106" s="1"/>
+      <c r="AX106" s="1"/>
+      <c r="AY106" s="1"/>
+      <c r="AZ106" s="1"/>
+      <c r="BA106" s="1"/>
+      <c r="BB106" s="1"/>
+      <c r="BC106" s="1"/>
+      <c r="BD106" s="1"/>
+      <c r="BE106" s="1"/>
+      <c r="BF106" s="1"/>
+      <c r="BG106" s="1"/>
+      <c r="BH106" s="1"/>
+      <c r="BI106" s="1"/>
+      <c r="BJ106" s="1"/>
+      <c r="BK106" s="1"/>
+      <c r="BL106" s="1"/>
     </row>
     <row r="107" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>625</v>
-      </c>
-      <c r="D107" s="12" t="s">
-        <v>160</v>
+        <v>618</v>
+      </c>
+      <c r="D107" s="11" t="s">
+        <v>748</v>
       </c>
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
@@ -14453,76 +14439,76 @@
         <v>106</v>
       </c>
       <c r="H107" s="4">
-        <v>44973</v>
+        <v>44975</v>
       </c>
       <c r="I107" s="3" t="s">
-        <v>552</v>
+        <v>89</v>
       </c>
       <c r="J107" s="1"/>
       <c r="K107" s="1"/>
       <c r="L107" s="5" t="s">
-        <v>168</v>
+        <v>623</v>
       </c>
       <c r="M107" s="5" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="N107" s="5" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="O107" s="5" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="P107" s="5" t="s">
-        <v>147</v>
+        <v>101</v>
       </c>
       <c r="Q107" s="5" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="R107" s="5" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="S107" s="5" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="T107" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="U107" s="5" t="s">
-        <v>221</v>
+        <v>72</v>
+      </c>
+      <c r="U107" s="3" t="s">
+        <v>544</v>
       </c>
       <c r="V107" s="5" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="W107" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="X107" s="5" t="s">
         <v>98</v>
-      </c>
-      <c r="X107" s="5" t="s">
-        <v>77</v>
       </c>
       <c r="Y107" s="1"/>
       <c r="Z107" s="5" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="AA107" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AB107" s="5" t="s">
-        <v>74</v>
+        <v>148</v>
       </c>
       <c r="AC107" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD107" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE107" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="AD107" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE107" s="5" t="s">
-        <v>147</v>
-      </c>
       <c r="AF107" s="5" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AG107" s="5" t="s">
-        <v>104</v>
+        <v>148</v>
       </c>
       <c r="AH107" s="1"/>
       <c r="AI107" s="1"/>
@@ -14558,108 +14544,84 @@
     </row>
     <row r="108" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>629</v>
-      </c>
-      <c r="C108" s="3" t="s">
-        <v>625</v>
-      </c>
-      <c r="D108" s="11" t="s">
-        <v>756</v>
+        <v>627</v>
+      </c>
+      <c r="C108" s="1"/>
+      <c r="D108" s="12" t="s">
+        <v>160</v>
       </c>
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
       <c r="G108" s="3" t="s">
-        <v>106</v>
+        <v>605</v>
       </c>
       <c r="H108" s="4">
-        <v>44975</v>
+        <v>44977</v>
       </c>
       <c r="I108" s="3" t="s">
         <v>89</v>
       </c>
       <c r="J108" s="1"/>
       <c r="K108" s="1"/>
-      <c r="L108" s="5" t="s">
-        <v>630</v>
-      </c>
-      <c r="M108" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="N108" s="5" t="s">
-        <v>631</v>
-      </c>
-      <c r="O108" s="5" t="s">
-        <v>632</v>
-      </c>
-      <c r="P108" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q108" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="R108" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="S108" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="T108" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="U108" s="3" t="s">
-        <v>544</v>
-      </c>
-      <c r="V108" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="W108" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="X108" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y108" s="1"/>
-      <c r="Z108" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="AA108" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="AB108" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="AC108" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD108" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="AE108" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="AF108" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="AG108" s="5" t="s">
-        <v>148</v>
-      </c>
+      <c r="L108" s="1"/>
+      <c r="M108" s="1"/>
+      <c r="N108" s="1"/>
+      <c r="O108" s="1"/>
+      <c r="P108" s="1"/>
+      <c r="Q108" s="1"/>
+      <c r="R108" s="1"/>
+      <c r="S108" s="1"/>
+      <c r="T108" s="1"/>
+      <c r="U108" s="1"/>
+      <c r="V108" s="1"/>
+      <c r="W108" s="1"/>
+      <c r="X108" s="1"/>
+      <c r="Y108" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z108" s="1"/>
+      <c r="AA108" s="1"/>
+      <c r="AB108" s="1"/>
+      <c r="AC108" s="1"/>
+      <c r="AD108" s="1"/>
+      <c r="AE108" s="1"/>
+      <c r="AF108" s="1"/>
+      <c r="AG108" s="1"/>
       <c r="AH108" s="1"/>
       <c r="AI108" s="1"/>
       <c r="AJ108" s="1"/>
       <c r="AK108" s="1"/>
       <c r="AL108" s="1"/>
-      <c r="AM108" s="1"/>
-      <c r="AN108" s="1"/>
-      <c r="AO108" s="1"/>
-      <c r="AP108" s="1"/>
-      <c r="AQ108" s="1"/>
-      <c r="AR108" s="1"/>
-      <c r="AS108" s="1"/>
-      <c r="AT108" s="1"/>
-      <c r="AU108" s="1"/>
+      <c r="AM108" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="AN108" s="5" t="s">
+        <v>629</v>
+      </c>
+      <c r="AO108" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="AP108" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ108" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="AR108" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="AS108" s="5" t="s">
+        <v>630</v>
+      </c>
+      <c r="AT108" s="5" t="s">
+        <v>631</v>
+      </c>
+      <c r="AU108" s="5" t="s">
+        <v>72</v>
+      </c>
       <c r="AV108" s="1"/>
       <c r="AW108" s="1"/>
       <c r="AX108" s="1"/>
@@ -14680,10 +14642,10 @@
     </row>
     <row r="109" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="B109" s="3" t="s">
         <v>633</v>
-      </c>
-      <c r="B109" s="3" t="s">
-        <v>634</v>
       </c>
       <c r="C109" s="1"/>
       <c r="D109" s="12" t="s">
@@ -14692,72 +14654,96 @@
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
       <c r="G109" s="3" t="s">
-        <v>607</v>
-      </c>
-      <c r="H109" s="4">
-        <v>44977</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="H109" s="1"/>
       <c r="I109" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="J109" s="1"/>
+      <c r="J109" s="3" t="s">
+        <v>238</v>
+      </c>
       <c r="K109" s="1"/>
-      <c r="L109" s="1"/>
-      <c r="M109" s="1"/>
-      <c r="N109" s="1"/>
-      <c r="O109" s="1"/>
-      <c r="P109" s="1"/>
-      <c r="Q109" s="1"/>
-      <c r="R109" s="1"/>
-      <c r="S109" s="1"/>
-      <c r="T109" s="1"/>
-      <c r="U109" s="1"/>
-      <c r="V109" s="1"/>
-      <c r="W109" s="1"/>
-      <c r="X109" s="1"/>
+      <c r="L109" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="M109" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="N109" s="5" t="s">
+        <v>634</v>
+      </c>
+      <c r="O109" s="5" t="s">
+        <v>635</v>
+      </c>
+      <c r="P109" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q109" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="R109" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="S109" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="T109" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="U109" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="V109" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="W109" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="X109" s="5" t="s">
+        <v>98</v>
+      </c>
       <c r="Y109" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="Z109" s="1"/>
-      <c r="AA109" s="1"/>
-      <c r="AB109" s="1"/>
-      <c r="AC109" s="1"/>
-      <c r="AD109" s="1"/>
-      <c r="AE109" s="1"/>
-      <c r="AF109" s="1"/>
-      <c r="AG109" s="1"/>
+      <c r="Z109" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA109" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="AB109" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="AC109" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD109" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="AE109" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF109" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="AG109" s="5" t="s">
+        <v>131</v>
+      </c>
       <c r="AH109" s="1"/>
       <c r="AI109" s="1"/>
       <c r="AJ109" s="1"/>
       <c r="AK109" s="1"/>
       <c r="AL109" s="1"/>
-      <c r="AM109" s="3" t="s">
-        <v>635</v>
-      </c>
-      <c r="AN109" s="5" t="s">
-        <v>636</v>
-      </c>
-      <c r="AO109" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="AP109" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="AQ109" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="AR109" s="5" t="s">
-        <v>356</v>
-      </c>
-      <c r="AS109" s="5" t="s">
-        <v>637</v>
-      </c>
-      <c r="AT109" s="5" t="s">
-        <v>638</v>
-      </c>
-      <c r="AU109" s="5" t="s">
-        <v>72</v>
-      </c>
+      <c r="AM109" s="1"/>
+      <c r="AN109" s="1"/>
+      <c r="AO109" s="1"/>
+      <c r="AP109" s="1"/>
+      <c r="AQ109" s="1"/>
+      <c r="AR109" s="1"/>
+      <c r="AS109" s="1"/>
+      <c r="AT109" s="1"/>
+      <c r="AU109" s="1"/>
       <c r="AV109" s="1"/>
       <c r="AW109" s="1"/>
       <c r="AX109" s="1"/>
@@ -14778,14 +14764,14 @@
     </row>
     <row r="110" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C110" s="1"/>
-      <c r="D110" s="12" t="s">
-        <v>160</v>
+      <c r="D110" s="11" t="s">
+        <v>749</v>
       </c>
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
@@ -14794,11 +14780,9 @@
       </c>
       <c r="H110" s="1"/>
       <c r="I110" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="J110" s="3" t="s">
-        <v>238</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="J110" s="1"/>
       <c r="K110" s="1"/>
       <c r="L110" s="5" t="s">
         <v>253</v>
@@ -14807,107 +14791,88 @@
         <v>69</v>
       </c>
       <c r="N110" s="5" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="O110" s="5" t="s">
-        <v>642</v>
-      </c>
-      <c r="P110" s="3" t="s">
-        <v>259</v>
+        <v>213</v>
+      </c>
+      <c r="P110" s="5" t="s">
+        <v>101</v>
       </c>
       <c r="Q110" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="R110" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="S110" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="T110" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="U110" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="V110" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="R110" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="S110" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="T110" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="U110" s="3" t="s">
-        <v>544</v>
-      </c>
-      <c r="V110" s="5" t="s">
-        <v>79</v>
-      </c>
       <c r="W110" s="5" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="X110" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y110" s="3" t="s">
-        <v>81</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="Y110" s="1"/>
       <c r="Z110" s="5" t="s">
         <v>129</v>
       </c>
       <c r="AA110" s="5" t="s">
-        <v>356</v>
+        <v>129</v>
       </c>
       <c r="AB110" s="5" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="AC110" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="AD110" s="3" t="s">
-        <v>643</v>
+      <c r="AD110" s="5" t="s">
+        <v>96</v>
       </c>
       <c r="AE110" s="5" t="s">
         <v>76</v>
       </c>
       <c r="AF110" s="5" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="AG110" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="AH110" s="1"/>
-      <c r="AI110" s="1"/>
-      <c r="AJ110" s="1"/>
-      <c r="AK110" s="1"/>
+        <v>148</v>
+      </c>
+      <c r="AH110" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="AI110" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="AJ110" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="AK110" s="5" t="s">
+        <v>69</v>
+      </c>
       <c r="AL110" s="1"/>
       <c r="AM110" s="1"/>
-      <c r="AN110" s="1"/>
-      <c r="AO110" s="1"/>
-      <c r="AP110" s="1"/>
-      <c r="AQ110" s="1"/>
-      <c r="AR110" s="1"/>
-      <c r="AS110" s="1"/>
-      <c r="AT110" s="1"/>
-      <c r="AU110" s="1"/>
-      <c r="AV110" s="1"/>
-      <c r="AW110" s="1"/>
-      <c r="AX110" s="1"/>
-      <c r="AY110" s="1"/>
-      <c r="AZ110" s="1"/>
-      <c r="BA110" s="1"/>
-      <c r="BB110" s="1"/>
-      <c r="BC110" s="1"/>
-      <c r="BD110" s="1"/>
-      <c r="BE110" s="1"/>
-      <c r="BF110" s="1"/>
-      <c r="BG110" s="1"/>
-      <c r="BH110" s="1"/>
-      <c r="BI110" s="1"/>
-      <c r="BJ110" s="1"/>
-      <c r="BK110" s="1"/>
-      <c r="BL110" s="1"/>
     </row>
     <row r="111" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="C111" s="1"/>
-      <c r="D111" s="11" t="s">
-        <v>757</v>
+      <c r="D111" s="12" t="s">
+        <v>160</v>
       </c>
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
@@ -14916,95 +14881,89 @@
       </c>
       <c r="H111" s="1"/>
       <c r="I111" s="3" t="s">
-        <v>161</v>
+        <v>89</v>
       </c>
       <c r="J111" s="1"/>
       <c r="K111" s="1"/>
       <c r="L111" s="5" t="s">
-        <v>253</v>
+        <v>155</v>
       </c>
       <c r="M111" s="5" t="s">
         <v>69</v>
       </c>
       <c r="N111" s="5" t="s">
-        <v>646</v>
+        <v>184</v>
       </c>
       <c r="O111" s="5" t="s">
-        <v>213</v>
+        <v>642</v>
       </c>
       <c r="P111" s="5" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="Q111" s="5" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="R111" s="5" t="s">
         <v>104</v>
       </c>
       <c r="S111" s="5" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="T111" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="U111" s="3" t="s">
-        <v>111</v>
+        <v>72</v>
+      </c>
+      <c r="U111" s="5" t="s">
+        <v>97</v>
       </c>
       <c r="V111" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="W111" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="W111" s="5" t="s">
-        <v>95</v>
-      </c>
       <c r="X111" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="Y111" s="1"/>
+        <v>128</v>
+      </c>
+      <c r="Y111" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="Z111" s="5" t="s">
-        <v>129</v>
+        <v>166</v>
       </c>
       <c r="AA111" s="5" t="s">
-        <v>129</v>
+        <v>413</v>
       </c>
       <c r="AB111" s="5" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="AC111" s="5" t="s">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="AD111" s="5" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="AE111" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AF111" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="AG111" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="AH111" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="AI111" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="AJ111" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="AK111" s="5" t="s">
-        <v>69</v>
-      </c>
+      <c r="AH111" s="1"/>
+      <c r="AI111" s="1"/>
+      <c r="AJ111" s="1"/>
+      <c r="AK111" s="1"/>
       <c r="AL111" s="1"/>
       <c r="AM111" s="1"/>
     </row>
     <row r="112" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="C112" s="1"/>
       <c r="D112" s="12" t="s">
@@ -15022,70 +14981,70 @@
       <c r="J112" s="1"/>
       <c r="K112" s="1"/>
       <c r="L112" s="5" t="s">
-        <v>155</v>
+        <v>417</v>
       </c>
       <c r="M112" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="N112" s="5" t="s">
+        <v>645</v>
+      </c>
+      <c r="O112" s="5" t="s">
+        <v>646</v>
+      </c>
+      <c r="P112" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="N112" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="O112" s="5" t="s">
-        <v>649</v>
-      </c>
-      <c r="P112" s="5" t="s">
+      <c r="Q112" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="Q112" s="5" t="s">
-        <v>75</v>
-      </c>
       <c r="R112" s="5" t="s">
-        <v>104</v>
+        <v>234</v>
       </c>
       <c r="S112" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="T112" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="U112" s="5" t="s">
-        <v>97</v>
+        <v>101</v>
+      </c>
+      <c r="U112" s="3" t="s">
+        <v>544</v>
       </c>
       <c r="V112" s="5" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="W112" s="5" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="X112" s="5" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="Y112" s="3" t="s">
         <v>81</v>
       </c>
       <c r="Z112" s="5" t="s">
-        <v>166</v>
+        <v>417</v>
       </c>
       <c r="AA112" s="5" t="s">
-        <v>413</v>
+        <v>187</v>
       </c>
       <c r="AB112" s="5" t="s">
-        <v>100</v>
+        <v>264</v>
       </c>
       <c r="AC112" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="AD112" s="5" t="s">
-        <v>72</v>
+        <v>143</v>
+      </c>
+      <c r="AD112" s="3" t="s">
+        <v>647</v>
       </c>
       <c r="AE112" s="5" t="s">
         <v>75</v>
       </c>
       <c r="AF112" s="5" t="s">
-        <v>98</v>
+        <v>147</v>
       </c>
       <c r="AG112" s="5" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="AH112" s="1"/>
       <c r="AI112" s="1"/>
@@ -15096,10 +15055,10 @@
     </row>
     <row r="113" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C113" s="1"/>
       <c r="D113" s="12" t="s">
@@ -15112,75 +15071,67 @@
       </c>
       <c r="H113" s="1"/>
       <c r="I113" s="3" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="J113" s="1"/>
       <c r="K113" s="1"/>
       <c r="L113" s="5" t="s">
-        <v>417</v>
+        <v>264</v>
       </c>
       <c r="M113" s="5" t="s">
-        <v>163</v>
+        <v>75</v>
       </c>
       <c r="N113" s="5" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="O113" s="5" t="s">
-        <v>653</v>
+        <v>457</v>
       </c>
       <c r="P113" s="5" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="Q113" s="5" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="R113" s="5" t="s">
-        <v>234</v>
+        <v>101</v>
       </c>
       <c r="S113" s="5" t="s">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="T113" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="U113" s="3" t="s">
-        <v>544</v>
-      </c>
-      <c r="V113" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="W113" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="X113" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="U113" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="V113" s="1"/>
+      <c r="W113" s="1"/>
+      <c r="X113" s="1"/>
+      <c r="Y113" s="1"/>
+      <c r="Z113" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA113" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="AB113" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="AC113" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD113" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="AE113" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="Y113" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z113" s="5" t="s">
-        <v>417</v>
-      </c>
-      <c r="AA113" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="AB113" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="AC113" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="AD113" s="3" t="s">
-        <v>654</v>
-      </c>
-      <c r="AE113" s="5" t="s">
-        <v>75</v>
-      </c>
       <c r="AF113" s="5" t="s">
-        <v>147</v>
+        <v>220</v>
       </c>
       <c r="AG113" s="5" t="s">
-        <v>168</v>
+        <v>104</v>
       </c>
       <c r="AH113" s="1"/>
       <c r="AI113" s="1"/>
@@ -15191,12 +15142,14 @@
     </row>
     <row r="114" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>656</v>
-      </c>
-      <c r="C114" s="1"/>
+        <v>653</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>654</v>
+      </c>
       <c r="D114" s="12" t="s">
         <v>160</v>
       </c>
@@ -15207,67 +15160,73 @@
       </c>
       <c r="H114" s="1"/>
       <c r="I114" s="3" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="J114" s="1"/>
       <c r="K114" s="1"/>
       <c r="L114" s="5" t="s">
-        <v>264</v>
+        <v>655</v>
       </c>
       <c r="M114" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="N114" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="O114" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="P114" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q114" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="R114" s="1"/>
+      <c r="S114" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="T114" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="U114" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="V114" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="N114" s="5" t="s">
-        <v>657</v>
-      </c>
-      <c r="O114" s="5" t="s">
-        <v>457</v>
-      </c>
-      <c r="P114" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q114" s="5" t="s">
+      <c r="W114" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="X114" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="R114" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="S114" s="5" t="s">
+      <c r="Y114" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z114" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="AA114" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB114" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="AC114" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD114" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE114" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF114" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="T114" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="U114" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="V114" s="1"/>
-      <c r="W114" s="1"/>
-      <c r="X114" s="1"/>
-      <c r="Y114" s="1"/>
-      <c r="Z114" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="AA114" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="AB114" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="AC114" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="AD114" s="3" t="s">
-        <v>658</v>
-      </c>
-      <c r="AE114" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="AF114" s="5" t="s">
-        <v>220</v>
-      </c>
       <c r="AG114" s="5" t="s">
-        <v>104</v>
+        <v>139</v>
       </c>
       <c r="AH114" s="1"/>
       <c r="AI114" s="1"/>
@@ -15278,14 +15237,12 @@
     </row>
     <row r="115" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>660</v>
-      </c>
-      <c r="C115" s="3" t="s">
-        <v>661</v>
-      </c>
+        <v>657</v>
+      </c>
+      <c r="C115" s="1"/>
       <c r="D115" s="12" t="s">
         <v>160</v>
       </c>
@@ -15301,69 +15258,69 @@
       <c r="J115" s="1"/>
       <c r="K115" s="1"/>
       <c r="L115" s="5" t="s">
-        <v>662</v>
+        <v>130</v>
       </c>
       <c r="M115" s="5" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="N115" s="5" t="s">
-        <v>173</v>
+        <v>239</v>
       </c>
       <c r="O115" s="5" t="s">
-        <v>396</v>
+        <v>658</v>
       </c>
       <c r="P115" s="5" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="Q115" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="R115" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="S115" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="R115" s="1"/>
-      <c r="S115" s="5" t="s">
-        <v>95</v>
-      </c>
       <c r="T115" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="U115" s="3" t="s">
-        <v>544</v>
+        <v>72</v>
+      </c>
+      <c r="U115" s="5" t="s">
+        <v>97</v>
       </c>
       <c r="V115" s="5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="W115" s="5" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="X115" s="5" t="s">
-        <v>98</v>
+        <v>128</v>
       </c>
       <c r="Y115" s="3" t="s">
         <v>81</v>
       </c>
       <c r="Z115" s="5" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="AA115" s="5" t="s">
         <v>130</v>
       </c>
       <c r="AB115" s="5" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="AC115" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="AD115" s="5" t="s">
-        <v>96</v>
+      <c r="AD115" s="3" t="s">
+        <v>241</v>
       </c>
       <c r="AE115" s="5" t="s">
         <v>109</v>
       </c>
       <c r="AF115" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="AG115" s="5" t="s">
-        <v>139</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="AG115" s="1"/>
       <c r="AH115" s="1"/>
       <c r="AI115" s="1"/>
       <c r="AJ115" s="1"/>
@@ -15373,10 +15330,10 @@
     </row>
     <row r="116" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>664</v>
+        <v>171</v>
       </c>
       <c r="C116" s="1"/>
       <c r="D116" s="12" t="s">
@@ -15385,76 +15342,72 @@
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
       <c r="G116" s="3" t="s">
-        <v>106</v>
+        <v>605</v>
       </c>
       <c r="H116" s="1"/>
       <c r="I116" s="3" t="s">
-        <v>89</v>
+        <v>161</v>
       </c>
       <c r="J116" s="1"/>
       <c r="K116" s="1"/>
       <c r="L116" s="5" t="s">
-        <v>130</v>
+        <v>660</v>
       </c>
       <c r="M116" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="N116" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="O116" s="5" t="s">
+        <v>661</v>
+      </c>
+      <c r="P116" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="N116" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="O116" s="5" t="s">
-        <v>665</v>
-      </c>
-      <c r="P116" s="5" t="s">
+      <c r="Q116" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="R116" s="1"/>
+      <c r="S116" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="T116" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="Q116" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="R116" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="S116" s="5" t="s">
+      <c r="U116" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="V116" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="T116" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="U116" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="V116" s="5" t="s">
-        <v>79</v>
-      </c>
       <c r="W116" s="5" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="X116" s="5" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="Y116" s="3" t="s">
         <v>81</v>
       </c>
       <c r="Z116" s="5" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="AA116" s="5" t="s">
-        <v>130</v>
+        <v>177</v>
       </c>
       <c r="AB116" s="5" t="s">
-        <v>131</v>
+        <v>178</v>
       </c>
       <c r="AC116" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD116" s="3" t="s">
-        <v>241</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="AD116" s="1"/>
       <c r="AE116" s="5" t="s">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="AF116" s="5" t="s">
-        <v>98</v>
+        <v>147</v>
       </c>
       <c r="AG116" s="1"/>
       <c r="AH116" s="1"/>
@@ -15466,128 +15419,122 @@
     </row>
     <row r="117" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>171</v>
+        <v>663</v>
       </c>
       <c r="C117" s="1"/>
-      <c r="D117" s="12" t="s">
-        <v>160</v>
+      <c r="D117" s="11" t="s">
+        <v>750</v>
       </c>
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
       <c r="G117" s="3" t="s">
-        <v>607</v>
-      </c>
-      <c r="H117" s="1"/>
+        <v>106</v>
+      </c>
+      <c r="H117" s="4">
+        <v>45023</v>
+      </c>
       <c r="I117" s="3" t="s">
-        <v>161</v>
+        <v>89</v>
       </c>
       <c r="J117" s="1"/>
       <c r="K117" s="1"/>
       <c r="L117" s="5" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="M117" s="5" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="N117" s="5" t="s">
-        <v>450</v>
+        <v>128</v>
       </c>
       <c r="O117" s="5" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="P117" s="5" t="s">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="Q117" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="R117" s="1"/>
+        <v>76</v>
+      </c>
+      <c r="R117" s="5" t="s">
+        <v>104</v>
+      </c>
       <c r="S117" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="T117" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="U117" s="5" t="s">
-        <v>80</v>
+        <v>94</v>
+      </c>
+      <c r="U117" s="3" t="s">
+        <v>544</v>
       </c>
       <c r="V117" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="W117" s="5" t="s">
         <v>95</v>
       </c>
       <c r="X117" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="Y117" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="Z117" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="AA117" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="AB117" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="AC117" s="5" t="s">
-        <v>143</v>
-      </c>
+      <c r="Z117" s="1"/>
+      <c r="AA117" s="1"/>
+      <c r="AB117" s="1"/>
+      <c r="AC117" s="1"/>
       <c r="AD117" s="1"/>
-      <c r="AE117" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="AF117" s="5" t="s">
-        <v>147</v>
-      </c>
+      <c r="AE117" s="1"/>
+      <c r="AF117" s="1"/>
       <c r="AG117" s="1"/>
       <c r="AH117" s="1"/>
       <c r="AI117" s="1"/>
       <c r="AJ117" s="1"/>
       <c r="AK117" s="1"/>
       <c r="AL117" s="1"/>
-      <c r="AM117" s="1"/>
+      <c r="AM117" s="3" t="s">
+        <v>628</v>
+      </c>
     </row>
     <row r="118" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>670</v>
-      </c>
-      <c r="C118" s="1"/>
-      <c r="D118" s="11" t="s">
-        <v>758</v>
+        <v>667</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="D118" s="12" t="s">
+        <v>160</v>
       </c>
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
       <c r="G118" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="H118" s="4">
-        <v>45023</v>
-      </c>
+      <c r="H118" s="1"/>
       <c r="I118" s="3" t="s">
         <v>89</v>
       </c>
       <c r="J118" s="1"/>
       <c r="K118" s="1"/>
       <c r="L118" s="5" t="s">
-        <v>671</v>
+        <v>655</v>
       </c>
       <c r="M118" s="5" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="N118" s="5" t="s">
-        <v>128</v>
+        <v>668</v>
       </c>
       <c r="O118" s="5" t="s">
-        <v>672</v>
+        <v>396</v>
       </c>
       <c r="P118" s="5" t="s">
         <v>94</v>
@@ -15595,14 +15542,12 @@
       <c r="Q118" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="R118" s="5" t="s">
-        <v>104</v>
-      </c>
+      <c r="R118" s="1"/>
       <c r="S118" s="5" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="T118" s="5" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="U118" s="3" t="s">
         <v>544</v>
@@ -15619,33 +15564,45 @@
       <c r="Y118" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="Z118" s="1"/>
-      <c r="AA118" s="1"/>
-      <c r="AB118" s="1"/>
-      <c r="AC118" s="1"/>
-      <c r="AD118" s="1"/>
-      <c r="AE118" s="1"/>
-      <c r="AF118" s="1"/>
-      <c r="AG118" s="1"/>
+      <c r="Z118" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="AA118" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB118" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="AC118" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD118" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE118" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF118" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="AG118" s="5" t="s">
+        <v>148</v>
+      </c>
       <c r="AH118" s="1"/>
       <c r="AI118" s="1"/>
       <c r="AJ118" s="1"/>
       <c r="AK118" s="1"/>
       <c r="AL118" s="1"/>
-      <c r="AM118" s="3" t="s">
-        <v>635</v>
-      </c>
+      <c r="AM118" s="1"/>
     </row>
     <row r="119" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>674</v>
-      </c>
-      <c r="C119" s="3" t="s">
-        <v>661</v>
-      </c>
+        <v>670</v>
+      </c>
+      <c r="C119" s="1"/>
       <c r="D119" s="12" t="s">
         <v>160</v>
       </c>
@@ -15656,75 +15613,79 @@
       </c>
       <c r="H119" s="1"/>
       <c r="I119" s="3" t="s">
-        <v>89</v>
+        <v>216</v>
       </c>
       <c r="J119" s="1"/>
       <c r="K119" s="1"/>
       <c r="L119" s="5" t="s">
-        <v>662</v>
+        <v>671</v>
       </c>
       <c r="M119" s="5" t="s">
-        <v>91</v>
+        <v>147</v>
       </c>
       <c r="N119" s="5" t="s">
-        <v>675</v>
+        <v>573</v>
       </c>
       <c r="O119" s="5" t="s">
-        <v>396</v>
+        <v>672</v>
       </c>
       <c r="P119" s="5" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="Q119" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="R119" s="1"/>
+        <v>220</v>
+      </c>
+      <c r="R119" s="5" t="s">
+        <v>673</v>
+      </c>
       <c r="S119" s="5" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="T119" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="U119" s="3" t="s">
-        <v>544</v>
+        <v>98</v>
+      </c>
+      <c r="U119" s="5" t="s">
+        <v>219</v>
       </c>
       <c r="V119" s="5" t="s">
-        <v>75</v>
+        <v>380</v>
       </c>
       <c r="W119" s="5" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="X119" s="5" t="s">
-        <v>98</v>
+        <v>220</v>
       </c>
       <c r="Y119" s="3" t="s">
         <v>81</v>
       </c>
       <c r="Z119" s="5" t="s">
-        <v>373</v>
+        <v>148</v>
       </c>
       <c r="AA119" s="5" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
       <c r="AB119" s="5" t="s">
-        <v>148</v>
+        <v>72</v>
       </c>
       <c r="AC119" s="5" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="AD119" s="5" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="AE119" s="5" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="AF119" s="5" t="s">
-        <v>102</v>
+        <v>380</v>
       </c>
       <c r="AG119" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="AH119" s="1"/>
+        <v>74</v>
+      </c>
+      <c r="AH119" s="3" t="s">
+        <v>674</v>
+      </c>
       <c r="AI119" s="1"/>
       <c r="AJ119" s="1"/>
       <c r="AK119" s="1"/>
@@ -15733,10 +15694,10 @@
     </row>
     <row r="120" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="B120" s="3" t="s">
         <v>676</v>
-      </c>
-      <c r="B120" s="3" t="s">
-        <v>677</v>
       </c>
       <c r="C120" s="1"/>
       <c r="D120" s="12" t="s">
@@ -15754,73 +15715,73 @@
       <c r="J120" s="1"/>
       <c r="K120" s="1"/>
       <c r="L120" s="5" t="s">
+        <v>677</v>
+      </c>
+      <c r="M120" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="N120" s="5" t="s">
         <v>678</v>
-      </c>
-      <c r="M120" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="N120" s="5" t="s">
-        <v>573</v>
       </c>
       <c r="O120" s="5" t="s">
         <v>679</v>
       </c>
       <c r="P120" s="5" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="Q120" s="5" t="s">
-        <v>220</v>
+        <v>97</v>
       </c>
       <c r="R120" s="5" t="s">
-        <v>680</v>
+        <v>95</v>
       </c>
       <c r="S120" s="5" t="s">
-        <v>80</v>
+        <v>147</v>
       </c>
       <c r="T120" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="U120" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="V120" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="W120" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="U120" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="V120" s="5" t="s">
-        <v>380</v>
-      </c>
-      <c r="W120" s="5" t="s">
+      <c r="X120" s="5" t="s">
         <v>77</v>
-      </c>
-      <c r="X120" s="5" t="s">
-        <v>220</v>
       </c>
       <c r="Y120" s="3" t="s">
         <v>81</v>
       </c>
       <c r="Z120" s="5" t="s">
-        <v>148</v>
+        <v>490</v>
       </c>
       <c r="AA120" s="5" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="AB120" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC120" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD120" s="5" t="s">
-        <v>78</v>
+        <v>143</v>
+      </c>
+      <c r="AC120" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="AD120" s="3" t="s">
+        <v>681</v>
       </c>
       <c r="AE120" s="5" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="AF120" s="5" t="s">
-        <v>380</v>
+        <v>220</v>
       </c>
       <c r="AG120" s="5" t="s">
-        <v>74</v>
+        <v>199</v>
       </c>
       <c r="AH120" s="3" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="AI120" s="1"/>
       <c r="AJ120" s="1"/>
@@ -15830,94 +15791,100 @@
     </row>
     <row r="121" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>683</v>
-      </c>
-      <c r="C121" s="1"/>
-      <c r="D121" s="12" t="s">
-        <v>160</v>
+        <v>684</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>685</v>
+      </c>
+      <c r="D121" s="11" t="s">
+        <v>751</v>
       </c>
       <c r="E121" s="1"/>
       <c r="F121" s="1"/>
       <c r="G121" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="H121" s="1"/>
+      <c r="H121" s="4">
+        <v>31835</v>
+      </c>
       <c r="I121" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="J121" s="1"/>
+        <v>89</v>
+      </c>
+      <c r="J121" s="3" t="s">
+        <v>581</v>
+      </c>
       <c r="K121" s="1"/>
       <c r="L121" s="5" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="M121" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="N121" s="5" t="s">
+        <v>687</v>
+      </c>
+      <c r="O121" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="P121" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q121" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="N121" s="5" t="s">
-        <v>685</v>
-      </c>
-      <c r="O121" s="5" t="s">
-        <v>686</v>
-      </c>
-      <c r="P121" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q121" s="5" t="s">
+      <c r="R121" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="S121" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="T121" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="U121" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="R121" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="S121" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="T121" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="U121" s="5" t="s">
-        <v>221</v>
-      </c>
       <c r="V121" s="5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="W121" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="X121" s="5" t="s">
         <v>98</v>
-      </c>
-      <c r="X121" s="5" t="s">
-        <v>77</v>
       </c>
       <c r="Y121" s="3" t="s">
         <v>81</v>
       </c>
       <c r="Z121" s="5" t="s">
-        <v>490</v>
+        <v>167</v>
       </c>
       <c r="AA121" s="5" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="AB121" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="AC121" s="3" t="s">
-        <v>687</v>
+        <v>148</v>
+      </c>
+      <c r="AC121" s="5" t="s">
+        <v>94</v>
       </c>
       <c r="AD121" s="3" t="s">
         <v>688</v>
       </c>
       <c r="AE121" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF121" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="AF121" s="5" t="s">
-        <v>220</v>
-      </c>
       <c r="AG121" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="AH121" s="3" t="s">
-        <v>689</v>
+        <v>131</v>
+      </c>
+      <c r="AH121" s="5" t="s">
+        <v>146</v>
       </c>
       <c r="AI121" s="1"/>
       <c r="AJ121" s="1"/>
@@ -15927,287 +15894,287 @@
     </row>
     <row r="122" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="B122" s="3" t="s">
         <v>690</v>
       </c>
-      <c r="B122" s="3" t="s">
-        <v>691</v>
-      </c>
-      <c r="C122" s="3" t="s">
-        <v>692</v>
-      </c>
-      <c r="D122" s="11" t="s">
-        <v>759</v>
-      </c>
+      <c r="C122" s="1"/>
+      <c r="D122" s="13"/>
       <c r="E122" s="1"/>
       <c r="F122" s="1"/>
-      <c r="G122" s="3" t="s">
-        <v>106</v>
-      </c>
+      <c r="G122" s="1"/>
       <c r="H122" s="4">
-        <v>31835</v>
+        <v>45044</v>
       </c>
       <c r="I122" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="J122" s="3" t="s">
-        <v>581</v>
-      </c>
+      <c r="J122" s="1"/>
       <c r="K122" s="1"/>
       <c r="L122" s="5" t="s">
-        <v>693</v>
+        <v>129</v>
       </c>
       <c r="M122" s="5" t="s">
         <v>91</v>
       </c>
       <c r="N122" s="5" t="s">
-        <v>694</v>
+        <v>234</v>
       </c>
       <c r="O122" s="5" t="s">
-        <v>468</v>
+        <v>523</v>
       </c>
       <c r="P122" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="Q122" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="R122" s="5" t="s">
-        <v>183</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="R122" s="1"/>
       <c r="S122" s="5" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="T122" s="5" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="U122" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="V122" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="W122" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="X122" s="5" t="s">
-        <v>98</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="V122" s="1"/>
+      <c r="W122" s="1"/>
+      <c r="X122" s="1"/>
       <c r="Y122" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="Z122" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="AA122" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="AB122" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="AC122" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="AD122" s="3" t="s">
-        <v>695</v>
-      </c>
-      <c r="AE122" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="AF122" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="AG122" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="AH122" s="5" t="s">
-        <v>146</v>
-      </c>
+      <c r="Z122" s="1"/>
+      <c r="AA122" s="1"/>
+      <c r="AB122" s="1"/>
+      <c r="AC122" s="1"/>
+      <c r="AD122" s="1"/>
+      <c r="AE122" s="1"/>
+      <c r="AF122" s="1"/>
+      <c r="AG122" s="1"/>
+      <c r="AH122" s="1"/>
       <c r="AI122" s="1"/>
       <c r="AJ122" s="1"/>
       <c r="AK122" s="1"/>
       <c r="AL122" s="1"/>
-      <c r="AM122" s="1"/>
+      <c r="AM122" s="3" t="s">
+        <v>628</v>
+      </c>
     </row>
     <row r="123" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>697</v>
-      </c>
-      <c r="C123" s="1"/>
-      <c r="D123" s="13"/>
+        <v>684</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>685</v>
+      </c>
+      <c r="D123" s="11" t="s">
+        <v>751</v>
+      </c>
       <c r="E123" s="1"/>
       <c r="F123" s="1"/>
-      <c r="G123" s="1"/>
+      <c r="G123" s="3" t="s">
+        <v>106</v>
+      </c>
       <c r="H123" s="4">
-        <v>45044</v>
+        <v>31835</v>
       </c>
       <c r="I123" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="J123" s="1"/>
+      <c r="J123" s="3" t="s">
+        <v>581</v>
+      </c>
       <c r="K123" s="1"/>
       <c r="L123" s="5" t="s">
-        <v>129</v>
+        <v>686</v>
       </c>
       <c r="M123" s="5" t="s">
         <v>91</v>
       </c>
       <c r="N123" s="5" t="s">
-        <v>234</v>
+        <v>687</v>
       </c>
       <c r="O123" s="5" t="s">
-        <v>523</v>
+        <v>468</v>
       </c>
       <c r="P123" s="5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q123" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="R123" s="1"/>
+        <v>75</v>
+      </c>
+      <c r="R123" s="5" t="s">
+        <v>104</v>
+      </c>
       <c r="S123" s="5" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="T123" s="5" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="U123" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="V123" s="1"/>
-      <c r="W123" s="1"/>
-      <c r="X123" s="1"/>
+        <v>97</v>
+      </c>
+      <c r="V123" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="W123" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="X123" s="5" t="s">
+        <v>98</v>
+      </c>
       <c r="Y123" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="Z123" s="1"/>
-      <c r="AA123" s="1"/>
-      <c r="AB123" s="1"/>
-      <c r="AC123" s="1"/>
-      <c r="AD123" s="1"/>
-      <c r="AE123" s="1"/>
-      <c r="AF123" s="1"/>
-      <c r="AG123" s="1"/>
-      <c r="AH123" s="1"/>
+      <c r="Z123" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="AA123" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB123" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="AC123" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD123" s="3" t="s">
+        <v>688</v>
+      </c>
+      <c r="AE123" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF123" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="AG123" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="AH123" s="5" t="s">
+        <v>146</v>
+      </c>
       <c r="AI123" s="1"/>
       <c r="AJ123" s="1"/>
       <c r="AK123" s="1"/>
       <c r="AL123" s="1"/>
-      <c r="AM123" s="3" t="s">
-        <v>635</v>
-      </c>
+      <c r="AM123" s="1"/>
     </row>
     <row r="124" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>691</v>
-      </c>
-      <c r="C124" s="3" t="s">
-        <v>692</v>
-      </c>
-      <c r="D124" s="11" t="s">
-        <v>759</v>
+        <v>693</v>
+      </c>
+      <c r="C124" s="1"/>
+      <c r="D124" s="12" t="s">
+        <v>160</v>
       </c>
       <c r="E124" s="1"/>
-      <c r="F124" s="1"/>
+      <c r="F124" s="3" t="s">
+        <v>694</v>
+      </c>
       <c r="G124" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="H124" s="4">
-        <v>31835</v>
-      </c>
+      <c r="H124" s="1"/>
       <c r="I124" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="J124" s="3" t="s">
-        <v>581</v>
-      </c>
+      <c r="J124" s="1"/>
       <c r="K124" s="1"/>
       <c r="L124" s="5" t="s">
-        <v>693</v>
+        <v>362</v>
       </c>
       <c r="M124" s="5" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="N124" s="5" t="s">
-        <v>694</v>
+        <v>359</v>
       </c>
       <c r="O124" s="5" t="s">
-        <v>468</v>
+        <v>695</v>
       </c>
       <c r="P124" s="5" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="Q124" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="R124" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="S124" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="T124" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="U124" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="V124" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="R124" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="S124" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="T124" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="U124" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="V124" s="5" t="s">
-        <v>79</v>
-      </c>
       <c r="W124" s="5" t="s">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="X124" s="5" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="Y124" s="3" t="s">
         <v>81</v>
       </c>
       <c r="Z124" s="5" t="s">
-        <v>167</v>
+        <v>138</v>
       </c>
       <c r="AA124" s="5" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="AB124" s="5" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="AC124" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="AD124" s="3" t="s">
-        <v>695</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="AD124" s="1"/>
       <c r="AE124" s="5" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="AF124" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="AG124" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="AH124" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="AI124" s="1"/>
-      <c r="AJ124" s="1"/>
-      <c r="AK124" s="1"/>
+      <c r="AH124" s="3" t="s">
+        <v>696</v>
+      </c>
+      <c r="AI124" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="AJ124" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="AK124" s="5" t="s">
+        <v>72</v>
+      </c>
       <c r="AL124" s="1"/>
       <c r="AM124" s="1"/>
     </row>
     <row r="125" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C125" s="1"/>
       <c r="D125" s="12" t="s">
@@ -16215,7 +16182,7 @@
       </c>
       <c r="E125" s="1"/>
       <c r="F125" s="3" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="G125" s="3" t="s">
         <v>106</v>
@@ -16227,22 +16194,22 @@
       <c r="J125" s="1"/>
       <c r="K125" s="1"/>
       <c r="L125" s="5" t="s">
-        <v>362</v>
+        <v>699</v>
       </c>
       <c r="M125" s="5" t="s">
         <v>69</v>
       </c>
       <c r="N125" s="5" t="s">
-        <v>359</v>
+        <v>700</v>
       </c>
       <c r="O125" s="5" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="P125" s="5" t="s">
         <v>101</v>
       </c>
       <c r="Q125" s="5" t="s">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="R125" s="5" t="s">
         <v>110</v>
@@ -16269,10 +16236,10 @@
         <v>81</v>
       </c>
       <c r="Z125" s="5" t="s">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="AA125" s="5" t="s">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="AB125" s="5" t="s">
         <v>131</v>
@@ -16288,10 +16255,10 @@
         <v>98</v>
       </c>
       <c r="AG125" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="AH125" s="3" t="s">
-        <v>703</v>
+        <v>264</v>
+      </c>
+      <c r="AH125" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="AI125" s="5" t="s">
         <v>511</v>
@@ -16307,63 +16274,63 @@
     </row>
     <row r="126" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="C126" s="1"/>
       <c r="D126" s="12" t="s">
         <v>160</v>
       </c>
       <c r="E126" s="1"/>
-      <c r="F126" s="3" t="s">
-        <v>701</v>
-      </c>
+      <c r="F126" s="1"/>
       <c r="G126" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="H126" s="1"/>
+      <c r="H126" s="4">
+        <v>45061</v>
+      </c>
       <c r="I126" s="3" t="s">
-        <v>89</v>
+        <v>161</v>
       </c>
       <c r="J126" s="1"/>
       <c r="K126" s="1"/>
       <c r="L126" s="5" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="M126" s="5" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="N126" s="5" t="s">
-        <v>707</v>
+        <v>136</v>
       </c>
       <c r="O126" s="5" t="s">
-        <v>708</v>
+        <v>461</v>
       </c>
       <c r="P126" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q126" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="R126" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="S126" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="T126" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="Q126" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="R126" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="S126" s="5" t="s">
+      <c r="U126" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="V126" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="T126" s="5" t="s">
+      <c r="W126" s="5" t="s">
         <v>72</v>
-      </c>
-      <c r="U126" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="V126" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="W126" s="5" t="s">
-        <v>76</v>
       </c>
       <c r="X126" s="5" t="s">
         <v>102</v>
@@ -16372,48 +16339,46 @@
         <v>81</v>
       </c>
       <c r="Z126" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AA126" s="5" t="s">
-        <v>82</v>
+        <v>138</v>
       </c>
       <c r="AB126" s="5" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="AC126" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD126" s="1"/>
+        <v>143</v>
+      </c>
+      <c r="AD126" s="3" t="s">
+        <v>705</v>
+      </c>
       <c r="AE126" s="5" t="s">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="AF126" s="5" t="s">
-        <v>98</v>
+        <v>147</v>
       </c>
       <c r="AG126" s="5" t="s">
-        <v>264</v>
+        <v>188</v>
       </c>
       <c r="AH126" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="AI126" s="5" t="s">
-        <v>511</v>
-      </c>
-      <c r="AJ126" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="AK126" s="5" t="s">
-        <v>72</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="AI126" s="1"/>
+      <c r="AJ126" s="1"/>
+      <c r="AK126" s="1"/>
       <c r="AL126" s="1"/>
-      <c r="AM126" s="1"/>
+      <c r="AM126" s="3" t="s">
+        <v>628</v>
+      </c>
     </row>
     <row r="127" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="C127" s="1"/>
       <c r="D127" s="12" t="s">
@@ -16424,35 +16389,31 @@
       <c r="G127" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="H127" s="4">
-        <v>45061</v>
-      </c>
+      <c r="H127" s="1"/>
       <c r="I127" s="3" t="s">
-        <v>161</v>
+        <v>89</v>
       </c>
       <c r="J127" s="1"/>
       <c r="K127" s="1"/>
       <c r="L127" s="5" t="s">
-        <v>711</v>
+        <v>211</v>
       </c>
       <c r="M127" s="5" t="s">
         <v>91</v>
       </c>
       <c r="N127" s="5" t="s">
-        <v>136</v>
+        <v>708</v>
       </c>
       <c r="O127" s="5" t="s">
-        <v>461</v>
+        <v>709</v>
       </c>
       <c r="P127" s="5" t="s">
-        <v>143</v>
+        <v>96</v>
       </c>
       <c r="Q127" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="R127" s="5" t="s">
-        <v>84</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="R127" s="1"/>
       <c r="S127" s="5" t="s">
         <v>72</v>
       </c>
@@ -16460,61 +16421,53 @@
         <v>101</v>
       </c>
       <c r="U127" s="5" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="V127" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="W127" s="5" t="s">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="X127" s="5" t="s">
-        <v>102</v>
+        <v>128</v>
       </c>
       <c r="Y127" s="3" t="s">
         <v>81</v>
       </c>
       <c r="Z127" s="5" t="s">
-        <v>113</v>
+        <v>138</v>
       </c>
       <c r="AA127" s="5" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="AB127" s="5" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="AC127" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="AD127" s="3" t="s">
-        <v>712</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="AD127" s="1"/>
       <c r="AE127" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AF127" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="AG127" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="AH127" s="5" t="s">
-        <v>121</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="AG127" s="1"/>
+      <c r="AH127" s="1"/>
       <c r="AI127" s="1"/>
       <c r="AJ127" s="1"/>
       <c r="AK127" s="1"/>
       <c r="AL127" s="1"/>
-      <c r="AM127" s="3" t="s">
-        <v>635</v>
-      </c>
+      <c r="AM127" s="1"/>
     </row>
     <row r="128" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="C128" s="1"/>
       <c r="D128" s="12" t="s">
@@ -16527,70 +16480,76 @@
       </c>
       <c r="H128" s="1"/>
       <c r="I128" s="3" t="s">
-        <v>89</v>
+        <v>216</v>
       </c>
       <c r="J128" s="1"/>
       <c r="K128" s="1"/>
       <c r="L128" s="5" t="s">
-        <v>211</v>
+        <v>104</v>
       </c>
       <c r="M128" s="5" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="N128" s="5" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="O128" s="5" t="s">
-        <v>716</v>
+        <v>539</v>
       </c>
       <c r="P128" s="5" t="s">
-        <v>96</v>
+        <v>147</v>
       </c>
       <c r="Q128" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="R128" s="1"/>
+        <v>220</v>
+      </c>
+      <c r="R128" s="5" t="s">
+        <v>76</v>
+      </c>
       <c r="S128" s="5" t="s">
-        <v>72</v>
+        <v>128</v>
       </c>
       <c r="T128" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="U128" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="V128" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="W128" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="V128" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="W128" s="5" t="s">
-        <v>109</v>
-      </c>
       <c r="X128" s="5" t="s">
-        <v>128</v>
+        <v>220</v>
       </c>
       <c r="Y128" s="3" t="s">
         <v>81</v>
       </c>
       <c r="Z128" s="5" t="s">
-        <v>138</v>
+        <v>264</v>
       </c>
       <c r="AA128" s="5" t="s">
-        <v>151</v>
+        <v>110</v>
       </c>
       <c r="AB128" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AC128" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="AD128" s="1"/>
+        <v>75</v>
+      </c>
+      <c r="AD128" s="3" t="s">
+        <v>562</v>
+      </c>
       <c r="AE128" s="5" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="AF128" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="AG128" s="1"/>
+        <v>220</v>
+      </c>
+      <c r="AG128" s="5" t="s">
+        <v>74</v>
+      </c>
       <c r="AH128" s="1"/>
       <c r="AI128" s="1"/>
       <c r="AJ128" s="1"/>
@@ -16600,10 +16559,10 @@
     </row>
     <row r="129" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="C129" s="1"/>
       <c r="D129" s="12" t="s">
@@ -16621,70 +16580,66 @@
       <c r="J129" s="1"/>
       <c r="K129" s="1"/>
       <c r="L129" s="5" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="M129" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="N129" s="5" t="s">
+        <v>715</v>
+      </c>
+      <c r="O129" s="5" t="s">
+        <v>716</v>
+      </c>
+      <c r="P129" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="N129" s="5" t="s">
-        <v>719</v>
-      </c>
-      <c r="O129" s="5" t="s">
-        <v>539</v>
-      </c>
-      <c r="P129" s="5" t="s">
+      <c r="Q129" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="R129" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="S129" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="Q129" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="R129" s="5" t="s">
+      <c r="T129" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="U129" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="V129" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="W129" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="X129" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y129" s="1"/>
+      <c r="Z129" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA129" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="AB129" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="AC129" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="S129" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="T129" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="U129" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="V129" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="W129" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="X129" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="Y129" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z129" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="AA129" s="5" t="s">
+      <c r="AD129" s="1"/>
+      <c r="AE129" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="AF129" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG129" s="5" t="s">
         <v>110</v>
-      </c>
-      <c r="AB129" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="AC129" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="AD129" s="3" t="s">
-        <v>562</v>
-      </c>
-      <c r="AE129" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="AF129" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="AG129" s="5" t="s">
-        <v>74</v>
       </c>
       <c r="AH129" s="1"/>
       <c r="AI129" s="1"/>
@@ -16695,46 +16650,46 @@
     </row>
     <row r="130" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="C130" s="1"/>
-      <c r="D130" s="12" t="s">
-        <v>160</v>
-      </c>
+      <c r="D130" s="13"/>
       <c r="E130" s="1"/>
       <c r="F130" s="1"/>
-      <c r="G130" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="H130" s="1"/>
+      <c r="G130" s="1"/>
+      <c r="H130" s="4">
+        <v>45068</v>
+      </c>
       <c r="I130" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="J130" s="1"/>
+        <v>552</v>
+      </c>
+      <c r="J130" s="3" t="s">
+        <v>719</v>
+      </c>
       <c r="K130" s="1"/>
       <c r="L130" s="5" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="M130" s="5" t="s">
         <v>75</v>
       </c>
       <c r="N130" s="5" t="s">
-        <v>722</v>
+        <v>380</v>
       </c>
       <c r="O130" s="5" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="P130" s="5" t="s">
         <v>73</v>
       </c>
       <c r="Q130" s="5" t="s">
-        <v>128</v>
+        <v>80</v>
       </c>
       <c r="R130" s="5" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="S130" s="5" t="s">
         <v>147</v>
@@ -16743,36 +16698,40 @@
         <v>73</v>
       </c>
       <c r="U130" s="5" t="s">
-        <v>380</v>
+        <v>221</v>
       </c>
       <c r="V130" s="5" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="W130" s="5" t="s">
         <v>98</v>
       </c>
       <c r="X130" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y130" s="1"/>
+        <v>77</v>
+      </c>
+      <c r="Y130" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="Z130" s="5" t="s">
-        <v>151</v>
+        <v>490</v>
       </c>
       <c r="AA130" s="5" t="s">
         <v>175</v>
       </c>
       <c r="AB130" s="5" t="s">
-        <v>183</v>
+        <v>74</v>
       </c>
       <c r="AC130" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="AD130" s="1"/>
+      <c r="AD130" s="5" t="s">
+        <v>75</v>
+      </c>
       <c r="AE130" s="5" t="s">
         <v>147</v>
       </c>
       <c r="AF130" s="5" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="AG130" s="5" t="s">
         <v>110</v>
@@ -16782,122 +16741,116 @@
       <c r="AJ130" s="1"/>
       <c r="AK130" s="1"/>
       <c r="AL130" s="1"/>
-      <c r="AM130" s="1"/>
+      <c r="AM130" s="3" t="s">
+        <v>628</v>
+      </c>
     </row>
     <row r="131" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="C131" s="1"/>
-      <c r="D131" s="13"/>
+      <c r="D131" s="12" t="s">
+        <v>160</v>
+      </c>
       <c r="E131" s="1"/>
       <c r="F131" s="1"/>
-      <c r="G131" s="1"/>
-      <c r="H131" s="4">
-        <v>45068</v>
-      </c>
+      <c r="G131" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="H131" s="1"/>
       <c r="I131" s="3" t="s">
         <v>552</v>
       </c>
       <c r="J131" s="3" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="K131" s="1"/>
       <c r="L131" s="5" t="s">
-        <v>139</v>
+        <v>74</v>
       </c>
       <c r="M131" s="5" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="N131" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="O131" s="5" t="s">
+        <v>723</v>
+      </c>
+      <c r="P131" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q131" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="R131" s="1"/>
+      <c r="S131" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="T131" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="U131" s="1"/>
+      <c r="V131" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="O131" s="5" t="s">
-        <v>727</v>
-      </c>
-      <c r="P131" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q131" s="5" t="s">
+      <c r="W131" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="R131" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="S131" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="T131" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="U131" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="V131" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="W131" s="5" t="s">
-        <v>98</v>
-      </c>
       <c r="X131" s="5" t="s">
-        <v>77</v>
+        <v>380</v>
       </c>
       <c r="Y131" s="3" t="s">
         <v>81</v>
       </c>
       <c r="Z131" s="5" t="s">
-        <v>490</v>
+        <v>91</v>
       </c>
       <c r="AA131" s="5" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="AB131" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AC131" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="AD131" s="5" t="s">
-        <v>75</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="AD131" s="1"/>
       <c r="AE131" s="5" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="AF131" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="AG131" s="5" t="s">
-        <v>110</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="AG131" s="1"/>
       <c r="AH131" s="1"/>
       <c r="AI131" s="1"/>
       <c r="AJ131" s="1"/>
       <c r="AK131" s="1"/>
       <c r="AL131" s="1"/>
       <c r="AM131" s="3" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
     </row>
     <row r="132" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A132" s="3" t="s">
-        <v>728</v>
+      <c r="A132" s="5" t="s">
+        <v>724</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="C132" s="1"/>
-      <c r="D132" s="12" t="s">
-        <v>160</v>
-      </c>
+      <c r="D132" s="13"/>
       <c r="E132" s="1"/>
       <c r="F132" s="1"/>
-      <c r="G132" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="H132" s="1"/>
+      <c r="G132" s="1"/>
+      <c r="H132" s="4">
+        <v>45081</v>
+      </c>
       <c r="I132" s="3" t="s">
         <v>552</v>
       </c>
@@ -16906,78 +16859,84 @@
       </c>
       <c r="K132" s="1"/>
       <c r="L132" s="5" t="s">
-        <v>74</v>
+        <v>121</v>
       </c>
       <c r="M132" s="5" t="s">
-        <v>97</v>
+        <v>147</v>
       </c>
       <c r="N132" s="5" t="s">
-        <v>555</v>
+        <v>128</v>
       </c>
       <c r="O132" s="5" t="s">
-        <v>730</v>
+        <v>218</v>
       </c>
       <c r="P132" s="5" t="s">
-        <v>98</v>
+        <v>147</v>
       </c>
       <c r="Q132" s="5" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="R132" s="1"/>
       <c r="S132" s="5" t="s">
-        <v>220</v>
+        <v>80</v>
       </c>
       <c r="T132" s="5" t="s">
-        <v>220</v>
+        <v>98</v>
       </c>
       <c r="U132" s="1"/>
       <c r="V132" s="5" t="s">
-        <v>380</v>
+        <v>80</v>
       </c>
       <c r="W132" s="5" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="X132" s="5" t="s">
-        <v>380</v>
+        <v>220</v>
       </c>
       <c r="Y132" s="3" t="s">
         <v>81</v>
       </c>
       <c r="Z132" s="5" t="s">
-        <v>91</v>
+        <v>148</v>
       </c>
       <c r="AA132" s="5" t="s">
-        <v>163</v>
+        <v>121</v>
       </c>
       <c r="AB132" s="5" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="AC132" s="5" t="s">
-        <v>147</v>
+        <v>79</v>
       </c>
       <c r="AD132" s="1"/>
       <c r="AE132" s="5" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="AF132" s="5" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AG132" s="1"/>
       <c r="AH132" s="1"/>
-      <c r="AI132" s="1"/>
-      <c r="AJ132" s="1"/>
-      <c r="AK132" s="1"/>
+      <c r="AI132" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="AJ132" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK132" s="5" t="s">
+        <v>380</v>
+      </c>
       <c r="AL132" s="1"/>
       <c r="AM132" s="3" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
     </row>
     <row r="133" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A133" s="5" t="s">
-        <v>731</v>
+      <c r="A133" s="3" t="s">
+        <v>727</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="C133" s="1"/>
       <c r="D133" s="13"/>
@@ -16988,91 +16947,89 @@
         <v>45081</v>
       </c>
       <c r="I133" s="3" t="s">
-        <v>552</v>
-      </c>
-      <c r="J133" s="3" t="s">
-        <v>733</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="J133" s="1"/>
       <c r="K133" s="1"/>
       <c r="L133" s="5" t="s">
-        <v>121</v>
+        <v>155</v>
       </c>
       <c r="M133" s="5" t="s">
-        <v>147</v>
+        <v>91</v>
       </c>
       <c r="N133" s="5" t="s">
-        <v>128</v>
+        <v>280</v>
       </c>
       <c r="O133" s="5" t="s">
-        <v>218</v>
+        <v>729</v>
       </c>
       <c r="P133" s="5" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="Q133" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="R133" s="1"/>
+        <v>95</v>
+      </c>
+      <c r="R133" s="5" t="s">
+        <v>110</v>
+      </c>
       <c r="S133" s="5" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="T133" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="U133" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="V133" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="W133" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="X133" s="5" t="s">
         <v>98</v>
-      </c>
-      <c r="U133" s="1"/>
-      <c r="V133" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="W133" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="X133" s="5" t="s">
-        <v>220</v>
       </c>
       <c r="Y133" s="3" t="s">
         <v>81</v>
       </c>
       <c r="Z133" s="5" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="AA133" s="5" t="s">
-        <v>121</v>
+        <v>417</v>
       </c>
       <c r="AB133" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC133" s="5" t="s">
         <v>69</v>
-      </c>
-      <c r="AC133" s="5" t="s">
-        <v>79</v>
       </c>
       <c r="AD133" s="1"/>
       <c r="AE133" s="5" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="AF133" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="AG133" s="1"/>
+        <v>102</v>
+      </c>
+      <c r="AG133" s="5" t="s">
+        <v>168</v>
+      </c>
       <c r="AH133" s="1"/>
-      <c r="AI133" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="AJ133" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="AK133" s="5" t="s">
-        <v>380</v>
-      </c>
+      <c r="AI133" s="1"/>
+      <c r="AJ133" s="1"/>
+      <c r="AK133" s="1"/>
       <c r="AL133" s="1"/>
       <c r="AM133" s="3" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
     </row>
     <row r="134" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="C134" s="1"/>
       <c r="D134" s="13"/>
@@ -17083,73 +17040,73 @@
         <v>45081</v>
       </c>
       <c r="I134" s="3" t="s">
-        <v>89</v>
+        <v>552</v>
       </c>
       <c r="J134" s="1"/>
       <c r="K134" s="1"/>
       <c r="L134" s="5" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="M134" s="5" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="N134" s="5" t="s">
-        <v>280</v>
+        <v>732</v>
       </c>
       <c r="O134" s="5" t="s">
-        <v>736</v>
+        <v>720</v>
       </c>
       <c r="P134" s="5" t="s">
-        <v>143</v>
+        <v>78</v>
       </c>
       <c r="Q134" s="5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="R134" s="5" t="s">
-        <v>110</v>
+        <v>72</v>
       </c>
       <c r="S134" s="5" t="s">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="T134" s="5" t="s">
-        <v>101</v>
+        <v>147</v>
       </c>
       <c r="U134" s="3" t="s">
-        <v>111</v>
+        <v>733</v>
       </c>
       <c r="V134" s="5" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="W134" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="X134" s="5" t="s">
-        <v>98</v>
+        <v>128</v>
+      </c>
+      <c r="X134" s="3" t="s">
+        <v>433</v>
       </c>
       <c r="Y134" s="3" t="s">
         <v>81</v>
       </c>
       <c r="Z134" s="5" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="AA134" s="5" t="s">
-        <v>417</v>
+        <v>121</v>
       </c>
       <c r="AB134" s="5" t="s">
-        <v>114</v>
+        <v>74</v>
       </c>
       <c r="AC134" s="5" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="AD134" s="1"/>
       <c r="AE134" s="5" t="s">
-        <v>76</v>
+        <v>147</v>
       </c>
       <c r="AF134" s="5" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="AG134" s="5" t="s">
-        <v>168</v>
+        <v>110</v>
       </c>
       <c r="AH134" s="1"/>
       <c r="AI134" s="1"/>
@@ -17157,92 +17114,98 @@
       <c r="AK134" s="1"/>
       <c r="AL134" s="1"/>
       <c r="AM134" s="3" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
     </row>
     <row r="135" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="C135" s="1"/>
-      <c r="D135" s="13"/>
+      <c r="D135" s="12" t="s">
+        <v>160</v>
+      </c>
       <c r="E135" s="1"/>
       <c r="F135" s="1"/>
-      <c r="G135" s="1"/>
+      <c r="G135" s="3" t="s">
+        <v>106</v>
+      </c>
       <c r="H135" s="4">
-        <v>45081</v>
+        <v>45145</v>
       </c>
       <c r="I135" s="3" t="s">
-        <v>552</v>
+        <v>89</v>
       </c>
       <c r="J135" s="1"/>
       <c r="K135" s="1"/>
       <c r="L135" s="5" t="s">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="M135" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="N135" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="O135" s="5" t="s">
+        <v>665</v>
+      </c>
+      <c r="P135" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q135" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="N135" s="5" t="s">
-        <v>739</v>
-      </c>
-      <c r="O135" s="5" t="s">
-        <v>727</v>
-      </c>
-      <c r="P135" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q135" s="5" t="s">
-        <v>97</v>
-      </c>
       <c r="R135" s="5" t="s">
-        <v>72</v>
+        <v>183</v>
       </c>
       <c r="S135" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="T135" s="5" t="s">
-        <v>147</v>
+        <v>95</v>
       </c>
       <c r="U135" s="3" t="s">
-        <v>740</v>
+        <v>111</v>
       </c>
       <c r="V135" s="5" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="W135" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="X135" s="5" t="s">
         <v>128</v>
-      </c>
-      <c r="X135" s="3" t="s">
-        <v>433</v>
       </c>
       <c r="Y135" s="3" t="s">
         <v>81</v>
       </c>
       <c r="Z135" s="5" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="AA135" s="5" t="s">
-        <v>121</v>
+        <v>528</v>
       </c>
       <c r="AB135" s="5" t="s">
-        <v>74</v>
+        <v>139</v>
       </c>
       <c r="AC135" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="AD135" s="1"/>
+        <v>94</v>
+      </c>
+      <c r="AD135" s="5" t="s">
+        <v>72</v>
+      </c>
       <c r="AE135" s="5" t="s">
-        <v>147</v>
+        <v>75</v>
       </c>
       <c r="AF135" s="5" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AG135" s="5" t="s">
-        <v>110</v>
+        <v>168</v>
       </c>
       <c r="AH135" s="1"/>
       <c r="AI135" s="1"/>
@@ -17250,15 +17213,15 @@
       <c r="AK135" s="1"/>
       <c r="AL135" s="1"/>
       <c r="AM135" s="3" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
     </row>
     <row r="136" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="C136" s="1"/>
       <c r="D136" s="12" t="s">
@@ -17278,40 +17241,40 @@
       <c r="J136" s="1"/>
       <c r="K136" s="1"/>
       <c r="L136" s="5" t="s">
-        <v>82</v>
+        <v>738</v>
       </c>
       <c r="M136" s="5" t="s">
-        <v>69</v>
+        <v>143</v>
       </c>
       <c r="N136" s="5" t="s">
-        <v>164</v>
+        <v>354</v>
       </c>
       <c r="O136" s="5" t="s">
-        <v>672</v>
+        <v>739</v>
       </c>
       <c r="P136" s="5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q136" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="R136" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="S136" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="T136" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="U136" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="V136" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="W136" s="5" t="s">
         <v>75</v>
-      </c>
-      <c r="R136" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="S136" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="T136" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="U136" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="V136" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="W136" s="5" t="s">
-        <v>109</v>
       </c>
       <c r="X136" s="5" t="s">
         <v>128</v>
@@ -17320,28 +17283,28 @@
         <v>81</v>
       </c>
       <c r="Z136" s="5" t="s">
-        <v>155</v>
+        <v>356</v>
       </c>
       <c r="AA136" s="5" t="s">
-        <v>528</v>
+        <v>270</v>
       </c>
       <c r="AB136" s="5" t="s">
-        <v>139</v>
+        <v>234</v>
       </c>
       <c r="AC136" s="5" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="AD136" s="5" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="AE136" s="5" t="s">
         <v>75</v>
       </c>
       <c r="AF136" s="5" t="s">
-        <v>98</v>
+        <v>128</v>
       </c>
       <c r="AG136" s="5" t="s">
-        <v>168</v>
+        <v>139</v>
       </c>
       <c r="AH136" s="1"/>
       <c r="AI136" s="1"/>
@@ -17349,53 +17312,51 @@
       <c r="AK136" s="1"/>
       <c r="AL136" s="1"/>
       <c r="AM136" s="3" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
     </row>
     <row r="137" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="C137" s="1"/>
-      <c r="D137" s="12" t="s">
-        <v>160</v>
-      </c>
+      <c r="D137" s="11"/>
       <c r="E137" s="1"/>
-      <c r="F137" s="1"/>
+      <c r="F137" s="3" t="s">
+        <v>742</v>
+      </c>
       <c r="G137" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="H137" s="4">
-        <v>45145</v>
-      </c>
+      <c r="H137" s="1"/>
       <c r="I137" s="3" t="s">
         <v>89</v>
       </c>
       <c r="J137" s="1"/>
       <c r="K137" s="1"/>
       <c r="L137" s="5" t="s">
-        <v>745</v>
+        <v>130</v>
       </c>
       <c r="M137" s="5" t="s">
-        <v>143</v>
+        <v>69</v>
       </c>
       <c r="N137" s="5" t="s">
-        <v>354</v>
+        <v>156</v>
       </c>
       <c r="O137" s="5" t="s">
-        <v>746</v>
+        <v>275</v>
       </c>
       <c r="P137" s="5" t="s">
         <v>96</v>
       </c>
       <c r="Q137" s="5" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="R137" s="5" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="S137" s="5" t="s">
         <v>76</v>
@@ -17410,22 +17371,20 @@
         <v>73</v>
       </c>
       <c r="W137" s="5" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="X137" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="Y137" s="3" t="s">
-        <v>81</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="Y137" s="1"/>
       <c r="Z137" s="5" t="s">
-        <v>356</v>
+        <v>167</v>
       </c>
       <c r="AA137" s="5" t="s">
         <v>270</v>
       </c>
       <c r="AB137" s="5" t="s">
-        <v>234</v>
+        <v>175</v>
       </c>
       <c r="AC137" s="5" t="s">
         <v>101</v>
@@ -17437,114 +17396,19 @@
         <v>75</v>
       </c>
       <c r="AF137" s="5" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="AG137" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="AH137" s="1"/>
+        <v>131</v>
+      </c>
+      <c r="AH137" s="5" t="s">
+        <v>110</v>
+      </c>
       <c r="AI137" s="1"/>
       <c r="AJ137" s="1"/>
       <c r="AK137" s="1"/>
       <c r="AL137" s="1"/>
-      <c r="AM137" s="3" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="138" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A138" s="3" t="s">
-        <v>747</v>
-      </c>
-      <c r="B138" s="3" t="s">
-        <v>748</v>
-      </c>
-      <c r="C138" s="1"/>
-      <c r="D138" s="11"/>
-      <c r="E138" s="1"/>
-      <c r="F138" s="3" t="s">
-        <v>749</v>
-      </c>
-      <c r="G138" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="H138" s="1"/>
-      <c r="I138" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="J138" s="1"/>
-      <c r="K138" s="1"/>
-      <c r="L138" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="M138" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="N138" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="O138" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="P138" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q138" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="R138" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="S138" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="T138" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="U138" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="V138" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="W138" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="X138" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y138" s="1"/>
-      <c r="Z138" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="AA138" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="AB138" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="AC138" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="AD138" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="AE138" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="AF138" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="AG138" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="AH138" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="AI138" s="1"/>
-      <c r="AJ138" s="1"/>
-      <c r="AK138" s="1"/>
-      <c r="AL138" s="1"/>
-      <c r="AM138" s="1"/>
+      <c r="AM137" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
